--- a/Progressions/Informatique_MPSI_PTSI.xlsx
+++ b/Progressions/Informatique_MPSI_PTSI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14433BB-DBFE-45A0-B3F6-33A147402F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06A55D3-83A0-43BD-AE4A-CEC2C57AC2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8ABCAEBA-846D-48C6-87DF-32BA968DF153}"/>
   </bookViews>
@@ -585,9 +585,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -595,9 +592,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -610,35 +604,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -655,48 +631,72 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1019,10 +1019,10 @@
   <dimension ref="A1:M95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E30" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34:J35"/>
+      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1041,22 +1041,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="42" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="38" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="33" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="31"/>
+      <c r="H1" s="29"/>
       <c r="I1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1077,18 +1077,18 @@
         <f>B2+6</f>
         <v>44808</v>
       </c>
-      <c r="D2" s="43" t="str">
+      <c r="D2" s="35" t="str">
         <f>CONCATENATE(TEXT(B2,"JJ/MM/AA"),CHAR(10),"au",CHAR(10),TEXT(C2,"JJ/MM/AA"))</f>
         <v>29/08/22
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="59"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
       <c r="I2" s="16"/>
-      <c r="J2" s="32"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
@@ -1103,22 +1103,22 @@
         <f>B3+6</f>
         <v>44815</v>
       </c>
-      <c r="D3" s="43" t="str">
+      <c r="D3" s="35" t="str">
         <f t="shared" ref="D3:D45" si="1">CONCATENATE(TEXT(B3,"JJ/MM/AA"),CHAR(10),"au",CHAR(10),TEXT(C3,"JJ/MM/AA"))</f>
         <v>05/09/22
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="46">
         <v>1</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="57"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="8"/>
       <c r="J3" s="9"/>
     </row>
@@ -1135,16 +1135,16 @@
         <f t="shared" ref="C4:C45" si="3">B4+6</f>
         <v>44822</v>
       </c>
-      <c r="D4" s="43" t="str">
+      <c r="D4" s="35" t="str">
         <f t="shared" si="1"/>
         <v>12/09/22
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="8"/>
       <c r="J4" s="9"/>
     </row>
@@ -1161,23 +1161,23 @@
         <f t="shared" si="3"/>
         <v>44829</v>
       </c>
-      <c r="D5" s="43" t="str">
+      <c r="D5" s="35" t="str">
         <f t="shared" si="1"/>
         <v>19/09/22
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="46">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="57"/>
+      <c r="H5" s="42"/>
       <c r="I5" s="16"/>
       <c r="J5" s="17"/>
     </row>
@@ -1194,16 +1194,16 @@
         <f t="shared" si="3"/>
         <v>44836</v>
       </c>
-      <c r="D6" s="43" t="str">
+      <c r="D6" s="35" t="str">
         <f t="shared" si="1"/>
         <v>26/09/22
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="14"/>
       <c r="J6" s="15"/>
     </row>
@@ -1220,23 +1220,23 @@
         <f t="shared" si="3"/>
         <v>44843</v>
       </c>
-      <c r="D7" s="43" t="str">
+      <c r="D7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>03/10/22
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="46">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="57"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="14"/>
       <c r="J7" s="15"/>
     </row>
@@ -1253,16 +1253,16 @@
         <f t="shared" si="3"/>
         <v>44850</v>
       </c>
-      <c r="D8" s="43" t="str">
+      <c r="D8" s="35" t="str">
         <f t="shared" si="1"/>
         <v>10/10/22
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
       <c r="I8" s="14"/>
       <c r="J8" s="15"/>
     </row>
@@ -1278,17 +1278,17 @@
         <f t="shared" si="3"/>
         <v>44857</v>
       </c>
-      <c r="D9" s="43" t="str">
+      <c r="D9" s="35" t="str">
         <f t="shared" si="1"/>
         <v>17/10/22
 au
 23/10/22</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="38">
         <f>E7+1</f>
         <v>4</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="41" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="20" t="s">
@@ -1308,20 +1308,20 @@
         <f t="shared" si="3"/>
         <v>44864</v>
       </c>
-      <c r="D10" s="43" t="str">
+      <c r="D10" s="35" t="str">
         <f t="shared" si="1"/>
         <v>24/10/22
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="39" t="s">
+      <c r="E10" s="38"/>
+      <c r="F10" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="33"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
     </row>
     <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
@@ -1333,18 +1333,18 @@
         <f t="shared" si="3"/>
         <v>44871</v>
       </c>
-      <c r="D11" s="43" t="str">
+      <c r="D11" s="35" t="str">
         <f t="shared" si="1"/>
         <v>31/10/22
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="33"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
     </row>
     <row r="12" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
@@ -1359,24 +1359,24 @@
         <f t="shared" si="3"/>
         <v>44878</v>
       </c>
-      <c r="D12" s="43" t="str">
+      <c r="D12" s="35" t="str">
         <f t="shared" si="1"/>
         <v>07/11/22
 au
 13/11/22</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="38">
         <f>E9</f>
         <v>4</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="41" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="20"/>
-      <c r="I12" s="25"/>
+      <c r="I12" s="24"/>
       <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -1392,23 +1392,23 @@
         <f t="shared" si="3"/>
         <v>44885</v>
       </c>
-      <c r="D13" s="43" t="str">
+      <c r="D13" s="35" t="str">
         <f t="shared" si="1"/>
         <v>14/11/22
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="46">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="57"/>
+      <c r="H13" s="42"/>
       <c r="I13" s="16"/>
       <c r="J13" s="17"/>
     </row>
@@ -1425,16 +1425,16 @@
         <f t="shared" si="3"/>
         <v>44892</v>
       </c>
-      <c r="D14" s="43" t="str">
+      <c r="D14" s="35" t="str">
         <f t="shared" si="1"/>
         <v>21/11/22
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
       <c r="I14" s="16"/>
       <c r="J14" s="17"/>
     </row>
@@ -1451,23 +1451,23 @@
         <f t="shared" si="3"/>
         <v>44899</v>
       </c>
-      <c r="D15" s="43" t="str">
+      <c r="D15" s="35" t="str">
         <f t="shared" si="1"/>
         <v>28/11/22
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="46">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="57"/>
+      <c r="H15" s="42"/>
       <c r="I15" s="16"/>
       <c r="J15" s="17"/>
     </row>
@@ -1484,16 +1484,16 @@
         <f t="shared" si="3"/>
         <v>44906</v>
       </c>
-      <c r="D16" s="43" t="str">
+      <c r="D16" s="35" t="str">
         <f t="shared" si="1"/>
         <v>05/12/22
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="16"/>
       <c r="J16" s="15"/>
     </row>
@@ -1510,17 +1510,17 @@
         <f t="shared" si="3"/>
         <v>44913</v>
       </c>
-      <c r="D17" s="43" t="str">
+      <c r="D17" s="35" t="str">
         <f t="shared" si="1"/>
         <v>12/12/22
 au
 18/12/22</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="38">
         <f>E15+1</f>
         <v>7</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="41" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="20" t="s">
@@ -1540,20 +1540,20 @@
         <f t="shared" si="3"/>
         <v>44920</v>
       </c>
-      <c r="D18" s="43" t="str">
+      <c r="D18" s="35" t="str">
         <f t="shared" si="1"/>
         <v>19/12/22
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="53"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
@@ -1565,18 +1565,18 @@
         <f t="shared" si="3"/>
         <v>44927</v>
       </c>
-      <c r="D19" s="43" t="str">
+      <c r="D19" s="35" t="str">
         <f t="shared" si="1"/>
         <v>26/12/22
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="56"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="53"/>
     </row>
     <row r="20" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
@@ -1591,23 +1591,23 @@
         <f t="shared" si="3"/>
         <v>44934</v>
       </c>
-      <c r="D20" s="43" t="str">
+      <c r="D20" s="35" t="str">
         <f t="shared" si="1"/>
         <v>02/01/23
 au
 08/01/23</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="38">
         <v>7</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="41" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H20" s="20"/>
-      <c r="I20" s="25"/>
+      <c r="I20" s="24"/>
       <c r="J20" s="15"/>
     </row>
     <row r="21" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -1623,23 +1623,23 @@
         <f t="shared" si="3"/>
         <v>44941</v>
       </c>
-      <c r="D21" s="43" t="str">
+      <c r="D21" s="35" t="str">
         <f t="shared" si="1"/>
         <v>09/01/23
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="46">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="57" t="s">
+      <c r="G21" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="57"/>
+      <c r="H21" s="42"/>
       <c r="I21" s="16"/>
       <c r="J21" s="15"/>
     </row>
@@ -1656,16 +1656,16 @@
         <f t="shared" si="3"/>
         <v>44948</v>
       </c>
-      <c r="D22" s="43" t="str">
+      <c r="D22" s="35" t="str">
         <f t="shared" si="1"/>
         <v>16/01/23
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
       <c r="I22" s="16"/>
       <c r="J22" s="15"/>
     </row>
@@ -1682,23 +1682,23 @@
         <f t="shared" si="3"/>
         <v>44955</v>
       </c>
-      <c r="D23" s="43" t="str">
+      <c r="D23" s="35" t="str">
         <f t="shared" si="1"/>
         <v>23/01/23
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="46">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="57" t="s">
+      <c r="G23" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="57"/>
+      <c r="H23" s="42"/>
       <c r="I23" s="16"/>
       <c r="J23" s="15"/>
     </row>
@@ -1715,16 +1715,16 @@
         <f t="shared" si="3"/>
         <v>44962</v>
       </c>
-      <c r="D24" s="43" t="str">
+      <c r="D24" s="35" t="str">
         <f t="shared" si="1"/>
         <v>30/01/23
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
       <c r="I24" s="16"/>
       <c r="J24" s="15"/>
     </row>
@@ -1738,20 +1738,20 @@
         <f t="shared" si="3"/>
         <v>44969</v>
       </c>
-      <c r="D25" s="43" t="str">
+      <c r="D25" s="35" t="str">
         <f t="shared" si="1"/>
         <v>06/02/23
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="39" t="s">
+      <c r="E25" s="38"/>
+      <c r="F25" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="33"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="58"/>
     </row>
     <row r="26" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
@@ -1763,18 +1763,18 @@
         <f t="shared" si="3"/>
         <v>44976</v>
       </c>
-      <c r="D26" s="43" t="str">
+      <c r="D26" s="35" t="str">
         <f t="shared" si="1"/>
         <v>13/02/23
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="33"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="58"/>
     </row>
     <row r="27" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
@@ -1789,23 +1789,23 @@
         <f t="shared" si="3"/>
         <v>44983</v>
       </c>
-      <c r="D27" s="43" t="str">
+      <c r="D27" s="35" t="str">
         <f t="shared" si="1"/>
         <v>20/02/23
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="46">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="57" t="s">
+      <c r="F27" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="34"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="31"/>
     </row>
     <row r="28" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
@@ -1820,18 +1820,18 @@
         <f t="shared" si="3"/>
         <v>44990</v>
       </c>
-      <c r="D28" s="43" t="str">
+      <c r="D28" s="35" t="str">
         <f t="shared" si="1"/>
         <v>27/02/23
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="34"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="31"/>
     </row>
     <row r="29" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
@@ -1846,21 +1846,21 @@
         <f t="shared" si="3"/>
         <v>44997</v>
       </c>
-      <c r="D29" s="43" t="str">
+      <c r="D29" s="35" t="str">
         <f t="shared" si="1"/>
         <v>06/03/23
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="46">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="57" t="s">
+      <c r="F29" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
       <c r="I29" s="16"/>
       <c r="J29" s="15"/>
     </row>
@@ -1877,16 +1877,16 @@
         <f t="shared" si="3"/>
         <v>45004</v>
       </c>
-      <c r="D30" s="43" t="str">
+      <c r="D30" s="35" t="str">
         <f t="shared" si="1"/>
         <v>13/03/23
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
       <c r="I30" s="16"/>
       <c r="J30" s="15"/>
     </row>
@@ -1903,21 +1903,21 @@
         <f t="shared" si="3"/>
         <v>45011</v>
       </c>
-      <c r="D31" s="43" t="str">
+      <c r="D31" s="35" t="str">
         <f t="shared" si="1"/>
         <v>20/03/23
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="48">
+      <c r="E31" s="46">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="57" t="s">
+      <c r="F31" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
       <c r="I31" s="8"/>
       <c r="J31" s="9"/>
       <c r="M31" s="5"/>
@@ -1935,16 +1935,16 @@
         <f t="shared" si="3"/>
         <v>45018</v>
       </c>
-      <c r="D32" s="43" t="str">
+      <c r="D32" s="35" t="str">
         <f t="shared" si="1"/>
         <v>27/03/23
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
       <c r="I32" s="8"/>
       <c r="J32" s="9"/>
     </row>
@@ -1960,14 +1960,14 @@
         <f t="shared" si="3"/>
         <v>45025</v>
       </c>
-      <c r="D33" s="43" t="str">
+      <c r="D33" s="35" t="str">
         <f t="shared" si="1"/>
         <v>03/04/23
 au
 09/04/23</v>
       </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="50" t="s">
+      <c r="E33" s="38"/>
+      <c r="F33" s="40" t="s">
         <v>19</v>
       </c>
       <c r="G33" s="20"/>
@@ -1985,23 +1985,23 @@
         <f t="shared" si="3"/>
         <v>45032</v>
       </c>
-      <c r="D34" s="43" t="str">
+      <c r="D34" s="35" t="str">
         <f t="shared" si="1"/>
         <v>10/04/23
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="48">
+      <c r="E34" s="46">
         <f>E31+1</f>
         <v>13</v>
       </c>
-      <c r="F34" s="40" t="s">
+      <c r="F34" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="35"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="61"/>
     </row>
     <row r="35" spans="1:10" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
@@ -2013,18 +2013,18 @@
         <f t="shared" si="3"/>
         <v>45039</v>
       </c>
-      <c r="D35" s="43" t="str">
+      <c r="D35" s="35" t="str">
         <f t="shared" si="1"/>
         <v>17/04/23
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="49"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="35"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="61"/>
     </row>
     <row r="36" spans="1:10" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
@@ -2036,20 +2036,20 @@
         <f t="shared" si="3"/>
         <v>45046</v>
       </c>
-      <c r="D36" s="43" t="str">
+      <c r="D36" s="35" t="str">
         <f t="shared" si="1"/>
         <v>24/04/23
 au
 30/04/23</v>
       </c>
-      <c r="E36" s="46"/>
-      <c r="F36" s="50" t="s">
+      <c r="E36" s="38"/>
+      <c r="F36" s="40" t="s">
         <v>19</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="36"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:10" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
@@ -2061,21 +2061,21 @@
         <f t="shared" si="3"/>
         <v>45053</v>
       </c>
-      <c r="D37" s="43" t="str">
+      <c r="D37" s="35" t="str">
         <f t="shared" si="1"/>
         <v>01/05/23
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="48">
+      <c r="E37" s="46">
         <f>E34+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="57" t="s">
+      <c r="F37" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
       <c r="I37" s="16"/>
       <c r="J37" s="17"/>
     </row>
@@ -2089,16 +2089,16 @@
         <f t="shared" si="3"/>
         <v>45060</v>
       </c>
-      <c r="D38" s="43" t="str">
+      <c r="D38" s="35" t="str">
         <f t="shared" si="1"/>
         <v>08/05/23
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="49"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
       <c r="I38" s="16"/>
       <c r="J38" s="17"/>
     </row>
@@ -2112,21 +2112,21 @@
         <f t="shared" si="3"/>
         <v>45067</v>
       </c>
-      <c r="D39" s="43" t="str">
+      <c r="D39" s="35" t="str">
         <f t="shared" si="1"/>
         <v>15/05/23
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="48">
+      <c r="E39" s="46">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="57" t="s">
+      <c r="F39" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
       <c r="I39" s="16"/>
       <c r="J39" s="17"/>
     </row>
@@ -2140,16 +2140,16 @@
         <f t="shared" si="3"/>
         <v>45074</v>
       </c>
-      <c r="D40" s="43" t="str">
+      <c r="D40" s="35" t="str">
         <f t="shared" si="1"/>
         <v>22/05/23
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="49"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
       <c r="I40" s="16"/>
       <c r="J40" s="17"/>
     </row>
@@ -2163,21 +2163,21 @@
         <f t="shared" si="3"/>
         <v>45081</v>
       </c>
-      <c r="D41" s="43" t="str">
+      <c r="D41" s="35" t="str">
         <f t="shared" si="1"/>
         <v>29/05/23
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="48">
+      <c r="E41" s="46">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="57" t="s">
+      <c r="F41" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
       <c r="I41" s="16"/>
       <c r="J41" s="17"/>
     </row>
@@ -2191,16 +2191,16 @@
         <f t="shared" si="3"/>
         <v>45088</v>
       </c>
-      <c r="D42" s="43" t="str">
+      <c r="D42" s="35" t="str">
         <f t="shared" si="1"/>
         <v>05/06/23
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="49"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
       <c r="I42" s="16"/>
       <c r="J42" s="17"/>
     </row>
@@ -2214,19 +2214,19 @@
         <f t="shared" si="3"/>
         <v>45095</v>
       </c>
-      <c r="D43" s="43" t="str">
+      <c r="D43" s="35" t="str">
         <f t="shared" si="1"/>
         <v>12/06/23
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="48">
+      <c r="E43" s="46">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
       <c r="I43" s="16"/>
       <c r="J43" s="17"/>
     </row>
@@ -2240,16 +2240,16 @@
         <f t="shared" si="3"/>
         <v>45102</v>
       </c>
-      <c r="D44" s="43" t="str">
+      <c r="D44" s="35" t="str">
         <f t="shared" si="1"/>
         <v>19/06/23
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="49"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
       <c r="I44" s="16"/>
       <c r="J44" s="17"/>
     </row>
@@ -2263,19 +2263,19 @@
         <f t="shared" si="3"/>
         <v>45109</v>
       </c>
-      <c r="D45" s="44" t="str">
+      <c r="D45" s="36" t="str">
         <f t="shared" si="1"/>
         <v>26/06/23
 au
 02/07/23</v>
       </c>
-      <c r="E45" s="47">
+      <c r="E45" s="39">
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="41"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
       <c r="I45" s="10"/>
       <c r="J45" s="11"/>
     </row>
@@ -2431,43 +2431,15 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E18:J19"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="F10:J11"/>
+    <mergeCell ref="F25:J26"/>
+    <mergeCell ref="F34:J35"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="F45:H45"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E5:E6"/>
@@ -2484,15 +2456,43 @@
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="H29:H30"/>
-    <mergeCell ref="F10:J11"/>
-    <mergeCell ref="F25:J26"/>
-    <mergeCell ref="F34:J35"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E18:J19"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progressions/Informatique_MPSI_PTSI.xlsx
+++ b/Progressions/Informatique_MPSI_PTSI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06A55D3-83A0-43BD-AE4A-CEC2C57AC2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D2CD4E-A578-4EBC-9895-315A50304A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8ABCAEBA-846D-48C6-87DF-32BA968DF153}"/>
   </bookViews>
@@ -132,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,15 +187,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -514,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -528,7 +519,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -537,15 +528,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -553,12 +535,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -586,32 +562,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -632,17 +599,23 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -651,53 +624,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1018,49 +991,49 @@
   </sheetPr>
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E12" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="21" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="21" hidden="1" customWidth="1"/>
-    <col min="4" max="5" width="10" style="21" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" style="23" customWidth="1"/>
-    <col min="7" max="7" width="28.81640625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="49.453125" style="23" customWidth="1"/>
-    <col min="9" max="10" width="17" style="23" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="16" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="16" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="10" style="16" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="28.81640625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="49.453125" style="18" customWidth="1"/>
+    <col min="9" max="10" width="17" style="18" customWidth="1"/>
     <col min="11" max="12" width="3.6328125" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.81640625" style="4" customWidth="1"/>
     <col min="14" max="16384" width="11.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="34" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="33" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="12" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="M1" s="2"/>
@@ -1077,18 +1050,18 @@
         <f>B2+6</f>
         <v>44808</v>
       </c>
-      <c r="D2" s="35" t="str">
+      <c r="D2" s="27" t="str">
         <f>CONCATENATE(TEXT(B2,"JJ/MM/AA"),CHAR(10),"au",CHAR(10),TEXT(C2,"JJ/MM/AA"))</f>
         <v>29/08/22
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
@@ -1103,24 +1076,24 @@
         <f>B3+6</f>
         <v>44815</v>
       </c>
-      <c r="D3" s="35" t="str">
+      <c r="D3" s="27" t="str">
         <f t="shared" ref="D3:D45" si="1">CONCATENATE(TEXT(B3,"JJ/MM/AA"),CHAR(10),"au",CHAR(10),TEXT(C3,"JJ/MM/AA"))</f>
         <v>05/09/22
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="34">
         <v>1</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
@@ -1135,18 +1108,18 @@
         <f t="shared" ref="C4:C45" si="3">B4+6</f>
         <v>44822</v>
       </c>
-      <c r="D4" s="35" t="str">
+      <c r="D4" s="27" t="str">
         <f t="shared" si="1"/>
         <v>12/09/22
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
@@ -1161,25 +1134,25 @@
         <f t="shared" si="3"/>
         <v>44829</v>
       </c>
-      <c r="D5" s="35" t="str">
+      <c r="D5" s="27" t="str">
         <f t="shared" si="1"/>
         <v>19/09/22
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="34">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
@@ -1194,18 +1167,18 @@
         <f t="shared" si="3"/>
         <v>44836</v>
       </c>
-      <c r="D6" s="35" t="str">
+      <c r="D6" s="27" t="str">
         <f t="shared" si="1"/>
         <v>26/09/22
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
@@ -1220,25 +1193,25 @@
         <f t="shared" si="3"/>
         <v>44843</v>
       </c>
-      <c r="D7" s="35" t="str">
+      <c r="D7" s="27" t="str">
         <f t="shared" si="1"/>
         <v>03/10/22
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="34">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
@@ -1253,18 +1226,18 @@
         <f t="shared" si="3"/>
         <v>44850</v>
       </c>
-      <c r="D8" s="35" t="str">
+      <c r="D8" s="27" t="str">
         <f t="shared" si="1"/>
         <v>10/10/22
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
@@ -1278,25 +1251,25 @@
         <f t="shared" si="3"/>
         <v>44857</v>
       </c>
-      <c r="D9" s="35" t="str">
+      <c r="D9" s="27" t="str">
         <f t="shared" si="1"/>
         <v>17/10/22
 au
 23/10/22</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="30">
         <f>E7+1</f>
         <v>4</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
@@ -1308,20 +1281,20 @@
         <f t="shared" si="3"/>
         <v>44864</v>
       </c>
-      <c r="D10" s="35" t="str">
+      <c r="D10" s="27" t="str">
         <f t="shared" si="1"/>
         <v>24/10/22
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="56" t="s">
+      <c r="E10" s="30"/>
+      <c r="F10" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
     </row>
     <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
@@ -1333,18 +1306,18 @@
         <f t="shared" si="3"/>
         <v>44871</v>
       </c>
-      <c r="D11" s="35" t="str">
+      <c r="D11" s="27" t="str">
         <f t="shared" si="1"/>
         <v>31/10/22
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
@@ -1359,25 +1332,25 @@
         <f t="shared" si="3"/>
         <v>44878</v>
       </c>
-      <c r="D12" s="35" t="str">
+      <c r="D12" s="27" t="str">
         <f t="shared" si="1"/>
         <v>07/11/22
 au
 13/11/22</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="30">
         <f>E9</f>
         <v>4</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="17"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
@@ -1392,25 +1365,25 @@
         <f t="shared" si="3"/>
         <v>44885</v>
       </c>
-      <c r="D13" s="35" t="str">
+      <c r="D13" s="27" t="str">
         <f t="shared" si="1"/>
         <v>14/11/22
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="34">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="17"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
@@ -1425,18 +1398,18 @@
         <f t="shared" si="3"/>
         <v>44892</v>
       </c>
-      <c r="D14" s="35" t="str">
+      <c r="D14" s="27" t="str">
         <f t="shared" si="1"/>
         <v>21/11/22
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="17"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
@@ -1451,25 +1424,25 @@
         <f t="shared" si="3"/>
         <v>44899</v>
       </c>
-      <c r="D15" s="35" t="str">
+      <c r="D15" s="27" t="str">
         <f t="shared" si="1"/>
         <v>28/11/22
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="34">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
@@ -1484,18 +1457,18 @@
         <f t="shared" si="3"/>
         <v>44906</v>
       </c>
-      <c r="D16" s="35" t="str">
+      <c r="D16" s="27" t="str">
         <f t="shared" si="1"/>
         <v>05/12/22
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="15"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
@@ -1510,25 +1483,25 @@
         <f t="shared" si="3"/>
         <v>44913</v>
       </c>
-      <c r="D17" s="35" t="str">
+      <c r="D17" s="27" t="str">
         <f t="shared" si="1"/>
         <v>12/12/22
 au
 18/12/22</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="30">
         <f>E15+1</f>
         <v>7</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
@@ -1540,20 +1513,20 @@
         <f t="shared" si="3"/>
         <v>44920</v>
       </c>
-      <c r="D18" s="35" t="str">
+      <c r="D18" s="27" t="str">
         <f t="shared" si="1"/>
         <v>19/12/22
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
@@ -1565,18 +1538,18 @@
         <f t="shared" si="3"/>
         <v>44927</v>
       </c>
-      <c r="D19" s="35" t="str">
+      <c r="D19" s="27" t="str">
         <f t="shared" si="1"/>
         <v>26/12/22
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
     </row>
     <row r="20" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
@@ -1591,24 +1564,24 @@
         <f t="shared" si="3"/>
         <v>44934</v>
       </c>
-      <c r="D20" s="35" t="str">
+      <c r="D20" s="27" t="str">
         <f t="shared" si="1"/>
         <v>02/01/23
 au
 08/01/23</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="30">
         <v>7</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
@@ -1623,25 +1596,25 @@
         <f t="shared" si="3"/>
         <v>44941</v>
       </c>
-      <c r="D21" s="35" t="str">
+      <c r="D21" s="27" t="str">
         <f t="shared" si="1"/>
         <v>09/01/23
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="34">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="42"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="15"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
@@ -1656,18 +1629,18 @@
         <f t="shared" si="3"/>
         <v>44948</v>
       </c>
-      <c r="D22" s="35" t="str">
+      <c r="D22" s="27" t="str">
         <f t="shared" si="1"/>
         <v>16/01/23
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="15"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
@@ -1682,25 +1655,25 @@
         <f t="shared" si="3"/>
         <v>44955</v>
       </c>
-      <c r="D23" s="35" t="str">
+      <c r="D23" s="27" t="str">
         <f t="shared" si="1"/>
         <v>23/01/23
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="34">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="42" t="s">
+      <c r="G23" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="42"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="15"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
@@ -1715,18 +1688,18 @@
         <f t="shared" si="3"/>
         <v>44962</v>
       </c>
-      <c r="D24" s="35" t="str">
+      <c r="D24" s="27" t="str">
         <f t="shared" si="1"/>
         <v>30/01/23
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="15"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
@@ -1738,20 +1711,20 @@
         <f t="shared" si="3"/>
         <v>44969</v>
       </c>
-      <c r="D25" s="35" t="str">
+      <c r="D25" s="27" t="str">
         <f t="shared" si="1"/>
         <v>06/02/23
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="56" t="s">
+      <c r="E25" s="30"/>
+      <c r="F25" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="43"/>
     </row>
     <row r="26" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
@@ -1763,18 +1736,18 @@
         <f t="shared" si="3"/>
         <v>44976</v>
       </c>
-      <c r="D26" s="35" t="str">
+      <c r="D26" s="27" t="str">
         <f t="shared" si="1"/>
         <v>13/02/23
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="43"/>
     </row>
     <row r="27" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
@@ -1789,23 +1762,23 @@
         <f t="shared" si="3"/>
         <v>44983</v>
       </c>
-      <c r="D27" s="35" t="str">
+      <c r="D27" s="27" t="str">
         <f t="shared" si="1"/>
         <v>20/02/23
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27" s="34">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="31"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="24"/>
     </row>
     <row r="28" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
@@ -1820,18 +1793,18 @@
         <f t="shared" si="3"/>
         <v>44990</v>
       </c>
-      <c r="D28" s="35" t="str">
+      <c r="D28" s="27" t="str">
         <f t="shared" si="1"/>
         <v>27/02/23
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="31"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="24"/>
     </row>
     <row r="29" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
@@ -1846,23 +1819,23 @@
         <f t="shared" si="3"/>
         <v>44997</v>
       </c>
-      <c r="D29" s="35" t="str">
+      <c r="D29" s="27" t="str">
         <f t="shared" si="1"/>
         <v>06/03/23
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="46">
+      <c r="E29" s="34">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="42" t="s">
+      <c r="F29" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="15"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="12"/>
     </row>
     <row r="30" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
@@ -1877,18 +1850,18 @@
         <f t="shared" si="3"/>
         <v>45004</v>
       </c>
-      <c r="D30" s="35" t="str">
+      <c r="D30" s="27" t="str">
         <f t="shared" si="1"/>
         <v>13/03/23
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="15"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="12"/>
     </row>
     <row r="31" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
@@ -1903,23 +1876,23 @@
         <f t="shared" si="3"/>
         <v>45011</v>
       </c>
-      <c r="D31" s="35" t="str">
+      <c r="D31" s="27" t="str">
         <f t="shared" si="1"/>
         <v>20/03/23
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="46">
+      <c r="E31" s="34">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="42" t="s">
+      <c r="F31" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="9"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="40"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -1935,18 +1908,18 @@
         <f t="shared" si="3"/>
         <v>45018</v>
       </c>
-      <c r="D32" s="35" t="str">
+      <c r="D32" s="27" t="str">
         <f t="shared" si="1"/>
         <v>27/03/23
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="47"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="9"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="40"/>
     </row>
     <row r="33" spans="1:10" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
@@ -1960,20 +1933,20 @@
         <f t="shared" si="3"/>
         <v>45025</v>
       </c>
-      <c r="D33" s="35" t="str">
+      <c r="D33" s="27" t="str">
         <f t="shared" si="1"/>
         <v>03/04/23
 au
 09/04/23</v>
       </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="40" t="s">
+      <c r="E33" s="30"/>
+      <c r="F33" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="9"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="40"/>
     </row>
     <row r="34" spans="1:10" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
@@ -1985,23 +1958,23 @@
         <f t="shared" si="3"/>
         <v>45032</v>
       </c>
-      <c r="D34" s="35" t="str">
+      <c r="D34" s="27" t="str">
         <f t="shared" si="1"/>
         <v>10/04/23
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="46">
+      <c r="E34" s="34">
         <f>E31+1</f>
         <v>13</v>
       </c>
-      <c r="F34" s="59" t="s">
+      <c r="F34" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="61"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="53"/>
     </row>
     <row r="35" spans="1:10" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
@@ -2013,18 +1986,18 @@
         <f t="shared" si="3"/>
         <v>45039</v>
       </c>
-      <c r="D35" s="35" t="str">
+      <c r="D35" s="27" t="str">
         <f t="shared" si="1"/>
         <v>17/04/23
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="47"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="61"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="53"/>
     </row>
     <row r="36" spans="1:10" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
@@ -2036,20 +2009,20 @@
         <f t="shared" si="3"/>
         <v>45046</v>
       </c>
-      <c r="D36" s="35" t="str">
+      <c r="D36" s="27" t="str">
         <f t="shared" si="1"/>
         <v>24/04/23
 au
 30/04/23</v>
       </c>
-      <c r="E36" s="38"/>
-      <c r="F36" s="40" t="s">
+      <c r="E36" s="30"/>
+      <c r="F36" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="32"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="55"/>
     </row>
     <row r="37" spans="1:10" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
@@ -2061,23 +2034,23 @@
         <f t="shared" si="3"/>
         <v>45053</v>
       </c>
-      <c r="D37" s="35" t="str">
+      <c r="D37" s="27" t="str">
         <f t="shared" si="1"/>
         <v>01/05/23
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="46">
+      <c r="E37" s="34">
         <f>E34+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="42" t="s">
+      <c r="F37" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="17"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="12"/>
     </row>
     <row r="38" spans="1:10" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
@@ -2089,18 +2062,18 @@
         <f t="shared" si="3"/>
         <v>45060</v>
       </c>
-      <c r="D38" s="35" t="str">
+      <c r="D38" s="27" t="str">
         <f t="shared" si="1"/>
         <v>08/05/23
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="17"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="12"/>
     </row>
     <row r="39" spans="1:10" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
@@ -2112,23 +2085,23 @@
         <f t="shared" si="3"/>
         <v>45067</v>
       </c>
-      <c r="D39" s="35" t="str">
+      <c r="D39" s="27" t="str">
         <f t="shared" si="1"/>
         <v>15/05/23
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="46">
+      <c r="E39" s="34">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="42" t="s">
+      <c r="F39" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="17"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="12"/>
     </row>
     <row r="40" spans="1:10" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
@@ -2140,18 +2113,18 @@
         <f t="shared" si="3"/>
         <v>45074</v>
       </c>
-      <c r="D40" s="35" t="str">
+      <c r="D40" s="27" t="str">
         <f t="shared" si="1"/>
         <v>22/05/23
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="47"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="17"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="12"/>
     </row>
     <row r="41" spans="1:10" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
@@ -2163,23 +2136,23 @@
         <f t="shared" si="3"/>
         <v>45081</v>
       </c>
-      <c r="D41" s="35" t="str">
+      <c r="D41" s="27" t="str">
         <f t="shared" si="1"/>
         <v>29/05/23
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="46">
+      <c r="E41" s="34">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="42" t="s">
+      <c r="F41" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="17"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="12"/>
     </row>
     <row r="42" spans="1:10" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="6"/>
@@ -2191,18 +2164,18 @@
         <f t="shared" si="3"/>
         <v>45088</v>
       </c>
-      <c r="D42" s="35" t="str">
+      <c r="D42" s="27" t="str">
         <f t="shared" si="1"/>
         <v>05/06/23
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="17"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="12"/>
     </row>
     <row r="43" spans="1:10" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
@@ -2214,21 +2187,21 @@
         <f t="shared" si="3"/>
         <v>45095</v>
       </c>
-      <c r="D43" s="35" t="str">
+      <c r="D43" s="27" t="str">
         <f t="shared" si="1"/>
         <v>12/06/23
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="46">
+      <c r="E43" s="34">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="17"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="12"/>
     </row>
     <row r="44" spans="1:10" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
@@ -2240,206 +2213,227 @@
         <f t="shared" si="3"/>
         <v>45102</v>
       </c>
-      <c r="D44" s="35" t="str">
+      <c r="D44" s="27" t="str">
         <f t="shared" si="1"/>
         <v>19/06/23
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="47"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="17"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="12"/>
     </row>
     <row r="45" spans="1:10" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19">
+      <c r="A45" s="13"/>
+      <c r="B45" s="14">
         <f t="shared" si="2"/>
         <v>45103</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="14">
         <f t="shared" si="3"/>
         <v>45109</v>
       </c>
-      <c r="D45" s="36" t="str">
+      <c r="D45" s="28" t="str">
         <f t="shared" si="1"/>
         <v>26/06/23
 au
 02/07/23</v>
       </c>
-      <c r="E45" s="39">
+      <c r="E45" s="31">
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="54"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="11"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="8"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="22"/>
+      <c r="B46" s="17"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="22"/>
+      <c r="B47" s="17"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="22"/>
+      <c r="B48" s="17"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="22"/>
+      <c r="B49" s="17"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="22"/>
+      <c r="B50" s="17"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51" s="22"/>
+      <c r="B51" s="17"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="22"/>
+      <c r="B52" s="17"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="22"/>
+      <c r="B53" s="17"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B54" s="22"/>
+      <c r="B54" s="17"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="22"/>
+      <c r="B55" s="17"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B56" s="22"/>
+      <c r="B56" s="17"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="22"/>
+      <c r="B57" s="17"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B58" s="22"/>
+      <c r="B58" s="17"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B59" s="22"/>
+      <c r="B59" s="17"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B60" s="22"/>
+      <c r="B60" s="17"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B61" s="22"/>
+      <c r="B61" s="17"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="22"/>
+      <c r="B62" s="17"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B63" s="22"/>
+      <c r="B63" s="17"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B64" s="22"/>
+      <c r="B64" s="17"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B65" s="22"/>
+      <c r="B65" s="17"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B66" s="22"/>
+      <c r="B66" s="17"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B67" s="22"/>
+      <c r="B67" s="17"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="22"/>
+      <c r="B68" s="17"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B69" s="22"/>
+      <c r="B69" s="17"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B70" s="22"/>
+      <c r="B70" s="17"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B71" s="22"/>
+      <c r="B71" s="17"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B72" s="22"/>
+      <c r="B72" s="17"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B73" s="22"/>
+      <c r="B73" s="17"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B74" s="22"/>
+      <c r="B74" s="17"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B75" s="22"/>
+      <c r="B75" s="17"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B76" s="22"/>
+      <c r="B76" s="17"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B77" s="22"/>
+      <c r="B77" s="17"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B78" s="22"/>
+      <c r="B78" s="17"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B79" s="22"/>
+      <c r="B79" s="17"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B80" s="22"/>
+      <c r="B80" s="17"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B81" s="22"/>
+      <c r="B81" s="17"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82" s="22"/>
+      <c r="B82" s="17"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83" s="22"/>
+      <c r="B83" s="17"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84" s="22"/>
+      <c r="B84" s="17"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B85" s="22"/>
+      <c r="B85" s="17"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B86" s="22"/>
+      <c r="B86" s="17"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B87" s="22"/>
+      <c r="B87" s="17"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88" s="22"/>
+      <c r="B88" s="17"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B89" s="22"/>
+      <c r="B89" s="17"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90" s="22"/>
+      <c r="B90" s="17"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B91" s="22"/>
+      <c r="B91" s="17"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92" s="22"/>
+      <c r="B92" s="17"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93" s="22"/>
+      <c r="B93" s="17"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B94" s="22"/>
+      <c r="B94" s="17"/>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B95" s="22"/>
+      <c r="B95" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="F10:J11"/>
-    <mergeCell ref="F25:J26"/>
-    <mergeCell ref="F34:J35"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E18:J19"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
     <mergeCell ref="F45:H45"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E5:E6"/>
@@ -2456,15 +2450,15 @@
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E18:J19"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="F10:J11"/>
+    <mergeCell ref="F25:J26"/>
+    <mergeCell ref="F34:J35"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
@@ -2472,27 +2466,6 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progressions/Informatique_MPSI_PTSI.xlsx
+++ b/Progressions/Informatique_MPSI_PTSI.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D2CD4E-A578-4EBC-9895-315A50304A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8ABCAEBA-846D-48C6-87DF-32BA968DF153}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="2022_2023" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Num</t>
   </si>
@@ -126,13 +125,28 @@
   </si>
   <si>
     <t>Image cachée</t>
+  </si>
+  <si>
+    <t>DS 1</t>
+  </si>
+  <si>
+    <t>DS 2</t>
+  </si>
+  <si>
+    <t>DS 3</t>
+  </si>
+  <si>
+    <t>Début S2 ?</t>
+  </si>
+  <si>
+    <t>DS 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,23 +156,7 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -193,16 +191,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -419,19 +432,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -480,22 +480,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -505,172 +509,163 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -985,1455 +980,1450 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F938E960-4826-415B-8B97-CF40DD223950}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E12" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E21" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="16" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="16" hidden="1" customWidth="1"/>
-    <col min="4" max="5" width="10" style="16" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" style="18" customWidth="1"/>
-    <col min="7" max="7" width="28.81640625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="49.453125" style="18" customWidth="1"/>
-    <col min="9" max="10" width="17" style="18" customWidth="1"/>
-    <col min="11" max="12" width="3.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.81640625" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="11.453125" style="3"/>
+    <col min="1" max="1" width="4.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="15" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="15" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="10" style="15" customWidth="1"/>
+    <col min="6" max="8" width="31.85546875" style="17" customWidth="1"/>
+    <col min="9" max="10" width="17" style="17" customWidth="1"/>
+    <col min="11" max="12" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="26" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
+    </row>
+    <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>44802</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <f>B2+6</f>
         <v>44808</v>
       </c>
-      <c r="D2" s="27" t="str">
+      <c r="D2" s="21" t="str">
         <f>CONCATENATE(TEXT(B2,"JJ/MM/AA"),CHAR(10),"au",CHAR(10),TEXT(C2,"JJ/MM/AA"))</f>
         <v>29/08/22
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+      <c r="E2" s="46"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="47"/>
+    </row>
+    <row r="3" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <f>B2+7</f>
         <v>44809</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <f>B3+6</f>
         <v>44815</v>
       </c>
-      <c r="D3" s="27" t="str">
+      <c r="D3" s="21" t="str">
         <f t="shared" ref="D3:D45" si="1">CONCATENATE(TEXT(B3,"JJ/MM/AA"),CHAR(10),"au",CHAR(10),TEXT(C3,"JJ/MM/AA"))</f>
         <v>05/09/22
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="32">
         <v>1</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="40"/>
-    </row>
-    <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+      <c r="H3" s="42"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="26"/>
+    </row>
+    <row r="4" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <f t="shared" ref="B4:B45" si="2">B3+7</f>
         <v>44816</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <f t="shared" ref="C4:C45" si="3">B4+6</f>
         <v>44822</v>
       </c>
-      <c r="D4" s="27" t="str">
+      <c r="D4" s="21" t="str">
         <f t="shared" si="1"/>
         <v>12/09/22
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="40"/>
-    </row>
-    <row r="5" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+      <c r="E4" s="33"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="26"/>
+    </row>
+    <row r="5" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <f t="shared" si="2"/>
         <v>44823</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <f t="shared" si="3"/>
         <v>44829</v>
       </c>
-      <c r="D5" s="27" t="str">
+      <c r="D5" s="21" t="str">
         <f t="shared" si="1"/>
         <v>19/09/22
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="32">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+      <c r="H5" s="42"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <f t="shared" si="2"/>
         <v>44830</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f t="shared" si="3"/>
         <v>44836</v>
       </c>
-      <c r="D6" s="27" t="str">
+      <c r="D6" s="21" t="str">
         <f t="shared" si="1"/>
         <v>26/09/22
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="E6" s="33"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <f t="shared" si="2"/>
         <v>44837</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <f t="shared" si="3"/>
         <v>44843</v>
       </c>
-      <c r="D7" s="27" t="str">
+      <c r="D7" s="21" t="str">
         <f t="shared" si="1"/>
         <v>03/10/22
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="32">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+      <c r="H7" s="42"/>
+      <c r="I7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <f t="shared" si="2"/>
         <v>44844</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <f t="shared" si="3"/>
         <v>44850</v>
       </c>
-      <c r="D8" s="27" t="str">
+      <c r="D8" s="21" t="str">
         <f t="shared" si="1"/>
         <v>10/10/22
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+      <c r="E8" s="33"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <f t="shared" si="2"/>
         <v>44851</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <f t="shared" si="3"/>
         <v>44857</v>
       </c>
-      <c r="D9" s="27" t="str">
+      <c r="D9" s="21" t="str">
         <f t="shared" si="1"/>
         <v>17/10/22
 au
 23/10/22</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="23">
         <f>E7+1</f>
         <v>4</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7">
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28"/>
+    </row>
+    <row r="10" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6">
         <f t="shared" si="2"/>
         <v>44858</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <f t="shared" si="3"/>
         <v>44864</v>
       </c>
-      <c r="D10" s="27" t="str">
+      <c r="D10" s="21" t="str">
         <f t="shared" si="1"/>
         <v>24/10/22
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="41" t="s">
+      <c r="E10" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
-    </row>
-    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="36"/>
+    </row>
+    <row r="11" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6">
         <f t="shared" si="2"/>
         <v>44865</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <f t="shared" si="3"/>
         <v>44871</v>
       </c>
-      <c r="D11" s="27" t="str">
+      <c r="D11" s="21" t="str">
         <f t="shared" si="1"/>
         <v>31/10/22
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="43"/>
-    </row>
-    <row r="12" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="39"/>
+    </row>
+    <row r="12" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <f t="shared" si="2"/>
         <v>44872</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <f t="shared" si="3"/>
         <v>44878</v>
       </c>
-      <c r="D12" s="27" t="str">
+      <c r="D12" s="21" t="str">
         <f t="shared" si="1"/>
         <v>07/11/22
 au
 13/11/22</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="23">
         <f>E9</f>
         <v>4</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+      <c r="H12" s="27"/>
+      <c r="I12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <f t="shared" si="2"/>
         <v>44879</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <f t="shared" si="3"/>
         <v>44885</v>
       </c>
-      <c r="D13" s="27" t="str">
+      <c r="D13" s="21" t="str">
         <f t="shared" si="1"/>
         <v>14/11/22
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="32">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
+      <c r="H13" s="42"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <f t="shared" si="2"/>
         <v>44886</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f t="shared" si="3"/>
         <v>44892</v>
       </c>
-      <c r="D14" s="27" t="str">
+      <c r="D14" s="21" t="str">
         <f t="shared" si="1"/>
         <v>21/11/22
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+      <c r="E14" s="33"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <f t="shared" si="2"/>
         <v>44893</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f t="shared" si="3"/>
         <v>44899</v>
       </c>
-      <c r="D15" s="27" t="str">
+      <c r="D15" s="21" t="str">
         <f t="shared" si="1"/>
         <v>28/11/22
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="32">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
+      <c r="H15" s="42"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <f t="shared" si="2"/>
         <v>44900</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f t="shared" si="3"/>
         <v>44906</v>
       </c>
-      <c r="D16" s="27" t="str">
+      <c r="D16" s="21" t="str">
         <f t="shared" si="1"/>
         <v>05/12/22
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
+      <c r="E16" s="33"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <f t="shared" si="2"/>
         <v>44907</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <f t="shared" si="3"/>
         <v>44913</v>
       </c>
-      <c r="D17" s="27" t="str">
+      <c r="D17" s="21" t="str">
         <f t="shared" si="1"/>
         <v>12/12/22
 au
 18/12/22</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="23">
         <f>E15+1</f>
         <v>7</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7">
+      <c r="H17" s="14"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6">
         <f t="shared" si="2"/>
         <v>44914</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <f t="shared" si="3"/>
         <v>44920</v>
       </c>
-      <c r="D18" s="27" t="str">
+      <c r="D18" s="21" t="str">
         <f t="shared" si="1"/>
         <v>19/12/22
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
-    </row>
-    <row r="19" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7">
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="36"/>
+    </row>
+    <row r="19" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6">
         <f t="shared" si="2"/>
         <v>44921</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <f t="shared" si="3"/>
         <v>44927</v>
       </c>
-      <c r="D19" s="27" t="str">
+      <c r="D19" s="21" t="str">
         <f t="shared" si="1"/>
         <v>26/12/22
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="50"/>
-    </row>
-    <row r="20" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="39"/>
+    </row>
+    <row r="20" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <f t="shared" si="2"/>
         <v>44928</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <f t="shared" si="3"/>
         <v>44934</v>
       </c>
-      <c r="D20" s="27" t="str">
+      <c r="D20" s="21" t="str">
         <f t="shared" si="1"/>
         <v>02/01/23
 au
 08/01/23</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="23">
         <v>7</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
+      <c r="H20" s="14"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <f>B20+7</f>
         <v>44935</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <f t="shared" si="3"/>
         <v>44941</v>
       </c>
-      <c r="D21" s="27" t="str">
+      <c r="D21" s="21" t="str">
         <f t="shared" si="1"/>
         <v>09/01/23
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="32">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="38"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="6">
+      <c r="H21" s="42"/>
+      <c r="I21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <f t="shared" si="2"/>
         <v>44942</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <f t="shared" si="3"/>
         <v>44948</v>
       </c>
-      <c r="D22" s="27" t="str">
+      <c r="D22" s="21" t="str">
         <f t="shared" si="1"/>
         <v>16/01/23
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="6">
+      <c r="E22" s="33"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <f t="shared" si="2"/>
         <v>44949</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <f t="shared" si="3"/>
         <v>44955</v>
       </c>
-      <c r="D23" s="27" t="str">
+      <c r="D23" s="21" t="str">
         <f t="shared" si="1"/>
         <v>23/01/23
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="32">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="6">
+      <c r="H23" s="42"/>
+      <c r="I23" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <f t="shared" si="2"/>
         <v>44956</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <f t="shared" si="3"/>
         <v>44962</v>
       </c>
-      <c r="D24" s="27" t="str">
+      <c r="D24" s="21" t="str">
         <f t="shared" si="1"/>
         <v>30/01/23
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7">
+      <c r="E24" s="33"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6">
         <f t="shared" si="2"/>
         <v>44963</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <f t="shared" si="3"/>
         <v>44969</v>
       </c>
-      <c r="D25" s="27" t="str">
+      <c r="D25" s="21" t="str">
         <f t="shared" si="1"/>
         <v>06/02/23
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="41" t="s">
+      <c r="E25" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
-    </row>
-    <row r="26" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7">
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="36"/>
+    </row>
+    <row r="26" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6">
         <f t="shared" si="2"/>
         <v>44970</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <f t="shared" si="3"/>
         <v>44976</v>
       </c>
-      <c r="D26" s="27" t="str">
+      <c r="D26" s="21" t="str">
         <f t="shared" si="1"/>
         <v>13/02/23
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="43"/>
-    </row>
-    <row r="27" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="6">
+      <c r="E26" s="37"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="39"/>
+    </row>
+    <row r="27" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <f t="shared" si="2"/>
         <v>44977</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <f t="shared" si="3"/>
         <v>44983</v>
       </c>
-      <c r="D27" s="27" t="str">
+      <c r="D27" s="21" t="str">
         <f t="shared" si="1"/>
         <v>20/02/23
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="32">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="24"/>
-    </row>
-    <row r="28" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="6">
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="19"/>
+    </row>
+    <row r="28" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <f t="shared" si="2"/>
         <v>44984</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <f t="shared" si="3"/>
         <v>44990</v>
       </c>
-      <c r="D28" s="27" t="str">
+      <c r="D28" s="21" t="str">
         <f t="shared" si="1"/>
         <v>27/02/23
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="24"/>
-    </row>
-    <row r="29" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="6">
+      <c r="E28" s="33"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="19"/>
+    </row>
+    <row r="29" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <f t="shared" si="2"/>
         <v>44991</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <f t="shared" si="3"/>
         <v>44997</v>
       </c>
-      <c r="D29" s="27" t="str">
+      <c r="D29" s="21" t="str">
         <f t="shared" si="1"/>
         <v>06/03/23
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="32">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="6">
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <f t="shared" si="2"/>
         <v>44998</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <f t="shared" si="3"/>
         <v>45004</v>
       </c>
-      <c r="D30" s="27" t="str">
+      <c r="D30" s="21" t="str">
         <f t="shared" si="1"/>
         <v>13/03/23
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="12"/>
-    </row>
-    <row r="31" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="6">
+      <c r="E30" s="33"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <f t="shared" si="2"/>
         <v>45005</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <f t="shared" si="3"/>
         <v>45011</v>
       </c>
-      <c r="D31" s="27" t="str">
+      <c r="D31" s="21" t="str">
         <f t="shared" si="1"/>
         <v>20/03/23
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="32">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="40"/>
-      <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="6">
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="26"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <f t="shared" si="2"/>
         <v>45012</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <f t="shared" si="3"/>
         <v>45018</v>
       </c>
-      <c r="D32" s="27" t="str">
+      <c r="D32" s="21" t="str">
         <f t="shared" si="1"/>
         <v>27/03/23
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="40"/>
-    </row>
-    <row r="33" spans="1:10" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="6">
+      <c r="E32" s="33"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="26"/>
+    </row>
+    <row r="33" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <v>25</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <f t="shared" si="2"/>
         <v>45019</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <f t="shared" si="3"/>
         <v>45025</v>
       </c>
-      <c r="D33" s="27" t="str">
+      <c r="D33" s="21" t="str">
         <f t="shared" si="1"/>
         <v>03/04/23
 au
 09/04/23</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="32" t="s">
+      <c r="E33" s="23">
+        <v>13</v>
+      </c>
+      <c r="F33" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="40"/>
-    </row>
-    <row r="34" spans="1:10" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7">
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="34" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6">
         <f t="shared" si="2"/>
         <v>45026</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <f t="shared" si="3"/>
         <v>45032</v>
       </c>
-      <c r="D34" s="27" t="str">
+      <c r="D34" s="21" t="str">
         <f t="shared" si="1"/>
         <v>10/04/23
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="34">
-        <f>E31+1</f>
+      <c r="E34" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="49"/>
+    </row>
+    <row r="35" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6">
+        <f t="shared" si="2"/>
+        <v>45033</v>
+      </c>
+      <c r="C35" s="6">
+        <f t="shared" si="3"/>
+        <v>45039</v>
+      </c>
+      <c r="D35" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>17/04/23
+au
+23/04/23</v>
+      </c>
+      <c r="E35" s="33"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="51"/>
+    </row>
+    <row r="36" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6">
+        <f t="shared" si="2"/>
+        <v>45040</v>
+      </c>
+      <c r="C36" s="6">
+        <f t="shared" si="3"/>
+        <v>45046</v>
+      </c>
+      <c r="D36" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>24/04/23
+au
+30/04/23</v>
+      </c>
+      <c r="E36" s="23">
         <v>13</v>
       </c>
-      <c r="F34" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="53"/>
-    </row>
-    <row r="35" spans="1:10" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7">
-        <f t="shared" si="2"/>
-        <v>45033</v>
-      </c>
-      <c r="C35" s="7">
-        <f t="shared" si="3"/>
-        <v>45039</v>
-      </c>
-      <c r="D35" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>17/04/23
-au
-23/04/23</v>
-      </c>
-      <c r="E35" s="35"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="53"/>
-    </row>
-    <row r="36" spans="1:10" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7">
-        <f t="shared" si="2"/>
-        <v>45040</v>
-      </c>
-      <c r="C36" s="7">
-        <f t="shared" si="3"/>
-        <v>45046</v>
-      </c>
-      <c r="D36" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>24/04/23
-au
-30/04/23</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="55"/>
-    </row>
-    <row r="37" spans="1:10" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7">
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="31"/>
+    </row>
+    <row r="37" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6">
         <f t="shared" si="2"/>
         <v>45047</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <f t="shared" si="3"/>
         <v>45053</v>
       </c>
-      <c r="D37" s="27" t="str">
+      <c r="D37" s="21" t="str">
         <f t="shared" si="1"/>
         <v>01/05/23
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="34">
-        <f>E34+1</f>
+      <c r="E37" s="32">
+        <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="1:10" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7">
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6">
         <f t="shared" si="2"/>
         <v>45054</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <f t="shared" si="3"/>
         <v>45060</v>
       </c>
-      <c r="D38" s="27" t="str">
+      <c r="D38" s="21" t="str">
         <f t="shared" si="1"/>
         <v>08/05/23
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="12"/>
-    </row>
-    <row r="39" spans="1:10" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7">
+      <c r="E38" s="33"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="11"/>
+    </row>
+    <row r="39" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6">
         <f t="shared" si="2"/>
         <v>45061</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <f t="shared" si="3"/>
         <v>45067</v>
       </c>
-      <c r="D39" s="27" t="str">
+      <c r="D39" s="21" t="str">
         <f t="shared" si="1"/>
         <v>15/05/23
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="34">
+      <c r="E39" s="32">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="38" t="s">
+      <c r="F39" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="12"/>
-    </row>
-    <row r="40" spans="1:10" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7">
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="11"/>
+    </row>
+    <row r="40" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6">
         <f t="shared" si="2"/>
         <v>45068</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <f t="shared" si="3"/>
         <v>45074</v>
       </c>
-      <c r="D40" s="27" t="str">
+      <c r="D40" s="21" t="str">
         <f t="shared" si="1"/>
         <v>22/05/23
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="12"/>
-    </row>
-    <row r="41" spans="1:10" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7">
+      <c r="E40" s="33"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="11"/>
+    </row>
+    <row r="41" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6">
         <f t="shared" si="2"/>
         <v>45075</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <f t="shared" si="3"/>
         <v>45081</v>
       </c>
-      <c r="D41" s="27" t="str">
+      <c r="D41" s="21" t="str">
         <f t="shared" si="1"/>
         <v>29/05/23
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="34">
+      <c r="E41" s="32">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="38" t="s">
+      <c r="F41" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="12"/>
-    </row>
-    <row r="42" spans="1:10" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7">
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="11"/>
+    </row>
+    <row r="42" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6">
         <f t="shared" si="2"/>
         <v>45082</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <f t="shared" si="3"/>
         <v>45088</v>
       </c>
-      <c r="D42" s="27" t="str">
+      <c r="D42" s="21" t="str">
         <f t="shared" si="1"/>
         <v>05/06/23
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="35"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="12"/>
-    </row>
-    <row r="43" spans="1:10" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7">
+      <c r="E42" s="33"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="11"/>
+    </row>
+    <row r="43" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6">
         <f t="shared" si="2"/>
         <v>45089</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <f t="shared" si="3"/>
         <v>45095</v>
       </c>
-      <c r="D43" s="27" t="str">
+      <c r="D43" s="21" t="str">
         <f t="shared" si="1"/>
         <v>12/06/23
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="34">
+      <c r="E43" s="32">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="12"/>
-    </row>
-    <row r="44" spans="1:10" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7">
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="11"/>
+    </row>
+    <row r="44" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6">
         <f t="shared" si="2"/>
         <v>45096</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="6">
         <f t="shared" si="3"/>
         <v>45102</v>
       </c>
-      <c r="D44" s="27" t="str">
+      <c r="D44" s="21" t="str">
         <f t="shared" si="1"/>
         <v>19/06/23
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="35"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="12"/>
-    </row>
-    <row r="45" spans="1:10" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14">
+      <c r="E44" s="33"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="13">
         <f t="shared" si="2"/>
         <v>45103</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="13">
         <f t="shared" si="3"/>
         <v>45109</v>
       </c>
-      <c r="D45" s="28" t="str">
+      <c r="D45" s="22" t="str">
         <f t="shared" si="1"/>
         <v>26/06/23
 au
 02/07/23</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="24">
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="36"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="8"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="17"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="17"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="17"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="17"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="17"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51" s="17"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="17"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="17"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B54" s="17"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="17"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B56" s="17"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="17"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B58" s="17"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B59" s="17"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B60" s="17"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B61" s="17"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="17"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B63" s="17"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B64" s="17"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B65" s="17"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B66" s="17"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B67" s="17"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="17"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B69" s="17"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B70" s="17"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B71" s="17"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B72" s="17"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B73" s="17"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B74" s="17"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B75" s="17"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B76" s="17"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B77" s="17"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B78" s="17"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B79" s="17"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B80" s="17"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B81" s="17"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82" s="17"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83" s="17"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84" s="17"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B85" s="17"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B86" s="17"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B87" s="17"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88" s="17"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B89" s="17"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90" s="17"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B91" s="17"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92" s="17"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93" s="17"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B94" s="17"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B95" s="17"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="16"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="16"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="16"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="16"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="16"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="16"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="16"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="16"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="16"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="16"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="16"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="16"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="16"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="16"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="16"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="16"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="16"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="16"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="16"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="16"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="16"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="16"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="16"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="16"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="16"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="16"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="16"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="16"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="16"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="16"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="16"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="16"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="16"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="16"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="16"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="16"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="16"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="16"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="16"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="16"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="16"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="16"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="16"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="16"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="16"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="16"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="16"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="16"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="16"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E18:J19"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="E10:J11"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="E25:J26"/>
+    <mergeCell ref="E34:J35"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H13:H14"/>
     <mergeCell ref="F45:H45"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E5:E6"/>
@@ -2450,22 +2440,35 @@
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="F10:J11"/>
-    <mergeCell ref="F25:J26"/>
-    <mergeCell ref="F34:J35"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E18:J19"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progressions/Informatique_MPSI_PTSI.xlsx
+++ b/Progressions/Informatique_MPSI_PTSI.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F2C2BF-A43A-420E-8390-4B613CEFC915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2022_2023" sheetId="1" r:id="rId1"/>
+    <sheet name="2022_2023_PTSI" sheetId="1" r:id="rId1"/>
+    <sheet name="2022_2023_MPSI" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
   <si>
     <t>Num</t>
   </si>
@@ -76,9 +78,6 @@
     <t>Représentation des nombres</t>
   </si>
   <si>
-    <t>Piles files</t>
-  </si>
-  <si>
     <t>Graphes modélisation</t>
   </si>
   <si>
@@ -94,9 +93,6 @@
     <t>Graphes parcours largeur</t>
   </si>
   <si>
-    <t>Programmation récursive</t>
-  </si>
-  <si>
     <t>Initiation aux fonctions et aux structures algorithmiques</t>
   </si>
   <si>
@@ -112,18 +108,12 @@
     <t>Fonctions récursives</t>
   </si>
   <si>
-    <t>Lecture de fichier, tracer de courbes</t>
-  </si>
-  <si>
     <t>Algorithmes gloutons, algorithmes dichotomiques</t>
   </si>
   <si>
     <t>Algorithmes dichotomiques</t>
   </si>
   <si>
-    <t>Algorithmes de tri</t>
-  </si>
-  <si>
     <t>Image cachée</t>
   </si>
   <si>
@@ -136,16 +126,109 @@
     <t>DS 3</t>
   </si>
   <si>
-    <t>Début S2 ?</t>
-  </si>
-  <si>
     <t>DS 4</t>
+  </si>
+  <si>
+    <t>Traitement d'image</t>
+  </si>
+  <si>
+    <t>Récursivité</t>
+  </si>
+  <si>
+    <t>Lecture de fichiers, Tracés de courbes</t>
+  </si>
+  <si>
+    <t>Piles files
+Dictionnaires</t>
+  </si>
+  <si>
+    <t>DS 5</t>
+  </si>
+  <si>
+    <t>DS1</t>
+  </si>
+  <si>
+    <t>S2 ?</t>
+  </si>
+  <si>
+    <t>Asc.</t>
+  </si>
+  <si>
+    <t>Lundi, DS Info machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP Graphes </t>
+  </si>
+  <si>
+    <t>A*/Dijskstra</t>
+  </si>
+  <si>
+    <t>Parcours de graphses</t>
+  </si>
+  <si>
+    <t>DS 4 ?</t>
+  </si>
+  <si>
+    <t>Algorithmes de tris</t>
+  </si>
+  <si>
+    <t>15/06 Concours blanc</t>
+  </si>
+  <si>
+    <t>TP EN CLASSE</t>
+  </si>
+  <si>
+    <t>Travail Maison</t>
+  </si>
+  <si>
+    <t>Travail à la maison</t>
+  </si>
+  <si>
+    <t>Travail en classe</t>
+  </si>
+  <si>
+    <t>Thème</t>
+  </si>
+  <si>
+    <t>Utilisation de modules, de bibliothèques.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matrices de pixels et images. </t>
+  </si>
+  <si>
+    <t>Algorithmes dichotomiques.</t>
+  </si>
+  <si>
+    <t>Algorithmes gloutons.</t>
+  </si>
+  <si>
+    <t>Fonctions récursives.</t>
+  </si>
+  <si>
+    <t>TP_02_Stuctures_Algorithmiques</t>
+  </si>
+  <si>
+    <t>Recherche séquentielle dans un tableau unidimensionnel. 
+Algorithmes opérant sur une structure
+séquentielle par boucles imbriquées.</t>
+  </si>
+  <si>
+    <t>TP_03</t>
+  </si>
+  <si>
+    <t>TP_01_Decouverte des fonctions</t>
+  </si>
+  <si>
+    <t>Algorithme gloutons</t>
+  </si>
+  <si>
+    <t>Parcours de graphes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -201,7 +284,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,8 +297,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -505,11 +594,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -538,9 +688,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -589,9 +736,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -601,31 +745,67 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -634,37 +814,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -980,34 +1154,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M95"/>
+  <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E21" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="15" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="15" hidden="1" customWidth="1"/>
-    <col min="4" max="5" width="10" style="15" customWidth="1"/>
-    <col min="6" max="8" width="31.85546875" style="17" customWidth="1"/>
-    <col min="9" max="10" width="17" style="17" customWidth="1"/>
-    <col min="11" max="12" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="4.81640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="14" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="14" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="14" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="14" customWidth="1"/>
+    <col min="6" max="8" width="31.81640625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="4.6328125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="31.81640625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="5.1796875" style="16" customWidth="1"/>
+    <col min="12" max="13" width="12.36328125" style="16" customWidth="1"/>
+    <col min="14" max="15" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.81640625" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
@@ -1015,22 +1193,29 @@
       <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="19" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -1042,20 +1227,23 @@
         <f>B2+6</f>
         <v>44808</v>
       </c>
-      <c r="D2" s="21" t="str">
+      <c r="D2" s="20" t="str">
         <f>CONCATENATE(TEXT(B2,"JJ/MM/AA"),CHAR(10),"au",CHAR(10),TEXT(C2,"JJ/MM/AA"))</f>
         <v>29/08/22
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="47"/>
-    </row>
-    <row r="3" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+    </row>
+    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -1068,26 +1256,31 @@
         <f>B3+6</f>
         <v>44815</v>
       </c>
-      <c r="D3" s="21" t="str">
+      <c r="D3" s="20" t="str">
         <f t="shared" ref="D3:D45" si="1">CONCATENATE(TEXT(B3,"JJ/MM/AA"),CHAR(10),"au",CHAR(10),TEXT(C3,"JJ/MM/AA"))</f>
         <v>05/09/22
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="57">
         <v>1</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="26"/>
-    </row>
-    <row r="4" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="G3" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="25"/>
+    </row>
+    <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1100,20 +1293,23 @@
         <f t="shared" ref="C4:C45" si="3">B4+6</f>
         <v>44822</v>
       </c>
-      <c r="D4" s="21" t="str">
+      <c r="D4" s="20" t="str">
         <f t="shared" si="1"/>
         <v>12/09/22
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="26"/>
-    </row>
-    <row r="5" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="58"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="25"/>
+    </row>
+    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1126,27 +1322,32 @@
         <f t="shared" si="3"/>
         <v>44829</v>
       </c>
-      <c r="D5" s="21" t="str">
+      <c r="D5" s="20" t="str">
         <f t="shared" si="1"/>
         <v>19/09/22
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="57">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="26"/>
+    </row>
+    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1159,20 +1360,23 @@
         <f t="shared" si="3"/>
         <v>44836</v>
       </c>
-      <c r="D6" s="21" t="str">
+      <c r="D6" s="20" t="str">
         <f t="shared" si="1"/>
         <v>26/09/22
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E6" s="58"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="26"/>
+    </row>
+    <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1185,29 +1389,34 @@
         <f t="shared" si="3"/>
         <v>44843</v>
       </c>
-      <c r="D7" s="21" t="str">
+      <c r="D7" s="20" t="str">
         <f t="shared" si="1"/>
         <v>03/10/22
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="57">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="G7" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1220,20 +1429,25 @@
         <f t="shared" si="3"/>
         <v>44850</v>
       </c>
-      <c r="D8" s="21" t="str">
+      <c r="D8" s="20" t="str">
         <f t="shared" si="1"/>
         <v>10/10/22
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E8" s="58"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="26"/>
+    </row>
+    <row r="9" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1245,27 +1459,32 @@
         <f t="shared" si="3"/>
         <v>44857</v>
       </c>
-      <c r="D9" s="21" t="str">
+      <c r="D9" s="20" t="str">
         <f t="shared" si="1"/>
         <v>17/10/22
 au
 23/10/22</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <f>E7+1</f>
         <v>4</v>
       </c>
-      <c r="F9" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="28"/>
-    </row>
-    <row r="10" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="26"/>
+    </row>
+    <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -1275,7 +1494,7 @@
         <f t="shared" si="3"/>
         <v>44864</v>
       </c>
-      <c r="D10" s="21" t="str">
+      <c r="D10" s="20" t="str">
         <f t="shared" si="1"/>
         <v>24/10/22
 au
@@ -1288,9 +1507,12 @@
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
-      <c r="J10" s="36"/>
-    </row>
-    <row r="11" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="36"/>
+    </row>
+    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -1300,7 +1522,7 @@
         <f t="shared" si="3"/>
         <v>44871</v>
       </c>
-      <c r="D11" s="21" t="str">
+      <c r="D11" s="20" t="str">
         <f t="shared" si="1"/>
         <v>31/10/22
 au
@@ -1311,9 +1533,12 @@
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
-      <c r="J11" s="39"/>
-    </row>
-    <row r="12" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="39"/>
+    </row>
+    <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -1326,29 +1551,34 @@
         <f t="shared" si="3"/>
         <v>44878</v>
       </c>
-      <c r="D12" s="21" t="str">
+      <c r="D12" s="20" t="str">
         <f t="shared" si="1"/>
         <v>07/11/22
 au
 13/11/22</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <f>E9</f>
         <v>4</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="28"/>
-    </row>
-    <row r="13" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F12" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -1361,27 +1591,32 @@
         <f t="shared" si="3"/>
         <v>44885</v>
       </c>
-      <c r="D13" s="21" t="str">
+      <c r="D13" s="20" t="str">
         <f t="shared" si="1"/>
         <v>14/11/22
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="57">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F13" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="26"/>
+    </row>
+    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -1394,20 +1629,23 @@
         <f t="shared" si="3"/>
         <v>44892</v>
       </c>
-      <c r="D14" s="21" t="str">
+      <c r="D14" s="20" t="str">
         <f t="shared" si="1"/>
         <v>21/11/22
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E14" s="58"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="26"/>
+    </row>
+    <row r="15" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -1420,27 +1658,30 @@
         <f t="shared" si="3"/>
         <v>44899</v>
       </c>
-      <c r="D15" s="21" t="str">
+      <c r="D15" s="20" t="str">
         <f t="shared" si="1"/>
         <v>28/11/22
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="57">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F15" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="26"/>
+    </row>
+    <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -1453,20 +1694,25 @@
         <f t="shared" si="3"/>
         <v>44906</v>
       </c>
-      <c r="D16" s="21" t="str">
+      <c r="D16" s="20" t="str">
         <f t="shared" si="1"/>
         <v>05/12/22
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E16" s="58"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="26"/>
+    </row>
+    <row r="17" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -1479,27 +1725,32 @@
         <f t="shared" si="3"/>
         <v>44913</v>
       </c>
-      <c r="D17" s="21" t="str">
+      <c r="D17" s="20" t="str">
         <f t="shared" si="1"/>
         <v>12/12/22
 au
 18/12/22</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <f>E15+1</f>
         <v>7</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="G17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="26"/>
+    </row>
+    <row r="18" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -1509,7 +1760,7 @@
         <f t="shared" si="3"/>
         <v>44920</v>
       </c>
-      <c r="D18" s="21" t="str">
+      <c r="D18" s="20" t="str">
         <f t="shared" si="1"/>
         <v>19/12/22
 au
@@ -1522,9 +1773,12 @@
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
-      <c r="J18" s="36"/>
-    </row>
-    <row r="19" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="36"/>
+    </row>
+    <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -1534,7 +1788,7 @@
         <f t="shared" si="3"/>
         <v>44927</v>
       </c>
-      <c r="D19" s="21" t="str">
+      <c r="D19" s="20" t="str">
         <f t="shared" si="1"/>
         <v>26/12/22
 au
@@ -1545,9 +1799,12 @@
       <c r="G19" s="38"/>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
-      <c r="J19" s="39"/>
-    </row>
-    <row r="20" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="39"/>
+    </row>
+    <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -1560,26 +1817,31 @@
         <f t="shared" si="3"/>
         <v>44934</v>
       </c>
-      <c r="D20" s="21" t="str">
+      <c r="D20" s="20" t="str">
         <f t="shared" si="1"/>
         <v>02/01/23
 au
 08/01/23</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <v>7</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="G20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="26"/>
+    </row>
+    <row r="21" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -1592,29 +1854,32 @@
         <f t="shared" si="3"/>
         <v>44941</v>
       </c>
-      <c r="D21" s="21" t="str">
+      <c r="D21" s="20" t="str">
         <f t="shared" si="1"/>
         <v>09/01/23
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="57">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="42" t="s">
+      <c r="F21" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="42"/>
-      <c r="I21" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="M21" s="26"/>
+    </row>
+    <row r="22" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -1627,20 +1892,26 @@
         <f t="shared" si="3"/>
         <v>44948</v>
       </c>
-      <c r="D22" s="21" t="str">
+      <c r="D22" s="20" t="str">
         <f t="shared" si="1"/>
         <v>16/01/23
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E22" s="58"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -1653,29 +1924,31 @@
         <f t="shared" si="3"/>
         <v>44955</v>
       </c>
-      <c r="D23" s="21" t="str">
+      <c r="D23" s="20" t="str">
         <f t="shared" si="1"/>
         <v>23/01/23
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="57">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="42"/>
-      <c r="I23" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F23" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="52"/>
+    </row>
+    <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -1688,20 +1961,23 @@
         <f t="shared" si="3"/>
         <v>44962</v>
       </c>
-      <c r="D24" s="21" t="str">
+      <c r="D24" s="20" t="str">
         <f t="shared" si="1"/>
         <v>30/01/23
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="11"/>
-    </row>
-    <row r="25" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E24" s="58"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="26"/>
+    </row>
+    <row r="25" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -1711,7 +1987,7 @@
         <f t="shared" si="3"/>
         <v>44969</v>
       </c>
-      <c r="D25" s="21" t="str">
+      <c r="D25" s="20" t="str">
         <f t="shared" si="1"/>
         <v>06/02/23
 au
@@ -1724,9 +2000,12 @@
       <c r="G25" s="35"/>
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
-      <c r="J25" s="36"/>
-    </row>
-    <row r="26" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="36"/>
+    </row>
+    <row r="26" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -1736,7 +2015,7 @@
         <f t="shared" si="3"/>
         <v>44976</v>
       </c>
-      <c r="D26" s="21" t="str">
+      <c r="D26" s="20" t="str">
         <f t="shared" si="1"/>
         <v>13/02/23
 au
@@ -1747,9 +2026,12 @@
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
-      <c r="J26" s="39"/>
-    </row>
-    <row r="27" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="39"/>
+    </row>
+    <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -1762,25 +2044,32 @@
         <f t="shared" si="3"/>
         <v>44983</v>
       </c>
-      <c r="D27" s="21" t="str">
+      <c r="D27" s="20" t="str">
         <f t="shared" si="1"/>
         <v>20/02/23
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="57">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="19"/>
-    </row>
-    <row r="28" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F27" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="M27" s="18"/>
+    </row>
+    <row r="28" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -1793,20 +2082,23 @@
         <f t="shared" si="3"/>
         <v>44990</v>
       </c>
-      <c r="D28" s="21" t="str">
+      <c r="D28" s="20" t="str">
         <f t="shared" si="1"/>
         <v>27/02/23
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="19"/>
-    </row>
-    <row r="29" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="58"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="18"/>
+    </row>
+    <row r="29" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -1819,25 +2111,30 @@
         <f t="shared" si="3"/>
         <v>44997</v>
       </c>
-      <c r="D29" s="21" t="str">
+      <c r="D29" s="20" t="str">
         <f t="shared" si="1"/>
         <v>06/03/23
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="57">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F29" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="26"/>
+    </row>
+    <row r="30" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -1850,22 +2147,23 @@
         <f t="shared" si="3"/>
         <v>45004</v>
       </c>
-      <c r="D30" s="21" t="str">
+      <c r="D30" s="20" t="str">
         <f t="shared" si="1"/>
         <v>13/03/23
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E30" s="58"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="26"/>
+    </row>
+    <row r="31" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -1878,26 +2176,31 @@
         <f t="shared" si="3"/>
         <v>45011</v>
       </c>
-      <c r="D31" s="21" t="str">
+      <c r="D31" s="20" t="str">
         <f t="shared" si="1"/>
         <v>20/03/23
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="32">
+      <c r="E31" s="57">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="26"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F31" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -1910,20 +2213,23 @@
         <f t="shared" si="3"/>
         <v>45018</v>
       </c>
-      <c r="D32" s="21" t="str">
+      <c r="D32" s="20" t="str">
         <f t="shared" si="1"/>
         <v>27/03/23
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="26"/>
-    </row>
-    <row r="33" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="58"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="25"/>
+    </row>
+    <row r="33" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -1935,24 +2241,29 @@
         <f t="shared" si="3"/>
         <v>45025</v>
       </c>
-      <c r="D33" s="21" t="str">
+      <c r="D33" s="20" t="str">
         <f t="shared" si="1"/>
         <v>03/04/23
 au
 09/04/23</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="22">
         <v>13</v>
       </c>
-      <c r="F33" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="34" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F33" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="30"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="25"/>
+    </row>
+    <row r="34" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -1962,22 +2273,25 @@
         <f t="shared" si="3"/>
         <v>45032</v>
       </c>
-      <c r="D34" s="21" t="str">
+      <c r="D34" s="20" t="str">
         <f t="shared" si="1"/>
         <v>10/04/23
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="49"/>
-    </row>
-    <row r="35" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="45"/>
+    </row>
+    <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -1987,20 +2301,23 @@
         <f t="shared" si="3"/>
         <v>45039</v>
       </c>
-      <c r="D35" s="21" t="str">
+      <c r="D35" s="20" t="str">
         <f t="shared" si="1"/>
         <v>17/04/23
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="51"/>
-    </row>
-    <row r="36" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E35" s="46"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="48"/>
+    </row>
+    <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -2010,24 +2327,31 @@
         <f t="shared" si="3"/>
         <v>45046</v>
       </c>
-      <c r="D36" s="21" t="str">
+      <c r="D36" s="20" t="str">
         <f t="shared" si="1"/>
         <v>24/04/23
 au
 30/04/23</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="22">
         <v>13</v>
       </c>
-      <c r="F36" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
+      <c r="F36" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="30" t="s">
+        <v>40</v>
+      </c>
       <c r="I36" s="30"/>
-      <c r="J36" s="31"/>
-    </row>
-    <row r="37" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -2037,25 +2361,30 @@
         <f t="shared" si="3"/>
         <v>45053</v>
       </c>
-      <c r="D37" s="21" t="str">
+      <c r="D37" s="20" t="str">
         <f t="shared" si="1"/>
         <v>01/05/23
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="32">
+      <c r="E37" s="57">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="11"/>
-    </row>
-    <row r="38" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F37" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="I37" s="55"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="26"/>
+    </row>
+    <row r="38" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -2065,20 +2394,23 @@
         <f t="shared" si="3"/>
         <v>45060</v>
       </c>
-      <c r="D38" s="21" t="str">
+      <c r="D38" s="20" t="str">
         <f t="shared" si="1"/>
         <v>08/05/23
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="11"/>
-    </row>
-    <row r="39" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E38" s="58"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="26"/>
+    </row>
+    <row r="39" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -2088,25 +2420,32 @@
         <f t="shared" si="3"/>
         <v>45067</v>
       </c>
-      <c r="D39" s="21" t="str">
+      <c r="D39" s="20" t="str">
         <f t="shared" si="1"/>
         <v>15/05/23
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="32">
+      <c r="E39" s="57">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="11"/>
-    </row>
-    <row r="40" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F39" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="55"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="M39" s="26"/>
+    </row>
+    <row r="40" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -2116,20 +2455,23 @@
         <f t="shared" si="3"/>
         <v>45074</v>
       </c>
-      <c r="D40" s="21" t="str">
+      <c r="D40" s="20" t="str">
         <f t="shared" si="1"/>
         <v>22/05/23
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="11"/>
-    </row>
-    <row r="41" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E40" s="58"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="26"/>
+    </row>
+    <row r="41" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -2139,25 +2481,30 @@
         <f t="shared" si="3"/>
         <v>45081</v>
       </c>
-      <c r="D41" s="21" t="str">
+      <c r="D41" s="20" t="str">
         <f t="shared" si="1"/>
         <v>29/05/23
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E41" s="57">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="11"/>
-    </row>
-    <row r="42" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F41" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="55"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="26"/>
+    </row>
+    <row r="42" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -2167,20 +2514,25 @@
         <f t="shared" si="3"/>
         <v>45088</v>
       </c>
-      <c r="D42" s="21" t="str">
+      <c r="D42" s="20" t="str">
         <f t="shared" si="1"/>
         <v>05/06/23
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="33"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="11"/>
-    </row>
-    <row r="43" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E42" s="58"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -2190,23 +2542,28 @@
         <f t="shared" si="3"/>
         <v>45095</v>
       </c>
-      <c r="D43" s="21" t="str">
+      <c r="D43" s="20" t="str">
         <f t="shared" si="1"/>
         <v>12/06/23
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="32">
+      <c r="E43" s="43">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="11"/>
-    </row>
-    <row r="44" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="M43" s="10"/>
+    </row>
+    <row r="44" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -2216,213 +2573,267 @@
         <f t="shared" si="3"/>
         <v>45102</v>
       </c>
-      <c r="D44" s="21" t="str">
+      <c r="D44" s="20" t="str">
         <f t="shared" si="1"/>
         <v>19/06/23
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="11"/>
-    </row>
-    <row r="45" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13">
+      <c r="E44" s="46"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="10"/>
+    </row>
+    <row r="45" spans="1:13" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="11"/>
+      <c r="B45" s="12">
         <f t="shared" si="2"/>
         <v>45103</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="12">
         <f t="shared" si="3"/>
         <v>45109</v>
       </c>
-      <c r="D45" s="22" t="str">
+      <c r="D45" s="21" t="str">
         <f t="shared" si="1"/>
         <v>26/06/23
 au
 02/07/23</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="23">
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="40"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="7"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="16"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="16"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="16"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="16"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="16"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="16"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="16"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="16"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="16"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="16"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="16"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="16"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="16"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="16"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="16"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="16"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="16"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="16"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="16"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="16"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="16"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="16"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="16"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="16"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="16"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="16"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="16"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="16"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="16"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="16"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="16"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="16"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="16"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="16"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="16"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="16"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="16"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="16"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="16"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="16"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="16"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="16"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="16"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="16"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="16"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="16"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="16"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="16"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="16"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="16"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="7"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B46" s="15"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B47" s="15"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B48" s="15"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="15"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="15"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B51" s="15"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B52" s="15"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="15"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="15"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="15"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="15"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="15"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="15"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B59" s="15"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B60" s="15"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B61" s="15"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B62" s="15"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B63" s="15"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B64" s="15"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B65" s="15"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B66" s="15"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B67" s="15"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="15"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B69" s="15"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B70" s="15"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B71" s="15"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B72" s="15"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B73" s="15"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B74" s="15"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B75" s="15"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B76" s="15"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B77" s="15"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B78" s="15"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B79" s="15"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B80" s="15"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B81" s="15"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B82" s="15"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B83" s="15"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B84" s="15"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B85" s="15"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B86" s="15"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B87" s="15"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B88" s="15"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B89" s="15"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B90" s="15"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B91" s="15"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B92" s="15"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B93" s="15"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B94" s="15"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B95" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="E10:J11"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="E25:J26"/>
-    <mergeCell ref="E34:J35"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
+  <mergeCells count="96">
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E18:M19"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="F45:H45"/>
     <mergeCell ref="E3:E4"/>
@@ -2439,36 +2850,1656 @@
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
+    <mergeCell ref="E10:M11"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E25:M26"/>
+    <mergeCell ref="E34:M35"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAD5BF4-4C11-4780-9889-532667A14ADB}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O95"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.81640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="14" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="14" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="14" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="14" customWidth="1"/>
+    <col min="6" max="9" width="31.81640625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="5.1796875" style="16" customWidth="1"/>
+    <col min="11" max="12" width="12.36328125" style="16" customWidth="1"/>
+    <col min="13" max="14" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.81640625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="11.453125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="32"/>
+      <c r="F1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>44802</v>
+      </c>
+      <c r="C2" s="6">
+        <f>B2+6</f>
+        <v>44808</v>
+      </c>
+      <c r="D2" s="20" t="str">
+        <f>CONCATENATE(TEXT(B2,"JJ/MM/AA"),CHAR(10),"au",CHAR(10),TEXT(C2,"JJ/MM/AA"))</f>
+        <v>29/08/22
+au
+04/09/22</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="42"/>
+    </row>
+    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <f t="shared" ref="A3:A8" si="0">A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <f>B2+7</f>
+        <v>44809</v>
+      </c>
+      <c r="C3" s="6">
+        <f>B3+6</f>
+        <v>44815</v>
+      </c>
+      <c r="D3" s="20" t="str">
+        <f t="shared" ref="D3:D45" si="1">CONCATENATE(TEXT(B3,"JJ/MM/AA"),CHAR(10),"au",CHAR(10),TEXT(C3,"JJ/MM/AA"))</f>
+        <v>05/09/22
+au
+11/09/22</v>
+      </c>
+      <c r="E3" s="43">
+        <v>1</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <f t="shared" ref="B4:B45" si="2">B3+7</f>
+        <v>44816</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" ref="C4:C45" si="3">B4+6</f>
+        <v>44822</v>
+      </c>
+      <c r="D4" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>12/09/22
+au
+18/09/22</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="25"/>
+    </row>
+    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <f t="shared" si="2"/>
+        <v>44823</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="3"/>
+        <v>44829</v>
+      </c>
+      <c r="D5" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>19/09/22
+au
+25/09/22</v>
+      </c>
+      <c r="E5" s="43">
+        <f>E3+1</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="26"/>
+    </row>
+    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <f t="shared" si="2"/>
+        <v>44830</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="3"/>
+        <v>44836</v>
+      </c>
+      <c r="D6" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>26/09/22
+au
+02/10/22</v>
+      </c>
+      <c r="E6" s="46"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="26"/>
+    </row>
+    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <f t="shared" si="2"/>
+        <v>44837</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="3"/>
+        <v>44843</v>
+      </c>
+      <c r="D7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>03/10/22
+au
+09/10/22</v>
+      </c>
+      <c r="E7" s="43">
+        <f>E5+1</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
+        <f t="shared" si="2"/>
+        <v>44844</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="3"/>
+        <v>44850</v>
+      </c>
+      <c r="D8" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>10/10/22
+au
+16/10/22</v>
+      </c>
+      <c r="E8" s="46"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="26"/>
+    </row>
+    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" si="2"/>
+        <v>44851</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="3"/>
+        <v>44857</v>
+      </c>
+      <c r="D9" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>17/10/22
+au
+23/10/22</v>
+      </c>
+      <c r="E9" s="22">
+        <f>E7+1</f>
+        <v>4</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6">
+        <f t="shared" si="2"/>
+        <v>44858</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="3"/>
+        <v>44864</v>
+      </c>
+      <c r="D10" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>24/10/22
+au
+30/10/22</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36"/>
+    </row>
+    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6">
+        <f t="shared" si="2"/>
+        <v>44865</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="3"/>
+        <v>44871</v>
+      </c>
+      <c r="D11" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>31/10/22
+au
+06/11/22</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+    </row>
+    <row r="12" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <f>A9+1</f>
+        <v>8</v>
+      </c>
+      <c r="B12" s="6">
+        <f t="shared" si="2"/>
+        <v>44872</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="3"/>
+        <v>44878</v>
+      </c>
+      <c r="D12" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>07/11/22
+au
+13/11/22</v>
+      </c>
+      <c r="E12" s="22">
+        <f>E9</f>
+        <v>4</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <f t="shared" ref="A13:A17" si="4">A12+1</f>
+        <v>9</v>
+      </c>
+      <c r="B13" s="6">
+        <f t="shared" si="2"/>
+        <v>44879</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="3"/>
+        <v>44885</v>
+      </c>
+      <c r="D13" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>14/11/22
+au
+20/11/22</v>
+      </c>
+      <c r="E13" s="43">
+        <f>E12+1</f>
+        <v>5</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="49"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="26"/>
+    </row>
+    <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="6">
+        <f t="shared" si="2"/>
+        <v>44886</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="3"/>
+        <v>44892</v>
+      </c>
+      <c r="D14" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>21/11/22
+au
+27/11/22</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="6">
+        <f t="shared" si="2"/>
+        <v>44893</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" si="3"/>
+        <v>44899</v>
+      </c>
+      <c r="D15" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>28/11/22
+au
+04/12/22</v>
+      </c>
+      <c r="E15" s="43">
+        <f>E13+1</f>
+        <v>6</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="6">
+        <f t="shared" si="2"/>
+        <v>44900</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" si="3"/>
+        <v>44906</v>
+      </c>
+      <c r="D16" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>05/12/22
+au
+11/12/22</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="26"/>
+    </row>
+    <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="6">
+        <f t="shared" si="2"/>
+        <v>44907</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" si="3"/>
+        <v>44913</v>
+      </c>
+      <c r="D17" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>12/12/22
+au
+18/12/22</v>
+      </c>
+      <c r="E17" s="22">
+        <f>E15+1</f>
+        <v>7</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6">
+        <f t="shared" si="2"/>
+        <v>44914</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" si="3"/>
+        <v>44920</v>
+      </c>
+      <c r="D18" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>19/12/22
+au
+25/12/22</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="36"/>
+    </row>
+    <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6">
+        <f t="shared" si="2"/>
+        <v>44921</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" si="3"/>
+        <v>44927</v>
+      </c>
+      <c r="D19" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>26/12/22
+au
+01/01/23</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="39"/>
+    </row>
+    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <f>A17+1</f>
+        <v>14</v>
+      </c>
+      <c r="B20" s="6">
+        <f t="shared" si="2"/>
+        <v>44928</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" si="3"/>
+        <v>44934</v>
+      </c>
+      <c r="D20" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>02/01/23
+au
+08/01/23</v>
+      </c>
+      <c r="E20" s="22">
+        <v>7</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="26"/>
+    </row>
+    <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <f>A20+1</f>
+        <v>15</v>
+      </c>
+      <c r="B21" s="6">
+        <f>B20+7</f>
+        <v>44935</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" si="3"/>
+        <v>44941</v>
+      </c>
+      <c r="D21" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>09/01/23
+au
+15/01/23</v>
+      </c>
+      <c r="E21" s="43">
+        <f>E20+1</f>
+        <v>8</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="26"/>
+    </row>
+    <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <f>A21+1</f>
+        <v>16</v>
+      </c>
+      <c r="B22" s="6">
+        <f t="shared" si="2"/>
+        <v>44942</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" si="3"/>
+        <v>44948</v>
+      </c>
+      <c r="D22" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>16/01/23
+au
+22/01/23</v>
+      </c>
+      <c r="E22" s="46"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <f>A22+1</f>
+        <v>17</v>
+      </c>
+      <c r="B23" s="6">
+        <f t="shared" si="2"/>
+        <v>44949</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" si="3"/>
+        <v>44955</v>
+      </c>
+      <c r="D23" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>23/01/23
+au
+29/01/23</v>
+      </c>
+      <c r="E23" s="43">
+        <f>E21+1</f>
+        <v>9</v>
+      </c>
+      <c r="F23" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="52"/>
+    </row>
+    <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <f>A23+1</f>
+        <v>18</v>
+      </c>
+      <c r="B24" s="6">
+        <f t="shared" si="2"/>
+        <v>44956</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" si="3"/>
+        <v>44962</v>
+      </c>
+      <c r="D24" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>30/01/23
+au
+05/02/23</v>
+      </c>
+      <c r="E24" s="46"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="26"/>
+    </row>
+    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6">
+        <f t="shared" si="2"/>
+        <v>44963</v>
+      </c>
+      <c r="C25" s="6">
+        <f t="shared" si="3"/>
+        <v>44969</v>
+      </c>
+      <c r="D25" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>06/02/23
+au
+12/02/23</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="36"/>
+    </row>
+    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6">
+        <f t="shared" si="2"/>
+        <v>44970</v>
+      </c>
+      <c r="C26" s="6">
+        <f t="shared" si="3"/>
+        <v>44976</v>
+      </c>
+      <c r="D26" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>13/02/23
+au
+19/02/23</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="39"/>
+    </row>
+    <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <f>A24+1</f>
+        <v>19</v>
+      </c>
+      <c r="B27" s="6">
+        <f t="shared" si="2"/>
+        <v>44977</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" si="3"/>
+        <v>44983</v>
+      </c>
+      <c r="D27" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>20/02/23
+au
+26/02/23</v>
+      </c>
+      <c r="E27" s="43">
+        <f>E23+1</f>
+        <v>10</v>
+      </c>
+      <c r="F27" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="49"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L27" s="18"/>
+    </row>
+    <row r="28" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <f>A27+1</f>
+        <v>20</v>
+      </c>
+      <c r="B28" s="6">
+        <f t="shared" si="2"/>
+        <v>44984</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" si="3"/>
+        <v>44990</v>
+      </c>
+      <c r="D28" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>27/02/23
+au
+05/03/23</v>
+      </c>
+      <c r="E28" s="46"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="18"/>
+    </row>
+    <row r="29" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <f>A28+1</f>
+        <v>21</v>
+      </c>
+      <c r="B29" s="6">
+        <f t="shared" si="2"/>
+        <v>44991</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" si="3"/>
+        <v>44997</v>
+      </c>
+      <c r="D29" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>06/03/23
+au
+12/03/23</v>
+      </c>
+      <c r="E29" s="43">
+        <f>E27+1</f>
+        <v>11</v>
+      </c>
+      <c r="F29" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="49"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="26"/>
+    </row>
+    <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <f>A29+1</f>
+        <v>22</v>
+      </c>
+      <c r="B30" s="6">
+        <f t="shared" si="2"/>
+        <v>44998</v>
+      </c>
+      <c r="C30" s="6">
+        <f t="shared" si="3"/>
+        <v>45004</v>
+      </c>
+      <c r="D30" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>13/03/23
+au
+19/03/23</v>
+      </c>
+      <c r="E30" s="46"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="26"/>
+    </row>
+    <row r="31" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <f>A30+1</f>
+        <v>23</v>
+      </c>
+      <c r="B31" s="6">
+        <f t="shared" si="2"/>
+        <v>45005</v>
+      </c>
+      <c r="C31" s="6">
+        <f t="shared" si="3"/>
+        <v>45011</v>
+      </c>
+      <c r="D31" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>20/03/23
+au
+26/03/23</v>
+      </c>
+      <c r="E31" s="43">
+        <f>E29+1</f>
+        <v>12</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <f>A31+1</f>
+        <v>24</v>
+      </c>
+      <c r="B32" s="6">
+        <f t="shared" si="2"/>
+        <v>45012</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" si="3"/>
+        <v>45018</v>
+      </c>
+      <c r="D32" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>27/03/23
+au
+02/04/23</v>
+      </c>
+      <c r="E32" s="46"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="25"/>
+    </row>
+    <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>25</v>
+      </c>
+      <c r="B33" s="6">
+        <f t="shared" si="2"/>
+        <v>45019</v>
+      </c>
+      <c r="C33" s="6">
+        <f t="shared" si="3"/>
+        <v>45025</v>
+      </c>
+      <c r="D33" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>03/04/23
+au
+09/04/23</v>
+      </c>
+      <c r="E33" s="22">
+        <v>13</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="25"/>
+    </row>
+    <row r="34" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6">
+        <f t="shared" si="2"/>
+        <v>45026</v>
+      </c>
+      <c r="C34" s="6">
+        <f t="shared" si="3"/>
+        <v>45032</v>
+      </c>
+      <c r="D34" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>10/04/23
+au
+16/04/23</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="45"/>
+    </row>
+    <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6">
+        <f t="shared" si="2"/>
+        <v>45033</v>
+      </c>
+      <c r="C35" s="6">
+        <f t="shared" si="3"/>
+        <v>45039</v>
+      </c>
+      <c r="D35" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>17/04/23
+au
+23/04/23</v>
+      </c>
+      <c r="E35" s="46"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="48"/>
+    </row>
+    <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6">
+        <f t="shared" si="2"/>
+        <v>45040</v>
+      </c>
+      <c r="C36" s="6">
+        <f t="shared" si="3"/>
+        <v>45046</v>
+      </c>
+      <c r="D36" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>24/04/23
+au
+30/04/23</v>
+      </c>
+      <c r="E36" s="22">
+        <v>13</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6">
+        <f t="shared" si="2"/>
+        <v>45047</v>
+      </c>
+      <c r="C37" s="6">
+        <f t="shared" si="3"/>
+        <v>45053</v>
+      </c>
+      <c r="D37" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>01/05/23
+au
+07/05/23</v>
+      </c>
+      <c r="E37" s="43">
+        <f>E36+1</f>
+        <v>14</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="26"/>
+    </row>
+    <row r="38" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6">
+        <f t="shared" si="2"/>
+        <v>45054</v>
+      </c>
+      <c r="C38" s="6">
+        <f t="shared" si="3"/>
+        <v>45060</v>
+      </c>
+      <c r="D38" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>08/05/23
+au
+14/05/23</v>
+      </c>
+      <c r="E38" s="46"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="26"/>
+    </row>
+    <row r="39" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6">
+        <f t="shared" si="2"/>
+        <v>45061</v>
+      </c>
+      <c r="C39" s="6">
+        <f t="shared" si="3"/>
+        <v>45067</v>
+      </c>
+      <c r="D39" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>15/05/23
+au
+21/05/23</v>
+      </c>
+      <c r="E39" s="43">
+        <f>E37+1</f>
+        <v>15</v>
+      </c>
+      <c r="F39" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="49"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K39" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L39" s="26"/>
+    </row>
+    <row r="40" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6">
+        <f t="shared" si="2"/>
+        <v>45068</v>
+      </c>
+      <c r="C40" s="6">
+        <f t="shared" si="3"/>
+        <v>45074</v>
+      </c>
+      <c r="D40" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>22/05/23
+au
+28/05/23</v>
+      </c>
+      <c r="E40" s="46"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="26"/>
+    </row>
+    <row r="41" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6">
+        <f t="shared" si="2"/>
+        <v>45075</v>
+      </c>
+      <c r="C41" s="6">
+        <f t="shared" si="3"/>
+        <v>45081</v>
+      </c>
+      <c r="D41" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>29/05/23
+au
+04/06/23</v>
+      </c>
+      <c r="E41" s="43">
+        <f>E39+1</f>
+        <v>16</v>
+      </c>
+      <c r="F41" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="26"/>
+    </row>
+    <row r="42" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6">
+        <f t="shared" si="2"/>
+        <v>45082</v>
+      </c>
+      <c r="C42" s="6">
+        <f t="shared" si="3"/>
+        <v>45088</v>
+      </c>
+      <c r="D42" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>05/06/23
+au
+11/06/23</v>
+      </c>
+      <c r="E42" s="46"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6">
+        <f t="shared" si="2"/>
+        <v>45089</v>
+      </c>
+      <c r="C43" s="6">
+        <f t="shared" si="3"/>
+        <v>45095</v>
+      </c>
+      <c r="D43" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>12/06/23
+au
+18/06/23</v>
+      </c>
+      <c r="E43" s="43">
+        <f>E41+1</f>
+        <v>17</v>
+      </c>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="L43" s="26"/>
+    </row>
+    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6">
+        <f t="shared" si="2"/>
+        <v>45096</v>
+      </c>
+      <c r="C44" s="6">
+        <f t="shared" si="3"/>
+        <v>45102</v>
+      </c>
+      <c r="D44" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>19/06/23
+au
+25/06/23</v>
+      </c>
+      <c r="E44" s="46"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="26"/>
+    </row>
+    <row r="45" spans="1:12" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="11"/>
+      <c r="B45" s="12">
+        <f t="shared" si="2"/>
+        <v>45103</v>
+      </c>
+      <c r="C45" s="12">
+        <f t="shared" si="3"/>
+        <v>45109</v>
+      </c>
+      <c r="D45" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>26/06/23
+au
+02/07/23</v>
+      </c>
+      <c r="E45" s="23">
+        <f>E43+1</f>
+        <v>18</v>
+      </c>
+      <c r="F45" s="50"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B46" s="15"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B47" s="15"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B48" s="15"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="15"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="15"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B51" s="15"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B52" s="15"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="15"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="15"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="15"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="15"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="15"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="15"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B59" s="15"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B60" s="15"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B61" s="15"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B62" s="15"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B63" s="15"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B64" s="15"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B65" s="15"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B66" s="15"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B67" s="15"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="15"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B69" s="15"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B70" s="15"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B71" s="15"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B72" s="15"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B73" s="15"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B74" s="15"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B75" s="15"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B76" s="15"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B77" s="15"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B78" s="15"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B79" s="15"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B80" s="15"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B81" s="15"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B82" s="15"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B83" s="15"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B84" s="15"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B85" s="15"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B86" s="15"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B87" s="15"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B88" s="15"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B89" s="15"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B90" s="15"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B91" s="15"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B92" s="15"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B93" s="15"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B94" s="15"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B95" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="70">
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
     <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E18:J19"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="H31:H32"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="E25:L26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E10:L11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progressions/Informatique_MPSI_PTSI.xlsx
+++ b/Progressions/Informatique_MPSI_PTSI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F2C2BF-A43A-420E-8390-4B613CEFC915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031FBF29-F362-47A8-883F-ED7681DD1852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,13 +216,14 @@
     <t>TP_03</t>
   </si>
   <si>
-    <t>TP_01_Decouverte des fonctions</t>
-  </si>
-  <si>
     <t>Algorithme gloutons</t>
   </si>
   <si>
     <t>Parcours de graphes</t>
+  </si>
+  <si>
+    <t>TP_01_Decouverte des fonctions
+https://capytale2.ac-paris.fr/web/c/49bf-625362/mcer</t>
   </si>
 </sst>
 </file>
@@ -760,6 +761,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -778,6 +794,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -787,58 +827,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1164,7 +1165,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1233,15 +1234,15 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -1262,21 +1263,21 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="45">
         <v>1</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
+      <c r="H3" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
       <c r="L3" s="13"/>
       <c r="M3" s="25"/>
     </row>
@@ -1299,13 +1300,13 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
       <c r="L4" s="13"/>
       <c r="M4" s="25"/>
     </row>
@@ -1328,22 +1329,22 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="45">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
       <c r="L5" s="30"/>
       <c r="M5" s="26"/>
     </row>
@@ -1366,13 +1367,13 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
       <c r="L6" s="30"/>
       <c r="M6" s="26"/>
     </row>
@@ -1395,22 +1396,22 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="45">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
       <c r="L7" s="30"/>
       <c r="M7" s="26" t="s">
         <v>27</v>
@@ -1435,13 +1436,13 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
       <c r="L8" s="30" t="s">
         <v>36</v>
       </c>
@@ -1500,17 +1501,17 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="36"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="41"/>
     </row>
     <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -1528,15 +1529,15 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="39"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -1597,22 +1598,22 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="45">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="55" t="s">
+      <c r="H13" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
       <c r="L13" s="30"/>
       <c r="M13" s="26"/>
     </row>
@@ -1635,13 +1636,13 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
       <c r="L14" s="30"/>
       <c r="M14" s="26"/>
     </row>
@@ -1664,20 +1665,20 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="45">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
       <c r="L15" s="30"/>
       <c r="M15" s="26"/>
     </row>
@@ -1700,13 +1701,13 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="30" t="s">
         <v>28</v>
       </c>
@@ -1742,7 +1743,7 @@
         <v>54</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -1766,17 +1767,17 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="36"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="41"/>
     </row>
     <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -1794,15 +1795,15 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="39"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="44"/>
     </row>
     <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -1860,20 +1861,20 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="45">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="55" t="s">
+      <c r="F21" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="55" t="s">
+      <c r="G21" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
       <c r="L21" s="30" t="s">
         <v>29</v>
       </c>
@@ -1898,16 +1899,16 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="30"/>
       <c r="M22" s="26"/>
-      <c r="N22" s="52" t="s">
+      <c r="N22" s="38" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1930,23 +1931,23 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="45">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
       <c r="L23" s="33"/>
       <c r="M23" s="26"/>
-      <c r="N23" s="52"/>
+      <c r="N23" s="38"/>
     </row>
     <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -1967,13 +1968,13 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
       <c r="L24" s="30"/>
       <c r="M24" s="26"/>
     </row>
@@ -1993,17 +1994,17 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="36"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="41"/>
     </row>
     <row r="26" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
@@ -2021,15 +2022,15 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="39"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="44"/>
     </row>
     <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -2050,20 +2051,20 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="45">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="F27" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
       <c r="J27" s="30"/>
-      <c r="K27" s="55"/>
+      <c r="K27" s="35"/>
       <c r="L27" s="17" t="s">
         <v>43</v>
       </c>
@@ -2088,13 +2089,13 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
       <c r="J28" s="30"/>
-      <c r="K28" s="56"/>
+      <c r="K28" s="36"/>
       <c r="L28" s="17"/>
       <c r="M28" s="18"/>
     </row>
@@ -2117,20 +2118,20 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="45">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F29" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="55" t="s">
+      <c r="G29" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
       <c r="J29" s="30"/>
-      <c r="K29" s="55"/>
+      <c r="K29" s="35"/>
       <c r="L29" s="30"/>
       <c r="M29" s="26"/>
     </row>
@@ -2153,13 +2154,13 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
       <c r="J30" s="30"/>
-      <c r="K30" s="56"/>
+      <c r="K30" s="36"/>
       <c r="L30" s="30"/>
       <c r="M30" s="26"/>
     </row>
@@ -2182,18 +2183,18 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E31" s="45">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="55" t="s">
+      <c r="F31" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
       <c r="J31" s="30"/>
-      <c r="K31" s="55"/>
+      <c r="K31" s="35"/>
       <c r="L31" s="13"/>
       <c r="M31" s="25" t="s">
         <v>29</v>
@@ -2219,13 +2220,13 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
       <c r="J32" s="30"/>
-      <c r="K32" s="56"/>
+      <c r="K32" s="36"/>
       <c r="L32" s="13"/>
       <c r="M32" s="25"/>
     </row>
@@ -2279,17 +2280,17 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="43" t="s">
+      <c r="E34" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="45"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="57"/>
     </row>
     <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -2307,15 +2308,15 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="46"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="59"/>
     </row>
     <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -2367,20 +2368,20 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="57">
+      <c r="E37" s="45">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="55" t="s">
+      <c r="F37" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="I37" s="55"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" s="35"/>
       <c r="J37" s="30"/>
-      <c r="K37" s="55"/>
+      <c r="K37" s="35"/>
       <c r="L37" s="30"/>
       <c r="M37" s="26"/>
     </row>
@@ -2400,13 +2401,13 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="58"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
       <c r="J38" s="30"/>
-      <c r="K38" s="56"/>
+      <c r="K38" s="36"/>
       <c r="L38" s="30"/>
       <c r="M38" s="26"/>
     </row>
@@ -2426,18 +2427,18 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="57">
+      <c r="E39" s="45">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="55" t="s">
+      <c r="F39" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="55"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="53"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="34"/>
       <c r="J39" s="30"/>
-      <c r="K39" s="53" t="s">
+      <c r="K39" s="34" t="s">
         <v>38</v>
       </c>
       <c r="L39" s="27" t="s">
@@ -2461,11 +2462,11 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="58"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="53"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="34"/>
       <c r="J40" s="30"/>
       <c r="K40" s="30"/>
       <c r="L40" s="30"/>
@@ -2487,20 +2488,20 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="57">
+      <c r="E41" s="45">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="55" t="s">
+      <c r="F41" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55" t="s">
+      <c r="G41" s="35"/>
+      <c r="H41" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="I41" s="55"/>
+      <c r="I41" s="35"/>
       <c r="J41" s="30"/>
-      <c r="K41" s="55"/>
+      <c r="K41" s="35"/>
       <c r="L41" s="30"/>
       <c r="M41" s="26"/>
     </row>
@@ -2520,13 +2521,13 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="58"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
       <c r="J42" s="30"/>
-      <c r="K42" s="56"/>
+      <c r="K42" s="36"/>
       <c r="L42" s="30"/>
       <c r="M42" s="26" t="s">
         <v>35</v>
@@ -2548,16 +2549,16 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="43">
+      <c r="E43" s="47">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
       <c r="J43" s="30"/>
-      <c r="K43" s="49"/>
+      <c r="K43" s="37"/>
       <c r="L43" s="27" t="s">
         <v>45</v>
       </c>
@@ -2579,13 +2580,13 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="46"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
       <c r="J44" s="30"/>
-      <c r="K44" s="49"/>
+      <c r="K44" s="37"/>
       <c r="L44" s="33"/>
       <c r="M44" s="10"/>
     </row>
@@ -2609,9 +2610,9 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="50"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
@@ -2770,19 +2771,73 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="E10:M11"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E25:M26"/>
+    <mergeCell ref="E34:M35"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E18:M19"/>
     <mergeCell ref="H41:H42"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="J3:J4"/>
@@ -2799,73 +2854,19 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E18:M19"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="E10:M11"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E25:M26"/>
-    <mergeCell ref="E34:M35"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K41:K42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -2949,14 +2950,14 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="55"/>
     </row>
     <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -2977,17 +2978,17 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="47">
         <v>1</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="30"/>
       <c r="K3" s="13"/>
       <c r="L3" s="25"/>
@@ -3011,11 +3012,11 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
       <c r="J4" s="30"/>
       <c r="K4" s="13"/>
       <c r="L4" s="25"/>
@@ -3039,18 +3040,18 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="47">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="26"/>
@@ -3074,11 +3075,11 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="26"/>
@@ -3102,18 +3103,18 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="47">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
       <c r="L7" s="26" t="s">
@@ -3139,11 +3140,11 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30" t="s">
         <v>36</v>
@@ -3202,16 +3203,16 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="41"/>
     </row>
     <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -3229,14 +3230,14 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="44"/>
     </row>
     <row r="12" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -3296,20 +3297,20 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="47">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="F13" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="49"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
       <c r="L13" s="26"/>
@@ -3333,11 +3334,11 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="30"/>
       <c r="K14" s="30"/>
       <c r="L14" s="26"/>
@@ -3361,18 +3362,18 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="47">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="G15" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
       <c r="L15" s="26"/>
@@ -3396,11 +3397,11 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="30"/>
       <c r="K16" s="30" t="s">
         <v>28</v>
@@ -3458,16 +3459,16 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="36"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="41"/>
     </row>
     <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -3485,14 +3486,14 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="39"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="44"/>
     </row>
     <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -3547,18 +3548,18 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21" s="47">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="49" t="s">
+      <c r="G21" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
       <c r="J21" s="30"/>
       <c r="K21" s="30" t="s">
         <v>29</v>
@@ -3584,15 +3585,15 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
       <c r="J22" s="30"/>
       <c r="K22" s="30"/>
       <c r="L22" s="26"/>
-      <c r="M22" s="52" t="s">
+      <c r="M22" s="38" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3615,20 +3616,20 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="47">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
       <c r="J23" s="30"/>
       <c r="K23" s="33"/>
       <c r="L23" s="26"/>
-      <c r="M23" s="52"/>
+      <c r="M23" s="38"/>
     </row>
     <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -3649,11 +3650,11 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
       <c r="J24" s="30"/>
       <c r="K24" s="30"/>
       <c r="L24" s="26"/>
@@ -3674,16 +3675,16 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="36"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="41"/>
     </row>
     <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
@@ -3701,14 +3702,14 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="39"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="44"/>
     </row>
     <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -3729,17 +3730,17 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="47">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="49" t="s">
+      <c r="F27" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="49"/>
+      <c r="H27" s="37"/>
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
       <c r="K27" s="17" t="s">
@@ -3766,10 +3767,10 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
       <c r="K28" s="17"/>
@@ -3794,17 +3795,17 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="43">
+      <c r="E29" s="47">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="49"/>
+      <c r="H29" s="37"/>
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
       <c r="K29" s="30"/>
@@ -3829,10 +3830,10 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
       <c r="K30" s="30"/>
@@ -3857,15 +3858,15 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="47">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
       <c r="K31" s="13"/>
@@ -3893,10 +3894,10 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
       <c r="K32" s="13"/>
@@ -3951,16 +3952,16 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="43" t="s">
+      <c r="E34" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="45"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="57"/>
     </row>
     <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -3978,14 +3979,14 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="46"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="59"/>
     </row>
     <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -4036,15 +4037,15 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="43">
+      <c r="E37" s="47">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="49" t="s">
+      <c r="F37" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49" t="s">
+      <c r="G37" s="37"/>
+      <c r="H37" s="37" t="s">
         <v>42</v>
       </c>
       <c r="I37" s="30"/>
@@ -4068,10 +4069,10 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="46"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
       <c r="I38" s="30"/>
       <c r="J38" s="30"/>
       <c r="K38" s="30"/>
@@ -4093,17 +4094,17 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="43">
+      <c r="E39" s="47">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="49" t="s">
+      <c r="F39" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="49"/>
-      <c r="H39" s="54"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="60"/>
       <c r="I39" s="30"/>
-      <c r="J39" s="53" t="s">
+      <c r="J39" s="34" t="s">
         <v>38</v>
       </c>
       <c r="K39" s="27" t="s">
@@ -4127,10 +4128,10 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="46"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="54"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="60"/>
       <c r="I40" s="30"/>
       <c r="J40" s="30"/>
       <c r="K40" s="30"/>
@@ -4152,15 +4153,15 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="43">
+      <c r="E41" s="47">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="49" t="s">
+      <c r="F41" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49" t="s">
+      <c r="G41" s="37"/>
+      <c r="H41" s="37" t="s">
         <v>41</v>
       </c>
       <c r="I41" s="30"/>
@@ -4184,10 +4185,10 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="46"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
       <c r="I42" s="30"/>
       <c r="J42" s="30"/>
       <c r="K42" s="30"/>
@@ -4211,13 +4212,13 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="43">
+      <c r="E43" s="47">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
       <c r="I43" s="30"/>
       <c r="J43" s="30"/>
       <c r="K43" s="27" t="s">
@@ -4241,10 +4242,10 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="46"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
       <c r="I44" s="30"/>
       <c r="J44" s="30"/>
       <c r="K44" s="33"/>
@@ -4270,9 +4271,9 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="50"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
@@ -4430,20 +4431,50 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E10:L11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="E25:L26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="G39:G40"/>
@@ -4456,50 +4487,20 @@
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="E25:L26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="E10:L11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progressions/Informatique_MPSI_PTSI.xlsx
+++ b/Progressions/Informatique_MPSI_PTSI.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031FBF29-F362-47A8-883F-ED7681DD1852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="2022_2023_PTSI" sheetId="1" r:id="rId1"/>
     <sheet name="2022_2023_MPSI" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -205,9 +204,6 @@
     <t>Fonctions récursives.</t>
   </si>
   <si>
-    <t>TP_02_Stuctures_Algorithmiques</t>
-  </si>
-  <si>
     <t>Recherche séquentielle dans un tableau unidimensionnel. 
 Algorithmes opérant sur une structure
 séquentielle par boucles imbriquées.</t>
@@ -224,12 +220,16 @@
   <si>
     <t>TP_01_Decouverte des fonctions
 https://capytale2.ac-paris.fr/web/c/49bf-625362/mcer</t>
+  </si>
+  <si>
+    <t>TP_02_Stuctures_Algorithmiques
+https://capytale2.ac-paris.fr/web/c/062b-628078/mcer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -764,79 +764,79 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1155,37 +1155,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5:H6"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="14" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="14" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="14" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="14" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="14" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="14" customWidth="1"/>
-    <col min="6" max="8" width="31.81640625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="4.6328125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="31.81640625" style="16" customWidth="1"/>
-    <col min="11" max="11" width="5.1796875" style="16" customWidth="1"/>
-    <col min="12" max="13" width="12.36328125" style="16" customWidth="1"/>
-    <col min="14" max="15" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.81640625" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="11.453125" style="2"/>
+    <col min="5" max="5" width="9.5703125" style="14" customWidth="1"/>
+    <col min="6" max="8" width="31.85546875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" style="16" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" style="16" customWidth="1"/>
+    <col min="12" max="13" width="12.42578125" style="16" customWidth="1"/>
+    <col min="14" max="15" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -1234,17 +1234,17 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
-    </row>
-    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+    </row>
+    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -1263,25 +1263,25 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="52">
         <v>1</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
+      <c r="H3" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
       <c r="L3" s="13"/>
       <c r="M3" s="25"/>
     </row>
-    <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1300,17 +1300,17 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
       <c r="L4" s="13"/>
       <c r="M4" s="25"/>
     </row>
-    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1329,26 +1329,26 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="52">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
+      <c r="H5" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
       <c r="L5" s="30"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1367,17 +1367,17 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
       <c r="L6" s="30"/>
       <c r="M6" s="26"/>
     </row>
-    <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1396,28 +1396,28 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="52">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
       <c r="L7" s="30"/>
       <c r="M7" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1436,19 +1436,19 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
       <c r="L8" s="30" t="s">
         <v>36</v>
       </c>
       <c r="M8" s="26"/>
     </row>
-    <row r="9" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1485,7 +1485,7 @@
       <c r="L9" s="30"/>
       <c r="M9" s="26"/>
     </row>
-    <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -1501,19 +1501,19 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="41"/>
-    </row>
-    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="37"/>
+    </row>
+    <row r="11" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -1529,17 +1529,17 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
-    </row>
-    <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="40"/>
+    </row>
+    <row r="12" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -1579,7 +1579,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -1598,26 +1598,26 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="52">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="30"/>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -1636,17 +1636,17 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
       <c r="L14" s="30"/>
       <c r="M14" s="26"/>
     </row>
-    <row r="15" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -1665,24 +1665,24 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="52">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
       <c r="L15" s="30"/>
       <c r="M15" s="26"/>
     </row>
-    <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -1701,19 +1701,19 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
       <c r="L16" s="30" t="s">
         <v>28</v>
       </c>
       <c r="M16" s="26"/>
     </row>
-    <row r="17" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -1743,7 +1743,7 @@
         <v>54</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -1751,7 +1751,7 @@
       <c r="L17" s="30"/>
       <c r="M17" s="26"/>
     </row>
-    <row r="18" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -1767,19 +1767,19 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="41"/>
-    </row>
-    <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="37"/>
+    </row>
+    <row r="19" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -1795,17 +1795,17 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="44"/>
-    </row>
-    <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="40"/>
+    </row>
+    <row r="20" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -1842,7 +1842,7 @@
       <c r="L20" s="27"/>
       <c r="M20" s="26"/>
     </row>
-    <row r="21" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -1861,26 +1861,26 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="52">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="30" t="s">
         <v>29</v>
       </c>
       <c r="M21" s="26"/>
     </row>
-    <row r="22" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -1899,20 +1899,20 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
       <c r="L22" s="30"/>
       <c r="M22" s="26"/>
-      <c r="N22" s="38" t="s">
+      <c r="N22" s="59" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -1931,25 +1931,25 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="45">
+      <c r="E23" s="52">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
       <c r="L23" s="33"/>
       <c r="M23" s="26"/>
-      <c r="N23" s="38"/>
-    </row>
-    <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="N23" s="59"/>
+    </row>
+    <row r="24" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -1968,17 +1968,17 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
       <c r="L24" s="30"/>
       <c r="M24" s="26"/>
     </row>
-    <row r="25" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -1994,19 +1994,19 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="41"/>
-    </row>
-    <row r="26" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="37"/>
+    </row>
+    <row r="26" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -2022,17 +2022,17 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="44"/>
-    </row>
-    <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E26" s="38"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="40"/>
+    </row>
+    <row r="27" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -2051,26 +2051,26 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="45">
+      <c r="E27" s="52">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
       <c r="J27" s="30"/>
-      <c r="K27" s="35"/>
+      <c r="K27" s="50"/>
       <c r="L27" s="17" t="s">
         <v>43</v>
       </c>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -2089,17 +2089,17 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
       <c r="J28" s="30"/>
-      <c r="K28" s="36"/>
+      <c r="K28" s="51"/>
       <c r="L28" s="17"/>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -2118,24 +2118,24 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="45">
+      <c r="E29" s="52">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
       <c r="J29" s="30"/>
-      <c r="K29" s="35"/>
+      <c r="K29" s="50"/>
       <c r="L29" s="30"/>
       <c r="M29" s="26"/>
     </row>
-    <row r="30" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -2154,17 +2154,17 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
       <c r="J30" s="30"/>
-      <c r="K30" s="36"/>
+      <c r="K30" s="51"/>
       <c r="L30" s="30"/>
       <c r="M30" s="26"/>
     </row>
-    <row r="31" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -2183,25 +2183,25 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="45">
+      <c r="E31" s="52">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
       <c r="J31" s="30"/>
-      <c r="K31" s="35"/>
+      <c r="K31" s="50"/>
       <c r="L31" s="13"/>
       <c r="M31" s="25" t="s">
         <v>29</v>
       </c>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -2220,17 +2220,17 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
       <c r="J32" s="30"/>
-      <c r="K32" s="36"/>
+      <c r="K32" s="51"/>
       <c r="L32" s="13"/>
       <c r="M32" s="25"/>
     </row>
-    <row r="33" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -2264,7 +2264,7 @@
       <c r="L33" s="13"/>
       <c r="M33" s="25"/>
     </row>
-    <row r="34" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -2280,19 +2280,19 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="57"/>
-    </row>
-    <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="46"/>
+    </row>
+    <row r="35" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -2308,17 +2308,17 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="59"/>
-    </row>
-    <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E35" s="47"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="49"/>
+    </row>
+    <row r="36" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -2352,7 +2352,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -2368,24 +2368,24 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="45">
+      <c r="E37" s="52">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="I37" s="35"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="50"/>
       <c r="J37" s="30"/>
-      <c r="K37" s="35"/>
+      <c r="K37" s="50"/>
       <c r="L37" s="30"/>
       <c r="M37" s="26"/>
     </row>
-    <row r="38" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -2401,17 +2401,17 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="46"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
       <c r="J38" s="30"/>
-      <c r="K38" s="36"/>
+      <c r="K38" s="51"/>
       <c r="L38" s="30"/>
       <c r="M38" s="26"/>
     </row>
-    <row r="39" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -2427,15 +2427,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="45">
+      <c r="E39" s="52">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="35"/>
-      <c r="H39" s="49"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="57"/>
       <c r="I39" s="34"/>
       <c r="J39" s="30"/>
       <c r="K39" s="34" t="s">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="M39" s="26"/>
     </row>
-    <row r="40" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -2462,17 +2462,17 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="46"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="50"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="58"/>
       <c r="I40" s="34"/>
       <c r="J40" s="30"/>
       <c r="K40" s="30"/>
       <c r="L40" s="30"/>
       <c r="M40" s="26"/>
     </row>
-    <row r="41" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -2488,24 +2488,24 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="45">
+      <c r="E41" s="52">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="35" t="s">
+      <c r="F41" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35" t="s">
+      <c r="G41" s="50"/>
+      <c r="H41" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="I41" s="35"/>
+      <c r="I41" s="50"/>
       <c r="J41" s="30"/>
-      <c r="K41" s="35"/>
+      <c r="K41" s="50"/>
       <c r="L41" s="30"/>
       <c r="M41" s="26"/>
     </row>
-    <row r="42" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -2521,19 +2521,19 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="46"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
       <c r="J42" s="30"/>
-      <c r="K42" s="36"/>
+      <c r="K42" s="51"/>
       <c r="L42" s="30"/>
       <c r="M42" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -2549,22 +2549,22 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="47">
+      <c r="E43" s="44">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
       <c r="J43" s="30"/>
-      <c r="K43" s="37"/>
+      <c r="K43" s="56"/>
       <c r="L43" s="27" t="s">
         <v>45</v>
       </c>
       <c r="M43" s="10"/>
     </row>
-    <row r="44" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -2580,17 +2580,17 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
       <c r="J44" s="30"/>
-      <c r="K44" s="37"/>
+      <c r="K44" s="56"/>
       <c r="L44" s="33"/>
       <c r="M44" s="10"/>
     </row>
-    <row r="45" spans="1:13" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -2610,167 +2610,247 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="51"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
       <c r="L45" s="24"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" s="15"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" s="15"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B48" s="15"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="15"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="15"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="15"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="15"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="15"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="15"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="15"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="15"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="15"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="15"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="15"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="15"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="15"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="15"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="15"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="15"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="15"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="15"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="15"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="15"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="15"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="15"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="15"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="15"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="15"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="15"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="15"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="15"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="15"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="15"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="15"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="15"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="15"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="15"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="15"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="15"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="15"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="15"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="15"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="15"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="15"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="15"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="15"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="15"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="15"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="15"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E18:M19"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
     <mergeCell ref="E10:M11"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="E25:M26"/>
@@ -2787,86 +2867,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E18:M19"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K41:K42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -2874,7 +2874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAD5BF4-4C11-4780-9889-532667A14ADB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2887,22 +2887,22 @@
       <selection pane="bottomRight" activeCell="E2" sqref="E2:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="14" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="14" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="14" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="14" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="14" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="14" customWidth="1"/>
-    <col min="6" max="9" width="31.81640625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="5.1796875" style="16" customWidth="1"/>
-    <col min="11" max="12" width="12.36328125" style="16" customWidth="1"/>
-    <col min="13" max="14" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.81640625" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="11.453125" style="2"/>
+    <col min="5" max="5" width="9.5703125" style="14" customWidth="1"/>
+    <col min="6" max="9" width="31.85546875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" style="16" customWidth="1"/>
+    <col min="11" max="12" width="12.42578125" style="16" customWidth="1"/>
+    <col min="13" max="14" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -2950,16 +2950,16 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55"/>
-    </row>
-    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="43"/>
+    </row>
+    <row r="3" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -2978,22 +2978,22 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="44">
         <v>1</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
       <c r="J3" s="30"/>
       <c r="K3" s="13"/>
       <c r="L3" s="25"/>
     </row>
-    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3012,16 +3012,16 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="30"/>
       <c r="K4" s="13"/>
       <c r="L4" s="25"/>
     </row>
-    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3040,23 +3040,23 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="44">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="26"/>
     </row>
-    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3075,16 +3075,16 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="26"/>
     </row>
-    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3103,25 +3103,25 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="44">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
       <c r="L7" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3140,18 +3140,18 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30" t="s">
         <v>36</v>
       </c>
       <c r="L8" s="26"/>
     </row>
-    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -3187,7 +3187,7 @@
       <c r="K9" s="30"/>
       <c r="L9" s="26"/>
     </row>
-    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -3203,18 +3203,18 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="41"/>
-    </row>
-    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
+    </row>
+    <row r="11" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -3230,16 +3230,16 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="44"/>
-    </row>
-    <row r="12" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
+    </row>
+    <row r="12" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -3278,7 +3278,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -3297,25 +3297,25 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="44">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="37"/>
+      <c r="I13" s="56"/>
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
       <c r="L13" s="26"/>
     </row>
-    <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -3334,16 +3334,16 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
       <c r="J14" s="30"/>
       <c r="K14" s="30"/>
       <c r="L14" s="26"/>
     </row>
-    <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -3362,23 +3362,23 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="44">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
       <c r="L15" s="26"/>
     </row>
-    <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -3397,18 +3397,18 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
       <c r="J16" s="30"/>
       <c r="K16" s="30" t="s">
         <v>28</v>
       </c>
       <c r="L16" s="26"/>
     </row>
-    <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -3443,7 +3443,7 @@
       <c r="K17" s="30"/>
       <c r="L17" s="26"/>
     </row>
-    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -3459,18 +3459,18 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="41"/>
-    </row>
-    <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="37"/>
+    </row>
+    <row r="19" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -3486,16 +3486,16 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="44"/>
-    </row>
-    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="40"/>
+    </row>
+    <row r="20" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -3529,7 +3529,7 @@
       <c r="K20" s="27"/>
       <c r="L20" s="26"/>
     </row>
-    <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -3548,25 +3548,25 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="44">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="30"/>
       <c r="K21" s="30" t="s">
         <v>29</v>
       </c>
       <c r="L21" s="26"/>
     </row>
-    <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -3585,19 +3585,19 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
       <c r="J22" s="30"/>
       <c r="K22" s="30"/>
       <c r="L22" s="26"/>
-      <c r="M22" s="38" t="s">
+      <c r="M22" s="59" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -3616,22 +3616,22 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="44">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
       <c r="J23" s="30"/>
       <c r="K23" s="33"/>
       <c r="L23" s="26"/>
-      <c r="M23" s="38"/>
-    </row>
-    <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M23" s="59"/>
+    </row>
+    <row r="24" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -3650,16 +3650,16 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
       <c r="J24" s="30"/>
       <c r="K24" s="30"/>
       <c r="L24" s="26"/>
     </row>
-    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -3675,18 +3675,18 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="41"/>
-    </row>
-    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="37"/>
+    </row>
+    <row r="26" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -3702,16 +3702,16 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="44"/>
-    </row>
-    <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E26" s="38"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="40"/>
+    </row>
+    <row r="27" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -3730,17 +3730,17 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="44">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F27" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="37"/>
+      <c r="H27" s="56"/>
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
       <c r="K27" s="17" t="s">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="L27" s="18"/>
     </row>
-    <row r="28" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -3767,16 +3767,16 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="48"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
       <c r="K28" s="17"/>
       <c r="L28" s="18"/>
     </row>
-    <row r="29" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -3795,23 +3795,23 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="47">
+      <c r="E29" s="44">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="37"/>
+      <c r="H29" s="56"/>
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
       <c r="K29" s="30"/>
       <c r="L29" s="26"/>
     </row>
-    <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -3830,16 +3830,16 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
       <c r="K30" s="30"/>
       <c r="L30" s="26"/>
     </row>
-    <row r="31" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -3858,15 +3858,15 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="47">
+      <c r="E31" s="44">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
       <c r="K31" s="13"/>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -3894,16 +3894,16 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="48"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
       <c r="K32" s="13"/>
       <c r="L32" s="25"/>
     </row>
-    <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -3936,7 +3936,7 @@
       <c r="K33" s="13"/>
       <c r="L33" s="25"/>
     </row>
-    <row r="34" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -3952,18 +3952,18 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="57"/>
-    </row>
-    <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="46"/>
+    </row>
+    <row r="35" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -3979,16 +3979,16 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="59"/>
-    </row>
-    <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E35" s="47"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="49"/>
+    </row>
+    <row r="36" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -4021,7 +4021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -4037,15 +4037,15 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="47">
+      <c r="E37" s="44">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="37" t="s">
+      <c r="F37" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37" t="s">
+      <c r="G37" s="56"/>
+      <c r="H37" s="56" t="s">
         <v>42</v>
       </c>
       <c r="I37" s="30"/>
@@ -4053,7 +4053,7 @@
       <c r="K37" s="30"/>
       <c r="L37" s="26"/>
     </row>
-    <row r="38" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -4069,16 +4069,16 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
       <c r="I38" s="30"/>
       <c r="J38" s="30"/>
       <c r="K38" s="30"/>
       <c r="L38" s="26"/>
     </row>
-    <row r="39" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -4094,14 +4094,14 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="47">
+      <c r="E39" s="44">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="37" t="s">
+      <c r="F39" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="37"/>
+      <c r="G39" s="56"/>
       <c r="H39" s="60"/>
       <c r="I39" s="30"/>
       <c r="J39" s="34" t="s">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="L39" s="26"/>
     </row>
-    <row r="40" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -4128,16 +4128,16 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
       <c r="H40" s="60"/>
       <c r="I40" s="30"/>
       <c r="J40" s="30"/>
       <c r="K40" s="30"/>
       <c r="L40" s="26"/>
     </row>
-    <row r="41" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -4153,15 +4153,15 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="47">
+      <c r="E41" s="44">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="37" t="s">
+      <c r="F41" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37" t="s">
+      <c r="G41" s="56"/>
+      <c r="H41" s="56" t="s">
         <v>41</v>
       </c>
       <c r="I41" s="30"/>
@@ -4169,7 +4169,7 @@
       <c r="K41" s="30"/>
       <c r="L41" s="26"/>
     </row>
-    <row r="42" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -4185,10 +4185,10 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
       <c r="I42" s="30"/>
       <c r="J42" s="30"/>
       <c r="K42" s="30"/>
@@ -4196,7 +4196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -4212,13 +4212,13 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="47">
+      <c r="E43" s="44">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
       <c r="I43" s="30"/>
       <c r="J43" s="30"/>
       <c r="K43" s="27" t="s">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="L43" s="26"/>
     </row>
-    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -4242,16 +4242,16 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
       <c r="I44" s="30"/>
       <c r="J44" s="30"/>
       <c r="K44" s="33"/>
       <c r="L44" s="26"/>
     </row>
-    <row r="45" spans="1:12" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -4271,210 +4271,176 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="51"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B46" s="15"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B47" s="15"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" s="15"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="15"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="15"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="15"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="15"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="15"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="15"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="15"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="15"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="15"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="15"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="15"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="15"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="15"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="15"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="15"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="15"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="15"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="15"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="15"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="15"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="15"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="15"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="15"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="15"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="15"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="15"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="15"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="15"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="15"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="15"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="15"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="15"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="15"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="15"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="15"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="15"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="15"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="15"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="15"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="15"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="15"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="15"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="15"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="15"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="15"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="15"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="E10:L11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="E25:L26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="G39:G40"/>
@@ -4491,16 +4457,50 @@
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="F37:F38"/>
     <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="E25:L26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E10:L11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progressions/Informatique_MPSI_PTSI.xlsx
+++ b/Progressions/Informatique_MPSI_PTSI.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8E162F-902F-4CD9-9D57-671119F793A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
+    <workbookView xWindow="290" yWindow="490" windowWidth="18910" windowHeight="9320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022_2023_PTSI" sheetId="1" r:id="rId1"/>
     <sheet name="2022_2023_MPSI" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="63">
   <si>
     <t>Num</t>
   </si>
@@ -209,9 +210,6 @@
 séquentielle par boucles imbriquées.</t>
   </si>
   <si>
-    <t>TP_03</t>
-  </si>
-  <si>
     <t>Algorithme gloutons</t>
   </si>
   <si>
@@ -224,12 +222,20 @@
   <si>
     <t>TP_02_Stuctures_Algorithmiques
 https://capytale2.ac-paris.fr/web/c/062b-628078/mcer</t>
+  </si>
+  <si>
+    <t>TP_03_Decouverte des listes
+https://capytale2.ac-paris.fr/web/c/593a-628268/mcer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP_03_Decouverte des listes
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -764,6 +770,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -782,6 +800,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -791,52 +833,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1155,7 +1161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1165,27 +1171,27 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7:H8"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="14" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="14" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="14" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="14" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="14" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="14" customWidth="1"/>
-    <col min="6" max="8" width="31.85546875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="31.85546875" style="16" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="16" customWidth="1"/>
-    <col min="12" max="13" width="12.42578125" style="16" customWidth="1"/>
-    <col min="14" max="15" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="9.54296875" style="14" customWidth="1"/>
+    <col min="6" max="8" width="31.81640625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="4.54296875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="31.81640625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="5.1796875" style="16" customWidth="1"/>
+    <col min="12" max="13" width="12.453125" style="16" customWidth="1"/>
+    <col min="14" max="15" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.81640625" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -1234,17 +1240,17 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-    </row>
-    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
+    </row>
+    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -1263,25 +1269,25 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="45">
         <v>1</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="H3" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
       <c r="L3" s="13"/>
       <c r="M3" s="25"/>
     </row>
-    <row r="4" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1300,17 +1306,17 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
       <c r="L4" s="13"/>
       <c r="M4" s="25"/>
     </row>
-    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1329,26 +1335,26 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="45">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
+      <c r="H5" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
       <c r="L5" s="30"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1367,17 +1373,17 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
       <c r="L6" s="30"/>
       <c r="M6" s="26"/>
     </row>
-    <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1396,28 +1402,30 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="45">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
+      <c r="H7" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="35"/>
       <c r="L7" s="30"/>
       <c r="M7" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1436,19 +1444,19 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
       <c r="L8" s="30" t="s">
         <v>36</v>
       </c>
       <c r="M8" s="26"/>
     </row>
-    <row r="9" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1485,7 +1493,7 @@
       <c r="L9" s="30"/>
       <c r="M9" s="26"/>
     </row>
-    <row r="10" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -1501,19 +1509,19 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="37"/>
-    </row>
-    <row r="11" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="41"/>
+    </row>
+    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -1529,17 +1537,17 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="40"/>
-    </row>
-    <row r="12" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
+    </row>
+    <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -1579,7 +1587,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -1598,26 +1606,26 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="45">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
       <c r="L13" s="30"/>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -1636,17 +1644,17 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
       <c r="L14" s="30"/>
       <c r="M14" s="26"/>
     </row>
-    <row r="15" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -1665,24 +1673,24 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="45">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
       <c r="L15" s="30"/>
       <c r="M15" s="26"/>
     </row>
-    <row r="16" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -1701,19 +1709,19 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="30" t="s">
         <v>28</v>
       </c>
       <c r="M16" s="26"/>
     </row>
-    <row r="17" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -1743,7 +1751,7 @@
         <v>54</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -1751,7 +1759,7 @@
       <c r="L17" s="30"/>
       <c r="M17" s="26"/>
     </row>
-    <row r="18" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -1767,19 +1775,19 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="37"/>
-    </row>
-    <row r="19" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="41"/>
+    </row>
+    <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -1795,17 +1803,17 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="40"/>
-    </row>
-    <row r="20" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="44"/>
+    </row>
+    <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -1842,7 +1850,7 @@
       <c r="L20" s="27"/>
       <c r="M20" s="26"/>
     </row>
-    <row r="21" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -1861,26 +1869,26 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="45">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="50" t="s">
+      <c r="G21" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
       <c r="L21" s="30" t="s">
         <v>29</v>
       </c>
       <c r="M21" s="26"/>
     </row>
-    <row r="22" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -1899,20 +1907,20 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="30"/>
       <c r="M22" s="26"/>
-      <c r="N22" s="59" t="s">
+      <c r="N22" s="38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -1931,25 +1939,25 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E23" s="45">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
       <c r="L23" s="33"/>
       <c r="M23" s="26"/>
-      <c r="N23" s="59"/>
-    </row>
-    <row r="24" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="N23" s="38"/>
+    </row>
+    <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -1968,17 +1976,17 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
       <c r="L24" s="30"/>
       <c r="M24" s="26"/>
     </row>
-    <row r="25" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -1994,19 +2002,19 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="37"/>
-    </row>
-    <row r="26" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="41"/>
+    </row>
+    <row r="26" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -2022,17 +2030,17 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="40"/>
-    </row>
-    <row r="27" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="44"/>
+    </row>
+    <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -2051,26 +2059,26 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="45">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="F27" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
       <c r="J27" s="30"/>
-      <c r="K27" s="50"/>
+      <c r="K27" s="35"/>
       <c r="L27" s="17" t="s">
         <v>43</v>
       </c>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -2089,17 +2097,17 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="53"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
       <c r="J28" s="30"/>
-      <c r="K28" s="51"/>
+      <c r="K28" s="36"/>
       <c r="L28" s="17"/>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -2118,24 +2126,24 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E29" s="45">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="50" t="s">
+      <c r="F29" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="50" t="s">
+      <c r="G29" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
       <c r="J29" s="30"/>
-      <c r="K29" s="50"/>
+      <c r="K29" s="35"/>
       <c r="L29" s="30"/>
       <c r="M29" s="26"/>
     </row>
-    <row r="30" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -2154,17 +2162,17 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="53"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
       <c r="J30" s="30"/>
-      <c r="K30" s="51"/>
+      <c r="K30" s="36"/>
       <c r="L30" s="30"/>
       <c r="M30" s="26"/>
     </row>
-    <row r="31" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -2183,25 +2191,25 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="52">
+      <c r="E31" s="45">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="50" t="s">
+      <c r="F31" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
       <c r="J31" s="30"/>
-      <c r="K31" s="50"/>
+      <c r="K31" s="35"/>
       <c r="L31" s="13"/>
       <c r="M31" s="25" t="s">
         <v>29</v>
       </c>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -2220,17 +2228,17 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="53"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
       <c r="J32" s="30"/>
-      <c r="K32" s="51"/>
+      <c r="K32" s="36"/>
       <c r="L32" s="13"/>
       <c r="M32" s="25"/>
     </row>
-    <row r="33" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -2264,7 +2272,7 @@
       <c r="L33" s="13"/>
       <c r="M33" s="25"/>
     </row>
-    <row r="34" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -2280,19 +2288,19 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="46"/>
-    </row>
-    <row r="35" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="57"/>
+    </row>
+    <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -2308,17 +2316,17 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="47"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="49"/>
-    </row>
-    <row r="36" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E35" s="48"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="59"/>
+    </row>
+    <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -2352,7 +2360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -2368,24 +2376,24 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="52">
+      <c r="E37" s="45">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="50" t="s">
+      <c r="F37" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="I37" s="50"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" s="35"/>
       <c r="J37" s="30"/>
-      <c r="K37" s="50"/>
+      <c r="K37" s="35"/>
       <c r="L37" s="30"/>
       <c r="M37" s="26"/>
     </row>
-    <row r="38" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -2401,17 +2409,17 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="53"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
       <c r="J38" s="30"/>
-      <c r="K38" s="51"/>
+      <c r="K38" s="36"/>
       <c r="L38" s="30"/>
       <c r="M38" s="26"/>
     </row>
-    <row r="39" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -2427,15 +2435,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="52">
+      <c r="E39" s="45">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="50" t="s">
+      <c r="F39" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="50"/>
-      <c r="H39" s="57"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="49"/>
       <c r="I39" s="34"/>
       <c r="J39" s="30"/>
       <c r="K39" s="34" t="s">
@@ -2446,7 +2454,7 @@
       </c>
       <c r="M39" s="26"/>
     </row>
-    <row r="40" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -2462,17 +2470,17 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="53"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="58"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="50"/>
       <c r="I40" s="34"/>
       <c r="J40" s="30"/>
       <c r="K40" s="30"/>
       <c r="L40" s="30"/>
       <c r="M40" s="26"/>
     </row>
-    <row r="41" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -2488,24 +2496,24 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="52">
+      <c r="E41" s="45">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="50" t="s">
+      <c r="F41" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50" t="s">
+      <c r="G41" s="35"/>
+      <c r="H41" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="I41" s="50"/>
+      <c r="I41" s="35"/>
       <c r="J41" s="30"/>
-      <c r="K41" s="50"/>
+      <c r="K41" s="35"/>
       <c r="L41" s="30"/>
       <c r="M41" s="26"/>
     </row>
-    <row r="42" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -2521,19 +2529,19 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="53"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
       <c r="J42" s="30"/>
-      <c r="K42" s="51"/>
+      <c r="K42" s="36"/>
       <c r="L42" s="30"/>
       <c r="M42" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -2549,22 +2557,22 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="44">
+      <c r="E43" s="47">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
       <c r="J43" s="30"/>
-      <c r="K43" s="56"/>
+      <c r="K43" s="37"/>
       <c r="L43" s="27" t="s">
         <v>45</v>
       </c>
       <c r="M43" s="10"/>
     </row>
-    <row r="44" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -2580,17 +2588,17 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="47"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
       <c r="J44" s="30"/>
-      <c r="K44" s="56"/>
+      <c r="K44" s="37"/>
       <c r="L44" s="33"/>
       <c r="M44" s="10"/>
     </row>
-    <row r="45" spans="1:13" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -2610,231 +2618,183 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="54"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
       <c r="L45" s="24"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B46" s="15"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B47" s="15"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B48" s="15"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="15"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="15"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="15"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="15"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="15"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="15"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="15"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="15"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="15"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="15"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="15"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="15"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="15"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="15"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="15"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="15"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="15"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="15"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="15"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="15"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="15"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="15"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="15"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="15"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="15"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="15"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="15"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="15"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="15"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="15"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="15"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="15"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="15"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="15"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="15"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="15"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="15"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="15"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="15"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="15"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="15"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="15"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="15"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="15"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="15"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="15"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E18:M19"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E10:M11"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E25:M26"/>
+    <mergeCell ref="E34:M35"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="F45:H45"/>
     <mergeCell ref="E3:E4"/>
@@ -2851,22 +2811,70 @@
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="E10:M11"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E25:M26"/>
-    <mergeCell ref="E34:M35"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E18:M19"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I23:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -2874,7 +2882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2887,22 +2895,22 @@
       <selection pane="bottomRight" activeCell="E2" sqref="E2:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="14" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="14" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="14" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="14" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="14" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="14" customWidth="1"/>
-    <col min="6" max="9" width="31.85546875" style="16" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" style="16" customWidth="1"/>
-    <col min="11" max="12" width="12.42578125" style="16" customWidth="1"/>
-    <col min="13" max="14" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="9.54296875" style="14" customWidth="1"/>
+    <col min="6" max="9" width="31.81640625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="5.1796875" style="16" customWidth="1"/>
+    <col min="11" max="12" width="12.453125" style="16" customWidth="1"/>
+    <col min="13" max="14" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.81640625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -2932,7 +2940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -2950,16 +2958,16 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="43"/>
-    </row>
-    <row r="3" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="55"/>
+    </row>
+    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -2978,22 +2986,22 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="47">
         <v>1</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="30"/>
       <c r="K3" s="13"/>
       <c r="L3" s="25"/>
     </row>
-    <row r="4" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3012,16 +3020,16 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
       <c r="J4" s="30"/>
       <c r="K4" s="13"/>
       <c r="L4" s="25"/>
     </row>
-    <row r="5" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3040,23 +3048,23 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="47">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="26"/>
     </row>
-    <row r="6" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3075,16 +3083,16 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="26"/>
     </row>
-    <row r="7" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3103,25 +3111,25 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="47">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
       <c r="L7" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3140,18 +3148,18 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30" t="s">
         <v>36</v>
       </c>
       <c r="L8" s="26"/>
     </row>
-    <row r="9" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -3187,7 +3195,7 @@
       <c r="K9" s="30"/>
       <c r="L9" s="26"/>
     </row>
-    <row r="10" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -3203,18 +3211,18 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37"/>
-    </row>
-    <row r="11" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="41"/>
+    </row>
+    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -3230,16 +3238,16 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="40"/>
-    </row>
-    <row r="12" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="44"/>
+    </row>
+    <row r="12" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -3278,7 +3286,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -3297,25 +3305,25 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="47">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="56" t="s">
+      <c r="H13" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="56"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
       <c r="L13" s="26"/>
     </row>
-    <row r="14" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -3334,16 +3342,16 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="30"/>
       <c r="K14" s="30"/>
       <c r="L14" s="26"/>
     </row>
-    <row r="15" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -3362,23 +3370,23 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="47">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
       <c r="L15" s="26"/>
     </row>
-    <row r="16" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -3397,18 +3405,18 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="30"/>
       <c r="K16" s="30" t="s">
         <v>28</v>
       </c>
       <c r="L16" s="26"/>
     </row>
-    <row r="17" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -3443,7 +3451,7 @@
       <c r="K17" s="30"/>
       <c r="L17" s="26"/>
     </row>
-    <row r="18" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -3459,18 +3467,18 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="37"/>
-    </row>
-    <row r="19" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="41"/>
+    </row>
+    <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -3486,16 +3494,16 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="40"/>
-    </row>
-    <row r="20" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="44"/>
+    </row>
+    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -3529,7 +3537,7 @@
       <c r="K20" s="27"/>
       <c r="L20" s="26"/>
     </row>
-    <row r="21" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -3548,25 +3556,25 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="47">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="G21" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
       <c r="J21" s="30"/>
       <c r="K21" s="30" t="s">
         <v>29</v>
       </c>
       <c r="L21" s="26"/>
     </row>
-    <row r="22" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -3585,19 +3593,19 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
       <c r="J22" s="30"/>
       <c r="K22" s="30"/>
       <c r="L22" s="26"/>
-      <c r="M22" s="59" t="s">
+      <c r="M22" s="38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -3616,22 +3624,22 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="47">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
       <c r="J23" s="30"/>
       <c r="K23" s="33"/>
       <c r="L23" s="26"/>
-      <c r="M23" s="59"/>
-    </row>
-    <row r="24" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="M23" s="38"/>
+    </row>
+    <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -3650,16 +3658,16 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
       <c r="J24" s="30"/>
       <c r="K24" s="30"/>
       <c r="L24" s="26"/>
     </row>
-    <row r="25" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -3675,18 +3683,18 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="37"/>
-    </row>
-    <row r="26" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="41"/>
+    </row>
+    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -3702,16 +3710,16 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="40"/>
-    </row>
-    <row r="27" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="44"/>
+    </row>
+    <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -3730,17 +3738,17 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="47">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="56" t="s">
+      <c r="F27" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="56" t="s">
+      <c r="G27" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="56"/>
+      <c r="H27" s="37"/>
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
       <c r="K27" s="17" t="s">
@@ -3748,7 +3756,7 @@
       </c>
       <c r="L27" s="18"/>
     </row>
-    <row r="28" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -3767,16 +3775,16 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
       <c r="K28" s="17"/>
       <c r="L28" s="18"/>
     </row>
-    <row r="29" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -3795,23 +3803,23 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="44">
+      <c r="E29" s="47">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="56" t="s">
+      <c r="F29" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="56" t="s">
+      <c r="G29" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="56"/>
+      <c r="H29" s="37"/>
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
       <c r="K29" s="30"/>
       <c r="L29" s="26"/>
     </row>
-    <row r="30" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -3830,16 +3838,16 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
       <c r="K30" s="30"/>
       <c r="L30" s="26"/>
     </row>
-    <row r="31" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -3858,15 +3866,15 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="44">
+      <c r="E31" s="47">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="56" t="s">
+      <c r="F31" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
       <c r="K31" s="13"/>
@@ -3875,7 +3883,7 @@
       </c>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -3894,16 +3902,16 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="47"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
       <c r="K32" s="13"/>
       <c r="L32" s="25"/>
     </row>
-    <row r="33" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -3936,7 +3944,7 @@
       <c r="K33" s="13"/>
       <c r="L33" s="25"/>
     </row>
-    <row r="34" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -3952,18 +3960,18 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="46"/>
-    </row>
-    <row r="35" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="57"/>
+    </row>
+    <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -3979,16 +3987,16 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="47"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="49"/>
-    </row>
-    <row r="36" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E35" s="48"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="59"/>
+    </row>
+    <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -4021,7 +4029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -4037,15 +4045,15 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="44">
+      <c r="E37" s="47">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="56" t="s">
+      <c r="F37" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56" t="s">
+      <c r="G37" s="37"/>
+      <c r="H37" s="37" t="s">
         <v>42</v>
       </c>
       <c r="I37" s="30"/>
@@ -4053,7 +4061,7 @@
       <c r="K37" s="30"/>
       <c r="L37" s="26"/>
     </row>
-    <row r="38" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -4069,16 +4077,16 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
       <c r="I38" s="30"/>
       <c r="J38" s="30"/>
       <c r="K38" s="30"/>
       <c r="L38" s="26"/>
     </row>
-    <row r="39" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -4094,14 +4102,14 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="44">
+      <c r="E39" s="47">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="56" t="s">
+      <c r="F39" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="56"/>
+      <c r="G39" s="37"/>
       <c r="H39" s="60"/>
       <c r="I39" s="30"/>
       <c r="J39" s="34" t="s">
@@ -4112,7 +4120,7 @@
       </c>
       <c r="L39" s="26"/>
     </row>
-    <row r="40" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -4128,16 +4136,16 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="47"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
       <c r="H40" s="60"/>
       <c r="I40" s="30"/>
       <c r="J40" s="30"/>
       <c r="K40" s="30"/>
       <c r="L40" s="26"/>
     </row>
-    <row r="41" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -4153,15 +4161,15 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="44">
+      <c r="E41" s="47">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="56" t="s">
+      <c r="F41" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56" t="s">
+      <c r="G41" s="37"/>
+      <c r="H41" s="37" t="s">
         <v>41</v>
       </c>
       <c r="I41" s="30"/>
@@ -4169,7 +4177,7 @@
       <c r="K41" s="30"/>
       <c r="L41" s="26"/>
     </row>
-    <row r="42" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -4185,10 +4193,10 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
       <c r="I42" s="30"/>
       <c r="J42" s="30"/>
       <c r="K42" s="30"/>
@@ -4196,7 +4204,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -4212,13 +4220,13 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="44">
+      <c r="E43" s="47">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
       <c r="I43" s="30"/>
       <c r="J43" s="30"/>
       <c r="K43" s="27" t="s">
@@ -4226,7 +4234,7 @@
       </c>
       <c r="L43" s="26"/>
     </row>
-    <row r="44" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -4242,16 +4250,16 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="47"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
       <c r="I44" s="30"/>
       <c r="J44" s="30"/>
       <c r="K44" s="33"/>
       <c r="L44" s="26"/>
     </row>
-    <row r="45" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -4271,166 +4279,222 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="54"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B46" s="15"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B47" s="15"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B48" s="15"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="15"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="15"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="15"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="15"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="15"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="15"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="15"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="15"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="15"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="15"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="15"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="15"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="15"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="15"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="15"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="15"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="15"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="15"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="15"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="15"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="15"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="15"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="15"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="15"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="15"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="15"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="15"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="15"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="15"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="15"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="15"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="15"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="15"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="15"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="15"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="15"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="15"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="15"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="15"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="15"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="15"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="15"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="15"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="15"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="15"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="15"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E10:L11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E25:L26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="F45:H45"/>
     <mergeCell ref="E41:E42"/>
@@ -4445,62 +4509,6 @@
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="H39:H40"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E25:L26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="E10:L11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progressions/Informatique_MPSI_PTSI.xlsx
+++ b/Progressions/Informatique_MPSI_PTSI.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8E162F-902F-4CD9-9D57-671119F793A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DFE9BE-6DE6-4BFE-BA52-38E731D36CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="290" yWindow="490" windowWidth="18910" windowHeight="9320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022_2023_PTSI" sheetId="1" r:id="rId1"/>
     <sheet name="2022_2023_MPSI" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="86">
   <si>
     <t>Num</t>
   </si>
@@ -105,13 +108,7 @@
     <t>Structures séquentielles par boucles imbriquées</t>
   </si>
   <si>
-    <t>Fonctions récursives</t>
-  </si>
-  <si>
     <t>Algorithmes gloutons, algorithmes dichotomiques</t>
-  </si>
-  <si>
-    <t>Algorithmes dichotomiques</t>
   </si>
   <si>
     <t>Image cachée</t>
@@ -230,6 +227,92 @@
   <si>
     <t xml:space="preserve">TP_03_Decouverte des listes
 </t>
+  </si>
+  <si>
+    <t>DS 2 + DS 3 (Machine et sur feuille)</t>
+  </si>
+  <si>
+    <t>TP 6 
+Représentation des nombres</t>
+  </si>
+  <si>
+    <t>TP 5
+Traitement d'images</t>
+  </si>
+  <si>
+    <t>Traitement d'images PGM</t>
+  </si>
+  <si>
+    <t>Passage en niveau de gris
+Rotation</t>
+  </si>
+  <si>
+    <t>TP 4
+Boucles imbriquées</t>
+  </si>
+  <si>
+    <t>Percolation d'une grille</t>
+  </si>
+  <si>
+    <t>Exercices sur les listes</t>
+  </si>
+  <si>
+    <t>Structures algorithmiques</t>
+  </si>
+  <si>
+    <t>Rappeles / Initiations
+Exercices sur la création de fonction</t>
+  </si>
+  <si>
+    <t>TP évaluation</t>
+  </si>
+  <si>
+    <t>Activité 7 
+Rendu de monnaie</t>
+  </si>
+  <si>
+    <t>Spécifications, tests, commentaires, annotations</t>
+  </si>
+  <si>
+    <t>TP 7
+Récursivité</t>
+  </si>
+  <si>
+    <t>TP 8
+Algorithmes Gloutons</t>
+  </si>
+  <si>
+    <t>Variant, invariant, complexité</t>
+  </si>
+  <si>
+    <t>TP 9 Algorithmes de tri</t>
+  </si>
+  <si>
+    <t>Activité 6 : 
+Représentation des nombres (Conversions)</t>
+  </si>
+  <si>
+    <t>Problème du sac à dos
+Plus court chemin par un algoritmhe glouton</t>
+  </si>
+  <si>
+    <t>Exercices sur la récursivité</t>
+  </si>
+  <si>
+    <t>Devoir maison (image cachée)
+Activité 8 : Récursivité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activité 9 : </t>
+  </si>
+  <si>
+    <t>Tris</t>
+  </si>
+  <si>
+    <t>DS 6</t>
+  </si>
+  <si>
+    <t>DS 7</t>
   </si>
 </sst>
 </file>
@@ -666,7 +749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -680,169 +763,157 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1167,32 +1238,32 @@
   </sheetPr>
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E15" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3:H4"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="F17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="14" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="14" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="14" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="14" customWidth="1"/>
-    <col min="6" max="8" width="31.81640625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="4.54296875" style="16" customWidth="1"/>
-    <col min="10" max="10" width="31.81640625" style="16" customWidth="1"/>
-    <col min="11" max="11" width="5.1796875" style="16" customWidth="1"/>
-    <col min="12" max="13" width="12.453125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
+    <col min="6" max="8" width="31.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.54296875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.81640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.1796875" style="2" customWidth="1"/>
+    <col min="12" max="13" width="12.453125" style="2" customWidth="1"/>
     <col min="14" max="15" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.81640625" style="3" customWidth="1"/>
     <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
@@ -1200,19 +1271,19 @@
       <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="17" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K1" s="8"/>
       <c r="L1" s="8" t="s">
@@ -1234,21 +1305,21 @@
         <f>B2+6</f>
         <v>44808</v>
       </c>
-      <c r="D2" s="20" t="str">
+      <c r="D2" s="18" t="str">
         <f>CONCATENATE(TEXT(B2,"JJ/MM/AA"),CHAR(10),"au",CHAR(10),TEXT(C2,"JJ/MM/AA"))</f>
         <v>29/08/22
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -1263,29 +1334,29 @@
         <f>B3+6</f>
         <v>44815</v>
       </c>
-      <c r="D3" s="20" t="str">
+      <c r="D3" s="18" t="str">
         <f t="shared" ref="D3:D45" si="1">CONCATENATE(TEXT(B3,"JJ/MM/AA"),CHAR(10),"au",CHAR(10),TEXT(C3,"JJ/MM/AA"))</f>
         <v>05/09/22
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="48">
         <v>1</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
+      <c r="H3" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
       <c r="L3" s="13"/>
-      <c r="M3" s="25"/>
+      <c r="M3" s="23"/>
     </row>
     <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
@@ -1300,21 +1371,21 @@
         <f t="shared" ref="C4:C45" si="3">B4+6</f>
         <v>44822</v>
       </c>
-      <c r="D4" s="20" t="str">
+      <c r="D4" s="18" t="str">
         <f t="shared" si="1"/>
         <v>12/09/22
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
       <c r="L4" s="13"/>
-      <c r="M4" s="25"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
@@ -1329,30 +1400,30 @@
         <f t="shared" si="3"/>
         <v>44829</v>
       </c>
-      <c r="D5" s="20" t="str">
+      <c r="D5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>19/09/22
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="48">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="26"/>
+      <c r="H5" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
@@ -1367,21 +1438,21 @@
         <f t="shared" si="3"/>
         <v>44836</v>
       </c>
-      <c r="D6" s="20" t="str">
+      <c r="D6" s="18" t="str">
         <f t="shared" si="1"/>
         <v>26/09/22
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="26"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
@@ -1396,33 +1467,33 @@
         <f t="shared" si="3"/>
         <v>44843</v>
       </c>
-      <c r="D7" s="20" t="str">
+      <c r="D7" s="18" t="str">
         <f t="shared" si="1"/>
         <v>03/10/22
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="48">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="26" t="s">
-        <v>27</v>
+      <c r="G7" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -1438,23 +1509,23 @@
         <f t="shared" si="3"/>
         <v>44850</v>
       </c>
-      <c r="D8" s="20" t="str">
+      <c r="D8" s="18" t="str">
         <f t="shared" si="1"/>
         <v>10/10/22
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="26"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
@@ -1468,30 +1539,30 @@
         <f t="shared" si="3"/>
         <v>44857</v>
       </c>
-      <c r="D9" s="20" t="str">
+      <c r="D9" s="18" t="str">
         <f t="shared" si="1"/>
         <v>17/10/22
 au
 23/10/22</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="20">
         <f>E7+1</f>
         <v>4</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="26"/>
+      <c r="G9" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -1503,23 +1574,23 @@
         <f t="shared" si="3"/>
         <v>44864</v>
       </c>
-      <c r="D10" s="20" t="str">
+      <c r="D10" s="18" t="str">
         <f t="shared" si="1"/>
         <v>24/10/22
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="41"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="33"/>
     </row>
     <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -1531,21 +1602,21 @@
         <f t="shared" si="3"/>
         <v>44871</v>
       </c>
-      <c r="D11" s="20" t="str">
+      <c r="D11" s="18" t="str">
         <f t="shared" si="1"/>
         <v>31/10/22
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -1560,31 +1631,31 @@
         <f t="shared" si="3"/>
         <v>44878</v>
       </c>
-      <c r="D12" s="20" t="str">
+      <c r="D12" s="18" t="str">
         <f t="shared" si="1"/>
         <v>07/11/22
 au
 13/11/22</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="20">
         <f>E9</f>
         <v>4</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="30" t="s">
+      <c r="G12" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="26" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -1600,30 +1671,30 @@
         <f t="shared" si="3"/>
         <v>44885</v>
       </c>
-      <c r="D13" s="20" t="str">
+      <c r="D13" s="18" t="str">
         <f t="shared" si="1"/>
         <v>14/11/22
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="48">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="26"/>
+      <c r="G13" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
@@ -1638,21 +1709,21 @@
         <f t="shared" si="3"/>
         <v>44892</v>
       </c>
-      <c r="D14" s="20" t="str">
+      <c r="D14" s="18" t="str">
         <f t="shared" si="1"/>
         <v>21/11/22
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="26"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
@@ -1667,28 +1738,28 @@
         <f t="shared" si="3"/>
         <v>44899</v>
       </c>
-      <c r="D15" s="20" t="str">
+      <c r="D15" s="18" t="str">
         <f t="shared" si="1"/>
         <v>28/11/22
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="48">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="26"/>
+      <c r="F15" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
@@ -1703,23 +1774,23 @@
         <f t="shared" si="3"/>
         <v>44906</v>
       </c>
-      <c r="D16" s="20" t="str">
+      <c r="D16" s="18" t="str">
         <f t="shared" si="1"/>
         <v>05/12/22
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="26"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="10"/>
     </row>
     <row r="17" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
@@ -1734,30 +1805,30 @@
         <f t="shared" si="3"/>
         <v>44913</v>
       </c>
-      <c r="D17" s="20" t="str">
+      <c r="D17" s="18" t="str">
         <f t="shared" si="1"/>
         <v>12/12/22
 au
 18/12/22</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="20">
         <f>E15+1</f>
         <v>7</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="10"/>
     </row>
     <row r="18" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
@@ -1769,23 +1840,23 @@
         <f t="shared" si="3"/>
         <v>44920</v>
       </c>
-      <c r="D18" s="20" t="str">
+      <c r="D18" s="18" t="str">
         <f t="shared" si="1"/>
         <v>19/12/22
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="41"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="33"/>
     </row>
     <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -1797,21 +1868,21 @@
         <f t="shared" si="3"/>
         <v>44927</v>
       </c>
-      <c r="D19" s="20" t="str">
+      <c r="D19" s="18" t="str">
         <f t="shared" si="1"/>
         <v>26/12/22
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="44"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="36"/>
     </row>
     <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -1826,20 +1897,20 @@
         <f t="shared" si="3"/>
         <v>44934</v>
       </c>
-      <c r="D20" s="20" t="str">
+      <c r="D20" s="18" t="str">
         <f t="shared" si="1"/>
         <v>02/01/23
 au
 08/01/23</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="20">
         <v>7</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>21</v>
@@ -1847,8 +1918,8 @@
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="26"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
@@ -1863,30 +1934,30 @@
         <f t="shared" si="3"/>
         <v>44941</v>
       </c>
-      <c r="D21" s="20" t="str">
+      <c r="D21" s="18" t="str">
         <f t="shared" si="1"/>
         <v>09/01/23
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="48">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="M21" s="26"/>
+      <c r="G21" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
@@ -1901,23 +1972,23 @@
         <f t="shared" si="3"/>
         <v>44948</v>
       </c>
-      <c r="D22" s="20" t="str">
+      <c r="D22" s="18" t="str">
         <f t="shared" si="1"/>
         <v>16/01/23
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="38" t="s">
-        <v>37</v>
+      <c r="E22" s="49"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="55" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
@@ -1933,29 +2004,29 @@
         <f t="shared" si="3"/>
         <v>44955</v>
       </c>
-      <c r="D23" s="20" t="str">
+      <c r="D23" s="18" t="str">
         <f t="shared" si="1"/>
         <v>23/01/23
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="45">
+      <c r="E23" s="48">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="38"/>
+      <c r="F23" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="55"/>
     </row>
     <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -1970,21 +2041,21 @@
         <f t="shared" si="3"/>
         <v>44962</v>
       </c>
-      <c r="D24" s="20" t="str">
+      <c r="D24" s="18" t="str">
         <f t="shared" si="1"/>
         <v>30/01/23
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="26"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="10"/>
     </row>
     <row r="25" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
@@ -1996,23 +2067,23 @@
         <f t="shared" si="3"/>
         <v>44969</v>
       </c>
-      <c r="D25" s="20" t="str">
+      <c r="D25" s="18" t="str">
         <f t="shared" si="1"/>
         <v>06/02/23
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="41"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
@@ -2024,21 +2095,21 @@
         <f t="shared" si="3"/>
         <v>44976</v>
       </c>
-      <c r="D26" s="20" t="str">
+      <c r="D26" s="18" t="str">
         <f t="shared" si="1"/>
         <v>13/02/23
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="44"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="36"/>
     </row>
     <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -2053,30 +2124,30 @@
         <f t="shared" si="3"/>
         <v>44983</v>
       </c>
-      <c r="D27" s="20" t="str">
+      <c r="D27" s="18" t="str">
         <f t="shared" si="1"/>
         <v>20/02/23
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="45">
+      <c r="E27" s="48">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="M27" s="18"/>
+      <c r="G27" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="16"/>
     </row>
     <row r="28" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
@@ -2091,21 +2162,21 @@
         <f t="shared" si="3"/>
         <v>44990</v>
       </c>
-      <c r="D28" s="20" t="str">
+      <c r="D28" s="18" t="str">
         <f t="shared" si="1"/>
         <v>27/02/23
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="18"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="16"/>
     </row>
     <row r="29" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
@@ -2120,28 +2191,28 @@
         <f t="shared" si="3"/>
         <v>44997</v>
       </c>
-      <c r="D29" s="20" t="str">
+      <c r="D29" s="18" t="str">
         <f t="shared" si="1"/>
         <v>06/03/23
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="45">
+      <c r="E29" s="48">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="26"/>
+      <c r="F29" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="10"/>
     </row>
     <row r="30" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
@@ -2156,21 +2227,21 @@
         <f t="shared" si="3"/>
         <v>45004</v>
       </c>
-      <c r="D30" s="20" t="str">
+      <c r="D30" s="18" t="str">
         <f t="shared" si="1"/>
         <v>13/03/23
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="26"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="10"/>
     </row>
     <row r="31" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
@@ -2185,27 +2256,27 @@
         <f t="shared" si="3"/>
         <v>45011</v>
       </c>
-      <c r="D31" s="20" t="str">
+      <c r="D31" s="18" t="str">
         <f t="shared" si="1"/>
         <v>20/03/23
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="45">
+      <c r="E31" s="48">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="35"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="46"/>
       <c r="L31" s="13"/>
-      <c r="M31" s="25" t="s">
-        <v>29</v>
+      <c r="M31" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="P31" s="4"/>
     </row>
@@ -2222,21 +2293,21 @@
         <f t="shared" si="3"/>
         <v>45018</v>
       </c>
-      <c r="D32" s="20" t="str">
+      <c r="D32" s="18" t="str">
         <f t="shared" si="1"/>
         <v>27/03/23
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="36"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="47"/>
       <c r="L32" s="13"/>
-      <c r="M32" s="25"/>
+      <c r="M32" s="23"/>
     </row>
     <row r="33" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
@@ -2250,27 +2321,27 @@
         <f t="shared" si="3"/>
         <v>45025</v>
       </c>
-      <c r="D33" s="20" t="str">
+      <c r="D33" s="18" t="str">
         <f t="shared" si="1"/>
         <v>03/04/23
 au
 09/04/23</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="20">
         <v>13</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="26" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="13"/>
-      <c r="H33" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="I33" s="30"/>
+      <c r="H33" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="26"/>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
-      <c r="M33" s="25"/>
+      <c r="M33" s="23"/>
     </row>
     <row r="34" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
@@ -2282,23 +2353,23 @@
         <f t="shared" si="3"/>
         <v>45032</v>
       </c>
-      <c r="D34" s="20" t="str">
+      <c r="D34" s="18" t="str">
         <f t="shared" si="1"/>
         <v>10/04/23
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="57"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="42"/>
     </row>
     <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -2310,21 +2381,21 @@
         <f t="shared" si="3"/>
         <v>45039</v>
       </c>
-      <c r="D35" s="20" t="str">
+      <c r="D35" s="18" t="str">
         <f t="shared" si="1"/>
         <v>17/04/23
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="59"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="45"/>
     </row>
     <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -2336,28 +2407,28 @@
         <f t="shared" si="3"/>
         <v>45046</v>
       </c>
-      <c r="D36" s="20" t="str">
+      <c r="D36" s="18" t="str">
         <f t="shared" si="1"/>
         <v>24/04/23
 au
 30/04/23</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="20">
         <v>13</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="26" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="13"/>
-      <c r="H36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="I36" s="30"/>
+      <c r="H36" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="26"/>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="25" t="s">
-        <v>30</v>
+      <c r="L36" s="25"/>
+      <c r="M36" s="23" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -2370,28 +2441,28 @@
         <f t="shared" si="3"/>
         <v>45053</v>
       </c>
-      <c r="D37" s="20" t="str">
+      <c r="D37" s="18" t="str">
         <f t="shared" si="1"/>
         <v>01/05/23
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="45">
+      <c r="E37" s="48">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="I37" s="35"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="26"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" s="46"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="10"/>
     </row>
     <row r="38" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
@@ -2403,21 +2474,21 @@
         <f t="shared" si="3"/>
         <v>45060</v>
       </c>
-      <c r="D38" s="20" t="str">
+      <c r="D38" s="18" t="str">
         <f t="shared" si="1"/>
         <v>08/05/23
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="46"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="26"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="10"/>
     </row>
     <row r="39" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
@@ -2429,30 +2500,30 @@
         <f t="shared" si="3"/>
         <v>45067</v>
       </c>
-      <c r="D39" s="20" t="str">
+      <c r="D39" s="18" t="str">
         <f t="shared" si="1"/>
         <v>15/05/23
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="45">
+      <c r="E39" s="48">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="35"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="L39" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="M39" s="26"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M39" s="10"/>
     </row>
     <row r="40" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
@@ -2464,21 +2535,21 @@
         <f t="shared" si="3"/>
         <v>45074</v>
       </c>
-      <c r="D40" s="20" t="str">
+      <c r="D40" s="18" t="str">
         <f t="shared" si="1"/>
         <v>22/05/23
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="46"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="26"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="10"/>
     </row>
     <row r="41" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
@@ -2490,28 +2561,28 @@
         <f t="shared" si="3"/>
         <v>45081</v>
       </c>
-      <c r="D41" s="20" t="str">
+      <c r="D41" s="18" t="str">
         <f t="shared" si="1"/>
         <v>29/05/23
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="45">
+      <c r="E41" s="48">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="35" t="s">
+      <c r="F41" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="I41" s="35"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="26"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" s="46"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="10"/>
     </row>
     <row r="42" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
@@ -2523,22 +2594,22 @@
         <f t="shared" si="3"/>
         <v>45088</v>
       </c>
-      <c r="D42" s="20" t="str">
+      <c r="D42" s="18" t="str">
         <f t="shared" si="1"/>
         <v>05/06/23
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="46"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="26" t="s">
-        <v>35</v>
+      <c r="E42" s="49"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
@@ -2551,24 +2622,24 @@
         <f t="shared" si="3"/>
         <v>45095</v>
       </c>
-      <c r="D43" s="20" t="str">
+      <c r="D43" s="18" t="str">
         <f t="shared" si="1"/>
         <v>12/06/23
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="47">
+      <c r="E43" s="40">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="27" t="s">
-        <v>45</v>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="M43" s="10"/>
     </row>
@@ -2582,20 +2653,20 @@
         <f t="shared" si="3"/>
         <v>45102</v>
       </c>
-      <c r="D44" s="20" t="str">
+      <c r="D44" s="18" t="str">
         <f t="shared" si="1"/>
         <v>19/06/23
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="33"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="29"/>
       <c r="M44" s="10"/>
     </row>
     <row r="45" spans="1:13" ht="32" thickBot="1" x14ac:dyDescent="0.4">
@@ -2608,177 +2679,257 @@
         <f t="shared" si="3"/>
         <v>45109</v>
       </c>
-      <c r="D45" s="21" t="str">
+      <c r="D45" s="19" t="str">
         <f t="shared" si="1"/>
         <v>26/06/23
 au
 02/07/23</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="21">
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="51"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="24"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B46" s="15"/>
+      <c r="B46" s="14"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B47" s="15"/>
+      <c r="B47" s="14"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B48" s="15"/>
+      <c r="B48" s="14"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="15"/>
+      <c r="B49" s="14"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="15"/>
+      <c r="B50" s="14"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51" s="15"/>
+      <c r="B51" s="14"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="15"/>
+      <c r="B52" s="14"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="15"/>
+      <c r="B53" s="14"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B54" s="15"/>
+      <c r="B54" s="14"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="15"/>
+      <c r="B55" s="14"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B56" s="15"/>
+      <c r="B56" s="14"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="15"/>
+      <c r="B57" s="14"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B58" s="15"/>
+      <c r="B58" s="14"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B59" s="15"/>
+      <c r="B59" s="14"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B60" s="15"/>
+      <c r="B60" s="14"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B61" s="15"/>
+      <c r="B61" s="14"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="15"/>
+      <c r="B62" s="14"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B63" s="15"/>
+      <c r="B63" s="14"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B64" s="15"/>
+      <c r="B64" s="14"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B65" s="15"/>
+      <c r="B65" s="14"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B66" s="15"/>
+      <c r="B66" s="14"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B67" s="15"/>
+      <c r="B67" s="14"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="15"/>
+      <c r="B68" s="14"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B69" s="15"/>
+      <c r="B69" s="14"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B70" s="15"/>
+      <c r="B70" s="14"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B71" s="15"/>
+      <c r="B71" s="14"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B72" s="15"/>
+      <c r="B72" s="14"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B73" s="15"/>
+      <c r="B73" s="14"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B74" s="15"/>
+      <c r="B74" s="14"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B75" s="15"/>
+      <c r="B75" s="14"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B76" s="15"/>
+      <c r="B76" s="14"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B77" s="15"/>
+      <c r="B77" s="14"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B78" s="15"/>
+      <c r="B78" s="14"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B79" s="15"/>
+      <c r="B79" s="14"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B80" s="15"/>
+      <c r="B80" s="14"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B81" s="15"/>
+      <c r="B81" s="14"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82" s="15"/>
+      <c r="B82" s="14"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83" s="15"/>
+      <c r="B83" s="14"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84" s="15"/>
+      <c r="B84" s="14"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B85" s="15"/>
+      <c r="B85" s="14"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B86" s="15"/>
+      <c r="B86" s="14"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B87" s="15"/>
+      <c r="B87" s="14"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88" s="15"/>
+      <c r="B88" s="14"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B89" s="15"/>
+      <c r="B89" s="14"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90" s="15"/>
+      <c r="B90" s="14"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B91" s="15"/>
+      <c r="B91" s="14"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92" s="15"/>
+      <c r="B92" s="14"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93" s="15"/>
+      <c r="B93" s="14"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B94" s="15"/>
+      <c r="B94" s="14"/>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B95" s="15"/>
+      <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E18:M19"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
     <mergeCell ref="E10:M11"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="E25:M26"/>
@@ -2795,86 +2946,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E18:M19"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I23:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -2888,30 +2959,30 @@
   </sheetPr>
   <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:L2"/>
+      <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="14" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="14" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="14" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="14" customWidth="1"/>
-    <col min="6" max="9" width="31.81640625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="5.1796875" style="16" customWidth="1"/>
-    <col min="11" max="12" width="12.453125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
+    <col min="6" max="9" width="31.81640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.1796875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="12.453125" style="2" customWidth="1"/>
     <col min="13" max="14" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.81640625" style="3" customWidth="1"/>
     <col min="16" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
@@ -2919,18 +2990,18 @@
       <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="17" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J1" s="8"/>
       <c r="K1" s="8" t="s">
@@ -2952,20 +3023,20 @@
         <f>B2+6</f>
         <v>44808</v>
       </c>
-      <c r="D2" s="20" t="str">
+      <c r="D2" s="18" t="str">
         <f>CONCATENATE(TEXT(B2,"JJ/MM/AA"),CHAR(10),"au",CHAR(10),TEXT(C2,"JJ/MM/AA"))</f>
         <v>29/08/22
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="39"/>
     </row>
     <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -2980,26 +3051,28 @@
         <f>B3+6</f>
         <v>44815</v>
       </c>
-      <c r="D3" s="20" t="str">
+      <c r="D3" s="18" t="str">
         <f t="shared" ref="D3:D45" si="1">CONCATENATE(TEXT(B3,"JJ/MM/AA"),CHAR(10),"au",CHAR(10),TEXT(C3,"JJ/MM/AA"))</f>
         <v>05/09/22
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="40">
         <v>1</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="30"/>
+      <c r="H3" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="52"/>
+      <c r="J3" s="26"/>
       <c r="K3" s="13"/>
-      <c r="L3" s="25"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
@@ -3014,20 +3087,20 @@
         <f t="shared" ref="C4:C45" si="3">B4+6</f>
         <v>44822</v>
       </c>
-      <c r="D4" s="20" t="str">
+      <c r="D4" s="18" t="str">
         <f t="shared" si="1"/>
         <v>12/09/22
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="30"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="26"/>
       <c r="K4" s="13"/>
-      <c r="L4" s="25"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
@@ -3042,27 +3115,29 @@
         <f t="shared" si="3"/>
         <v>44829</v>
       </c>
-      <c r="D5" s="20" t="str">
+      <c r="D5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>19/09/22
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="40">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="26"/>
+      <c r="H5" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="52"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
@@ -3077,20 +3152,20 @@
         <f t="shared" si="3"/>
         <v>44836</v>
       </c>
-      <c r="D6" s="20" t="str">
+      <c r="D6" s="18" t="str">
         <f t="shared" si="1"/>
         <v>26/09/22
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="26"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
@@ -3105,28 +3180,30 @@
         <f t="shared" si="3"/>
         <v>44843</v>
       </c>
-      <c r="D7" s="20" t="str">
+      <c r="D7" s="18" t="str">
         <f t="shared" si="1"/>
         <v>03/10/22
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="40">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="26" t="s">
-        <v>27</v>
+      <c r="H7" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="52"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -3142,22 +3219,22 @@
         <f t="shared" si="3"/>
         <v>44850</v>
       </c>
-      <c r="D8" s="20" t="str">
+      <c r="D8" s="18" t="str">
         <f t="shared" si="1"/>
         <v>10/10/22
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="26"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
@@ -3171,29 +3248,29 @@
         <f t="shared" si="3"/>
         <v>44857</v>
       </c>
-      <c r="D9" s="20" t="str">
+      <c r="D9" s="18" t="str">
         <f t="shared" si="1"/>
         <v>17/10/22
 au
 23/10/22</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="20">
         <f>E7+1</f>
         <v>4</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="26"/>
+      <c r="G9" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -3205,22 +3282,22 @@
         <f t="shared" si="3"/>
         <v>44864</v>
       </c>
-      <c r="D10" s="20" t="str">
+      <c r="D10" s="18" t="str">
         <f t="shared" si="1"/>
         <v>24/10/22
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="41"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="33"/>
     </row>
     <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -3232,22 +3309,22 @@
         <f t="shared" si="3"/>
         <v>44871</v>
       </c>
-      <c r="D11" s="20" t="str">
+      <c r="D11" s="18" t="str">
         <f t="shared" si="1"/>
         <v>31/10/22
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="44"/>
-    </row>
-    <row r="12" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="36"/>
+    </row>
+    <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -3260,30 +3337,32 @@
         <f t="shared" si="3"/>
         <v>44878</v>
       </c>
-      <c r="D12" s="20" t="str">
+      <c r="D12" s="18" t="str">
         <f t="shared" si="1"/>
         <v>07/11/22
 au
 13/11/22</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="20">
         <f>E9</f>
         <v>4</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="26" t="s">
-        <v>28</v>
+      <c r="G12" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -3299,29 +3378,29 @@
         <f t="shared" si="3"/>
         <v>44885</v>
       </c>
-      <c r="D13" s="20" t="str">
+      <c r="D13" s="18" t="str">
         <f t="shared" si="1"/>
         <v>14/11/22
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="48">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="26"/>
+      <c r="G13" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="47"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
@@ -3336,20 +3415,26 @@
         <f t="shared" si="3"/>
         <v>44892</v>
       </c>
-      <c r="D14" s="20" t="str">
+      <c r="D14" s="18" t="str">
         <f t="shared" si="1"/>
         <v>21/11/22
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="26"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
@@ -3364,27 +3449,25 @@
         <f t="shared" si="3"/>
         <v>44899</v>
       </c>
-      <c r="D15" s="20" t="str">
+      <c r="D15" s="18" t="str">
         <f t="shared" si="1"/>
         <v>28/11/22
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="40">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="26"/>
+      <c r="F15" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
@@ -3399,22 +3482,28 @@
         <f t="shared" si="3"/>
         <v>44906</v>
       </c>
-      <c r="D16" s="20" t="str">
+      <c r="D16" s="18" t="str">
         <f t="shared" si="1"/>
         <v>05/12/22
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="26"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
@@ -3429,27 +3518,25 @@
         <f t="shared" si="3"/>
         <v>44913</v>
       </c>
-      <c r="D17" s="20" t="str">
+      <c r="D17" s="18" t="str">
         <f t="shared" si="1"/>
         <v>12/12/22
 au
 18/12/22</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="20">
         <f>E15+1</f>
         <v>7</v>
       </c>
-      <c r="F17" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="F17" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
@@ -3461,22 +3548,22 @@
         <f t="shared" si="3"/>
         <v>44920</v>
       </c>
-      <c r="D18" s="20" t="str">
+      <c r="D18" s="18" t="str">
         <f t="shared" si="1"/>
         <v>19/12/22
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="41"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="33"/>
     </row>
     <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -3488,20 +3575,20 @@
         <f t="shared" si="3"/>
         <v>44927</v>
       </c>
-      <c r="D19" s="20" t="str">
+      <c r="D19" s="18" t="str">
         <f t="shared" si="1"/>
         <v>26/12/22
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="44"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="36"/>
     </row>
     <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -3516,26 +3603,30 @@
         <f t="shared" si="3"/>
         <v>44934</v>
       </c>
-      <c r="D20" s="20" t="str">
+      <c r="D20" s="18" t="str">
         <f t="shared" si="1"/>
         <v>02/01/23
 au
 08/01/23</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="20">
         <v>7</v>
       </c>
-      <c r="F20" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="F20" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>81</v>
+      </c>
       <c r="J20" s="13"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="26"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
@@ -3550,29 +3641,27 @@
         <f t="shared" si="3"/>
         <v>44941</v>
       </c>
-      <c r="D21" s="20" t="str">
+      <c r="D21" s="18" t="str">
         <f t="shared" si="1"/>
         <v>09/01/23
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="40">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="26"/>
+      <c r="F21" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="10"/>
     </row>
     <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
@@ -3587,22 +3676,28 @@
         <f t="shared" si="3"/>
         <v>44948</v>
       </c>
-      <c r="D22" s="20" t="str">
+      <c r="D22" s="18" t="str">
         <f t="shared" si="1"/>
         <v>16/01/23
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="38" t="s">
-        <v>37</v>
+      <c r="E22" s="43"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="55" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -3618,26 +3713,26 @@
         <f t="shared" si="3"/>
         <v>44955</v>
       </c>
-      <c r="D23" s="20" t="str">
+      <c r="D23" s="18" t="str">
         <f t="shared" si="1"/>
         <v>23/01/23
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="40">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="38"/>
+      <c r="F23" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="55"/>
     </row>
     <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -3652,20 +3747,26 @@
         <f t="shared" si="3"/>
         <v>44962</v>
       </c>
-      <c r="D24" s="20" t="str">
+      <c r="D24" s="18" t="str">
         <f t="shared" si="1"/>
         <v>30/01/23
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="26"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
@@ -3677,22 +3778,22 @@
         <f t="shared" si="3"/>
         <v>44969</v>
       </c>
-      <c r="D25" s="20" t="str">
+      <c r="D25" s="18" t="str">
         <f t="shared" si="1"/>
         <v>06/02/23
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="41"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="33"/>
     </row>
     <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
@@ -3704,20 +3805,20 @@
         <f t="shared" si="3"/>
         <v>44976</v>
       </c>
-      <c r="D26" s="20" t="str">
+      <c r="D26" s="18" t="str">
         <f t="shared" si="1"/>
         <v>13/02/23
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="44"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="36"/>
     </row>
     <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -3732,29 +3833,29 @@
         <f t="shared" si="3"/>
         <v>44983</v>
       </c>
-      <c r="D27" s="20" t="str">
+      <c r="D27" s="18" t="str">
         <f t="shared" si="1"/>
         <v>20/02/23
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="40">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="37"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="18"/>
+      <c r="F27" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="52"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="16"/>
     </row>
     <row r="28" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
@@ -3769,20 +3870,20 @@
         <f t="shared" si="3"/>
         <v>44990</v>
       </c>
-      <c r="D28" s="20" t="str">
+      <c r="D28" s="18" t="str">
         <f t="shared" si="1"/>
         <v>27/02/23
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="48"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="18"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="16"/>
     </row>
     <row r="29" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
@@ -3797,27 +3898,27 @@
         <f t="shared" si="3"/>
         <v>44997</v>
       </c>
-      <c r="D29" s="20" t="str">
+      <c r="D29" s="18" t="str">
         <f t="shared" si="1"/>
         <v>06/03/23
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="47">
+      <c r="E29" s="40">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="37"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="26"/>
+      <c r="F29" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="52"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
@@ -3832,20 +3933,20 @@
         <f t="shared" si="3"/>
         <v>45004</v>
       </c>
-      <c r="D30" s="20" t="str">
+      <c r="D30" s="18" t="str">
         <f t="shared" si="1"/>
         <v>13/03/23
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="26"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="10"/>
     </row>
     <row r="31" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
@@ -3860,26 +3961,26 @@
         <f t="shared" si="3"/>
         <v>45011</v>
       </c>
-      <c r="D31" s="20" t="str">
+      <c r="D31" s="18" t="str">
         <f t="shared" si="1"/>
         <v>20/03/23
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="47">
+      <c r="E31" s="40">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
       <c r="K31" s="13"/>
-      <c r="L31" s="25" t="s">
-        <v>29</v>
+      <c r="L31" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="O31" s="4"/>
     </row>
@@ -3896,20 +3997,20 @@
         <f t="shared" si="3"/>
         <v>45018</v>
       </c>
-      <c r="D32" s="20" t="str">
+      <c r="D32" s="18" t="str">
         <f t="shared" si="1"/>
         <v>27/03/23
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="48"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
       <c r="K32" s="13"/>
-      <c r="L32" s="25"/>
+      <c r="L32" s="23"/>
     </row>
     <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
@@ -3923,26 +4024,26 @@
         <f t="shared" si="3"/>
         <v>45025</v>
       </c>
-      <c r="D33" s="20" t="str">
+      <c r="D33" s="18" t="str">
         <f t="shared" si="1"/>
         <v>03/04/23
 au
 09/04/23</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="20">
         <v>13</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="26" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="13"/>
-      <c r="H33" s="30" t="s">
-        <v>40</v>
+      <c r="H33" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
-      <c r="L33" s="25"/>
+      <c r="L33" s="23"/>
     </row>
     <row r="34" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
@@ -3954,22 +4055,22 @@
         <f t="shared" si="3"/>
         <v>45032</v>
       </c>
-      <c r="D34" s="20" t="str">
+      <c r="D34" s="18" t="str">
         <f t="shared" si="1"/>
         <v>10/04/23
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="57"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="42"/>
     </row>
     <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -3981,20 +4082,20 @@
         <f t="shared" si="3"/>
         <v>45039</v>
       </c>
-      <c r="D35" s="20" t="str">
+      <c r="D35" s="18" t="str">
         <f t="shared" si="1"/>
         <v>17/04/23
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="59"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="45"/>
     </row>
     <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -4006,27 +4107,27 @@
         <f t="shared" si="3"/>
         <v>45046</v>
       </c>
-      <c r="D36" s="20" t="str">
+      <c r="D36" s="18" t="str">
         <f t="shared" si="1"/>
         <v>24/04/23
 au
 30/04/23</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="20">
         <v>13</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="26" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="13"/>
-      <c r="H36" s="30" t="s">
-        <v>40</v>
+      <c r="H36" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="25" t="s">
-        <v>30</v>
+      <c r="K36" s="25"/>
+      <c r="L36" s="23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -4039,27 +4140,27 @@
         <f t="shared" si="3"/>
         <v>45053</v>
       </c>
-      <c r="D37" s="20" t="str">
+      <c r="D37" s="18" t="str">
         <f t="shared" si="1"/>
         <v>01/05/23
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="47">
+      <c r="E37" s="40">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="37" t="s">
+      <c r="F37" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="26"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="10"/>
     </row>
     <row r="38" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
@@ -4071,20 +4172,20 @@
         <f t="shared" si="3"/>
         <v>45060</v>
       </c>
-      <c r="D38" s="20" t="str">
+      <c r="D38" s="18" t="str">
         <f t="shared" si="1"/>
         <v>08/05/23
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="26"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="10"/>
     </row>
     <row r="39" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
@@ -4096,29 +4197,29 @@
         <f t="shared" si="3"/>
         <v>45067</v>
       </c>
-      <c r="D39" s="20" t="str">
+      <c r="D39" s="18" t="str">
         <f t="shared" si="1"/>
         <v>15/05/23
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="47">
+      <c r="E39" s="40">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="37" t="s">
+      <c r="F39" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="37"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="K39" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="L39" s="26"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K39" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L39" s="10"/>
     </row>
     <row r="40" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
@@ -4130,20 +4231,20 @@
         <f t="shared" si="3"/>
         <v>45074</v>
       </c>
-      <c r="D40" s="20" t="str">
+      <c r="D40" s="18" t="str">
         <f t="shared" si="1"/>
         <v>22/05/23
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="26"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="10"/>
     </row>
     <row r="41" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
@@ -4155,27 +4256,27 @@
         <f t="shared" si="3"/>
         <v>45081</v>
       </c>
-      <c r="D41" s="20" t="str">
+      <c r="D41" s="18" t="str">
         <f t="shared" si="1"/>
         <v>29/05/23
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="47">
+      <c r="E41" s="40">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="37" t="s">
+      <c r="F41" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="26"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="10"/>
     </row>
     <row r="42" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
@@ -4187,21 +4288,21 @@
         <f t="shared" si="3"/>
         <v>45088</v>
       </c>
-      <c r="D42" s="20" t="str">
+      <c r="D42" s="18" t="str">
         <f t="shared" si="1"/>
         <v>05/06/23
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="26" t="s">
-        <v>35</v>
+      <c r="E42" s="43"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -4214,25 +4315,25 @@
         <f t="shared" si="3"/>
         <v>45095</v>
       </c>
-      <c r="D43" s="20" t="str">
+      <c r="D43" s="18" t="str">
         <f t="shared" si="1"/>
         <v>12/06/23
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="47">
+      <c r="E43" s="40">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="L43" s="26"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L43" s="10"/>
     </row>
     <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
@@ -4244,20 +4345,20 @@
         <f t="shared" si="3"/>
         <v>45102</v>
       </c>
-      <c r="D44" s="20" t="str">
+      <c r="D44" s="18" t="str">
         <f t="shared" si="1"/>
         <v>19/06/23
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="26"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="10"/>
     </row>
     <row r="45" spans="1:12" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="11"/>
@@ -4269,215 +4370,200 @@
         <f t="shared" si="3"/>
         <v>45109</v>
       </c>
-      <c r="D45" s="21" t="str">
+      <c r="D45" s="19" t="str">
         <f t="shared" si="1"/>
         <v>26/06/23
 au
 02/07/23</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="21">
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="51"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
       <c r="L45" s="7"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B46" s="15"/>
+      <c r="B46" s="14"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B47" s="15"/>
+      <c r="B47" s="14"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B48" s="15"/>
+      <c r="B48" s="14"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="15"/>
+      <c r="B49" s="14"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="15"/>
+      <c r="B50" s="14"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51" s="15"/>
+      <c r="B51" s="14"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="15"/>
+      <c r="B52" s="14"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="15"/>
+      <c r="B53" s="14"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B54" s="15"/>
+      <c r="B54" s="14"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="15"/>
+      <c r="B55" s="14"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B56" s="15"/>
+      <c r="B56" s="14"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="15"/>
+      <c r="B57" s="14"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B58" s="15"/>
+      <c r="B58" s="14"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B59" s="15"/>
+      <c r="B59" s="14"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B60" s="15"/>
+      <c r="B60" s="14"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B61" s="15"/>
+      <c r="B61" s="14"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="15"/>
+      <c r="B62" s="14"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B63" s="15"/>
+      <c r="B63" s="14"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B64" s="15"/>
+      <c r="B64" s="14"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B65" s="15"/>
+      <c r="B65" s="14"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B66" s="15"/>
+      <c r="B66" s="14"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B67" s="15"/>
+      <c r="B67" s="14"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="15"/>
+      <c r="B68" s="14"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B69" s="15"/>
+      <c r="B69" s="14"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B70" s="15"/>
+      <c r="B70" s="14"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B71" s="15"/>
+      <c r="B71" s="14"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B72" s="15"/>
+      <c r="B72" s="14"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B73" s="15"/>
+      <c r="B73" s="14"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B74" s="15"/>
+      <c r="B74" s="14"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B75" s="15"/>
+      <c r="B75" s="14"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B76" s="15"/>
+      <c r="B76" s="14"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B77" s="15"/>
+      <c r="B77" s="14"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B78" s="15"/>
+      <c r="B78" s="14"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B79" s="15"/>
+      <c r="B79" s="14"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B80" s="15"/>
+      <c r="B80" s="14"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B81" s="15"/>
+      <c r="B81" s="14"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82" s="15"/>
+      <c r="B82" s="14"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83" s="15"/>
+      <c r="B83" s="14"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84" s="15"/>
+      <c r="B84" s="14"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B85" s="15"/>
+      <c r="B85" s="14"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B86" s="15"/>
+      <c r="B86" s="14"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B87" s="15"/>
+      <c r="B87" s="14"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88" s="15"/>
+      <c r="B88" s="14"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B89" s="15"/>
+      <c r="B89" s="14"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90" s="15"/>
+      <c r="B90" s="14"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B91" s="15"/>
+      <c r="B91" s="14"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92" s="15"/>
+      <c r="B92" s="14"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93" s="15"/>
+      <c r="B93" s="14"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B94" s="15"/>
+      <c r="B94" s="14"/>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B95" s="15"/>
+      <c r="B95" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="E10:L11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
+  <mergeCells count="71">
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
     <mergeCell ref="E34:L35"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="F37:F38"/>
@@ -4494,21 +4580,37 @@
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E10:L11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progressions/Informatique_MPSI_PTSI.xlsx
+++ b/Progressions/Informatique_MPSI_PTSI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DFE9BE-6DE6-4BFE-BA52-38E731D36CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C375FF-09D6-4954-85FE-C27B4600B34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="96">
   <si>
     <t>Num</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>A*/Dijskstra</t>
-  </si>
-  <si>
-    <t>Parcours de graphses</t>
   </si>
   <si>
     <t>DS 4 ?</t>
@@ -303,9 +300,6 @@
 Activité 8 : Récursivité</t>
   </si>
   <si>
-    <t xml:space="preserve">Activité 9 : </t>
-  </si>
-  <si>
     <t>Tris</t>
   </si>
   <si>
@@ -313,13 +307,52 @@
   </si>
   <si>
     <t>DS 7</t>
+  </si>
+  <si>
+    <t>Parcours de graphes, création d'un labyrinthe</t>
+  </si>
+  <si>
+    <t>Parcours de graphe, résolution d'un labyrinthe</t>
+  </si>
+  <si>
+    <t>Introduction aux graphes
+(Applictions directes, cavaliers)</t>
+  </si>
+  <si>
+    <t>Dictionnaires 
+Drone, 
+Snakes and ladders</t>
+  </si>
+  <si>
+    <t>Tracés de fontion</t>
+  </si>
+  <si>
+    <t>Tri par comptage, tri fusion, comparaison de tris</t>
+  </si>
+  <si>
+    <t>Activité 9 : Tracés de courbes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activité 10 Tris </t>
+  </si>
+  <si>
+    <t>Activité 11 Dictionnaires</t>
+  </si>
+  <si>
+    <t>Activité 12 Piles, files</t>
+  </si>
+  <si>
+    <t>Activité 13 Graphes</t>
+  </si>
+  <si>
+    <t>Activité 14 : tracer de grille</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -841,6 +874,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -859,6 +904,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -868,52 +937,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1245,7 +1278,7 @@
       <selection pane="bottomRight" activeCell="G17" sqref="F17:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
@@ -1262,7 +1295,7 @@
     <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1276,14 +1309,14 @@
         <v>8</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K1" s="8"/>
       <c r="L1" s="8" t="s">
@@ -1293,7 +1326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="31.5">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -1311,17 +1344,17 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
-    </row>
-    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+    </row>
+    <row r="3" spans="1:13" ht="31.5" customHeight="1">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -1340,25 +1373,25 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="41">
         <v>1</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
+      <c r="H3" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="13"/>
       <c r="M3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="31.5">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1377,17 +1410,17 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
       <c r="L4" s="13"/>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="31.5" customHeight="1">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1406,26 +1439,26 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="41">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
+      <c r="H5" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
       <c r="L5" s="26"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="31.5">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1444,17 +1477,17 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="26"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="31.5" customHeight="1">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1473,30 +1506,30 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="41">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46" t="s">
+      <c r="G7" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="46"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="31"/>
       <c r="L7" s="26"/>
       <c r="M7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="31.5">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1515,19 +1548,19 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
       <c r="L8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="31.5">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1553,7 +1586,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="26" t="s">
         <v>24</v>
@@ -1564,7 +1597,7 @@
       <c r="L9" s="26"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="31.5">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -1580,19 +1613,19 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="33"/>
-    </row>
-    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="37"/>
+    </row>
+    <row r="11" spans="1:13" ht="31.5">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -1608,17 +1641,17 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="36"/>
-    </row>
-    <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="40"/>
+    </row>
+    <row r="12" spans="1:13" ht="31.5">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -1645,7 +1678,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" s="26" t="s">
         <v>24</v>
@@ -1658,7 +1691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="31.5">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -1677,26 +1710,26 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="41">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="46" t="s">
+      <c r="G13" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
       <c r="L13" s="26"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="31.5">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -1715,17 +1748,17 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
       <c r="L14" s="26"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="31.5">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -1744,24 +1777,24 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="41">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
+      <c r="G15" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
       <c r="L15" s="26"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="31.5">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -1780,19 +1813,19 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
       <c r="L16" s="26" t="s">
         <v>26</v>
       </c>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="31.5">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -1819,10 +1852,10 @@
         <v>12</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -1830,7 +1863,7 @@
       <c r="L17" s="26"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="31.5">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -1846,19 +1879,19 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="33"/>
-    </row>
-    <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="37"/>
+    </row>
+    <row r="19" spans="1:16" ht="31.5">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -1874,17 +1907,17 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="36"/>
-    </row>
-    <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="40"/>
+    </row>
+    <row r="20" spans="1:16" ht="31.5">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -1910,7 +1943,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>21</v>
@@ -1921,7 +1954,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="31.5">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -1940,26 +1973,26 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="41">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
       <c r="L21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="31.5">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -1978,20 +2011,20 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
       <c r="L22" s="26"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="55" t="s">
+      <c r="N22" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="31.5">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -2010,25 +2043,25 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="41">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
+      <c r="G23" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
       <c r="L23" s="29"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="55"/>
-    </row>
-    <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="N23" s="34"/>
+    </row>
+    <row r="24" spans="1:16" ht="31.5">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -2047,17 +2080,17 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
       <c r="L24" s="26"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="31.5">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -2073,19 +2106,19 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="37"/>
+    </row>
+    <row r="26" spans="1:16" ht="31.5">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -2101,17 +2134,17 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="36"/>
-    </row>
-    <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E26" s="38"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="40"/>
+    </row>
+    <row r="27" spans="1:16" ht="31.5">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -2130,26 +2163,26 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="41">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
+      <c r="G27" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="46"/>
+      <c r="K27" s="31"/>
       <c r="L27" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M27" s="16"/>
     </row>
-    <row r="28" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="31.5">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -2168,17 +2201,17 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="47"/>
+      <c r="K28" s="32"/>
       <c r="L28" s="15"/>
       <c r="M28" s="16"/>
     </row>
-    <row r="29" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="31.5">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -2197,24 +2230,24 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="41">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="46" t="s">
+      <c r="G29" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="46"/>
+      <c r="K29" s="31"/>
       <c r="L29" s="26"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="31.5">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -2233,17 +2266,17 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="47"/>
+      <c r="K30" s="32"/>
       <c r="L30" s="26"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="31.5">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -2262,25 +2295,25 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="48">
+      <c r="E31" s="41">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="46" t="s">
+      <c r="F31" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="46"/>
+      <c r="K31" s="31"/>
       <c r="L31" s="13"/>
       <c r="M31" s="23" t="s">
         <v>27</v>
       </c>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="31.5">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -2299,17 +2332,17 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="47"/>
+      <c r="K32" s="32"/>
       <c r="L32" s="13"/>
       <c r="M32" s="23"/>
     </row>
-    <row r="33" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="31.5">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -2343,7 +2376,7 @@
       <c r="L33" s="13"/>
       <c r="M33" s="23"/>
     </row>
-    <row r="34" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="31.5">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -2359,19 +2392,19 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="42"/>
-    </row>
-    <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="53"/>
+    </row>
+    <row r="35" spans="1:13" ht="31.5">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -2387,17 +2420,17 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="43"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="45"/>
-    </row>
-    <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E35" s="44"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="55"/>
+    </row>
+    <row r="36" spans="1:13" ht="31.5">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -2431,7 +2464,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="31.5">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -2447,24 +2480,24 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="48">
+      <c r="E37" s="41">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="I37" s="46"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" s="31"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="46"/>
+      <c r="K37" s="31"/>
       <c r="L37" s="26"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="31.5">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -2480,17 +2513,17 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="49"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="47"/>
+      <c r="K38" s="32"/>
       <c r="L38" s="26"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="31.5">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -2506,15 +2539,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="48">
+      <c r="E39" s="41">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="46" t="s">
+      <c r="F39" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="46"/>
-      <c r="H39" s="53"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="45"/>
       <c r="I39" s="30"/>
       <c r="J39" s="26"/>
       <c r="K39" s="30" t="s">
@@ -2525,7 +2558,7 @@
       </c>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="31.5">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -2541,17 +2574,17 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="49"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="54"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="46"/>
       <c r="I40" s="30"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
       <c r="L40" s="26"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="31.5">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -2567,24 +2600,24 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="48">
+      <c r="E41" s="41">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="46" t="s">
+      <c r="F41" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46" t="s">
+      <c r="G41" s="31"/>
+      <c r="H41" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="46"/>
+      <c r="I41" s="31"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="46"/>
+      <c r="K41" s="31"/>
       <c r="L41" s="26"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="31.5">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -2600,19 +2633,19 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="49"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="47"/>
+      <c r="K42" s="32"/>
       <c r="L42" s="26"/>
       <c r="M42" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="31.5">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -2628,22 +2661,22 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="40">
+      <c r="E43" s="43">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="52"/>
+      <c r="K43" s="33"/>
       <c r="L43" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M43" s="10"/>
     </row>
-    <row r="44" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="31.5">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -2659,17 +2692,17 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="43"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="52"/>
+      <c r="K44" s="33"/>
       <c r="L44" s="29"/>
       <c r="M44" s="10"/>
     </row>
-    <row r="45" spans="1:13" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" ht="32" thickBot="1">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -2689,231 +2722,183 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="50"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E18:M19"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E10:M11"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E25:M26"/>
+    <mergeCell ref="E34:M35"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="F45:H45"/>
     <mergeCell ref="E3:E4"/>
@@ -2930,22 +2915,70 @@
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="E10:M11"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E25:M26"/>
-    <mergeCell ref="E34:M35"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E18:M19"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -2959,21 +2992,23 @@
   </sheetPr>
   <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="14.7265625" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
-    <col min="6" max="9" width="31.81640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.81640625" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="31.81640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="5.1796875" style="2" customWidth="1"/>
     <col min="11" max="12" width="12.453125" style="2" customWidth="1"/>
     <col min="13" max="14" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
@@ -2981,7 +3016,7 @@
     <col min="16" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -2998,10 +3033,10 @@
         <v>9</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="J1" s="8"/>
       <c r="K1" s="8" t="s">
@@ -3011,7 +3046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="31.5">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -3029,16 +3064,16 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="39"/>
-    </row>
-    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="51"/>
+    </row>
+    <row r="3" spans="1:12" ht="31.5">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -3057,24 +3092,24 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="43">
         <v>1</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="52"/>
+      <c r="H3" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="33"/>
       <c r="J3" s="26"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="31.5">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3093,16 +3128,16 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="26"/>
       <c r="K4" s="13"/>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="31.5">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3121,25 +3156,25 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="43">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" s="52"/>
+      <c r="H5" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="33"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="31.5">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3158,16 +3193,16 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="31.5">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3186,27 +3221,27 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="43">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="52"/>
+      <c r="H7" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="33"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="31.5">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3225,18 +3260,18 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="31.5">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -3262,17 +3297,17 @@
         <v>13</v>
       </c>
       <c r="G9" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>67</v>
       </c>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="31.5">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -3288,18 +3323,18 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="33"/>
-    </row>
-    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
+    </row>
+    <row r="11" spans="1:12" ht="31.5">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -3315,16 +3350,16 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
-    </row>
-    <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.35">
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
+    </row>
+    <row r="12" spans="1:12" ht="39">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -3351,21 +3386,21 @@
         <v>13</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="46" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
       <c r="L12" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="31.5">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -3384,25 +3419,25 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="41">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="31" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="47"/>
+      <c r="I13" s="32"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="31.5">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -3421,22 +3456,22 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="46" t="s">
+      <c r="E14" s="42"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>78</v>
+      <c r="I14" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="31.5">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -3455,21 +3490,21 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="43">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="31.5">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -3488,16 +3523,16 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="46" t="s">
+      <c r="E16" s="44"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="46" t="s">
-        <v>72</v>
+      <c r="I16" s="31" t="s">
+        <v>71</v>
       </c>
       <c r="J16" s="26"/>
       <c r="K16" s="26" t="s">
@@ -3505,7 +3540,7 @@
       </c>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="31.5">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -3529,16 +3564,16 @@
         <v>7</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+        <v>72</v>
+      </c>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
       <c r="J17" s="13"/>
       <c r="K17" s="26"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="31.5">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -3554,18 +3589,18 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
-    </row>
-    <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="37"/>
+    </row>
+    <row r="19" spans="1:15" ht="31.5">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -3581,16 +3616,16 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="36"/>
-    </row>
-    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="40"/>
+    </row>
+    <row r="20" spans="1:15" ht="31.5">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -3613,22 +3648,22 @@
         <v>7</v>
       </c>
       <c r="F20" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="46" t="s">
+      <c r="H20" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="31" t="s">
         <v>80</v>
-      </c>
-      <c r="I20" s="46" t="s">
-        <v>81</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="24"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="31.5">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -3647,23 +3682,23 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="43">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
+      <c r="F21" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="31.5">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -3682,25 +3717,25 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="46" t="s">
-        <v>82</v>
+      <c r="E22" s="44"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="55" t="s">
+      <c r="M22" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="31.5">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -3719,22 +3754,22 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="40">
+      <c r="E23" s="43">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
+      <c r="F23" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
       <c r="J23" s="26"/>
       <c r="K23" s="29"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="55"/>
-    </row>
-    <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M23" s="34"/>
+    </row>
+    <row r="24" spans="1:15" ht="31.5">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -3753,22 +3788,24 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="52"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="33"/>
       <c r="G24" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="I24" s="26"/>
+        <v>81</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>91</v>
+      </c>
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
       <c r="L24" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="31.5">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -3784,18 +3821,18 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="33"/>
-    </row>
-    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="37"/>
+    </row>
+    <row r="26" spans="1:15" ht="31.5">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -3811,16 +3848,16 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="36"/>
-    </row>
-    <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E26" s="38"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="40"/>
+    </row>
+    <row r="27" spans="1:15" ht="31.5">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -3839,25 +3876,27 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="40">
+      <c r="E27" s="43">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="52" t="s">
+      <c r="F27" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" s="52"/>
+      <c r="H27" s="33" t="s">
+        <v>89</v>
+      </c>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L27" s="16"/>
     </row>
-    <row r="28" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="31.5">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -3876,16 +3915,16 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="15"/>
       <c r="L28" s="16"/>
     </row>
-    <row r="29" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="31.5">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -3904,23 +3943,27 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="40">
+      <c r="E29" s="43">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="52" t="s">
+      <c r="F29" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="52" t="s">
+      <c r="G29" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="52"/>
-      <c r="I29" s="26"/>
+      <c r="H29" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>92</v>
+      </c>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
       <c r="L29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="31.5">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -3939,16 +3982,16 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="26"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="32"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="31.5">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -3967,16 +4010,20 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="40">
+      <c r="E31" s="43">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="52" t="s">
+      <c r="F31" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="26"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>93</v>
+      </c>
       <c r="J31" s="26"/>
       <c r="K31" s="13"/>
       <c r="L31" s="23" t="s">
@@ -3984,7 +4031,7 @@
       </c>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="31.5">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -4003,16 +4050,16 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="26"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="32"/>
       <c r="J32" s="26"/>
       <c r="K32" s="13"/>
       <c r="L32" s="23"/>
     </row>
-    <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="31.5">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -4038,14 +4085,16 @@
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="13"/>
+        <v>86</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>94</v>
+      </c>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
       <c r="L33" s="23"/>
     </row>
-    <row r="34" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="31.5">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -4061,18 +4110,18 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="42"/>
-    </row>
-    <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="53"/>
+    </row>
+    <row r="35" spans="1:12" ht="31.5">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -4088,16 +4137,16 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="43"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="45"/>
-    </row>
-    <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E35" s="44"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="55"/>
+    </row>
+    <row r="36" spans="1:12" ht="31.5">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -4121,16 +4170,18 @@
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="13"/>
+        <v>86</v>
+      </c>
+      <c r="I36" s="26" t="s">
+        <v>94</v>
+      </c>
       <c r="J36" s="13"/>
       <c r="K36" s="25"/>
       <c r="L36" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="31.5">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -4146,23 +4197,25 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="40">
+      <c r="E37" s="43">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="52" t="s">
+      <c r="F37" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="I37" s="26"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I37" s="31" t="s">
+        <v>95</v>
+      </c>
       <c r="J37" s="26"/>
       <c r="K37" s="26"/>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="31.5">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -4178,16 +4231,16 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="43"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="26"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="32"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="31.5">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -4203,14 +4256,14 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="40">
+      <c r="E39" s="43">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="52"/>
+      <c r="G39" s="33"/>
       <c r="H39" s="56"/>
       <c r="I39" s="26"/>
       <c r="J39" s="30" t="s">
@@ -4221,7 +4274,7 @@
       </c>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="31.5">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -4237,16 +4290,16 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="43"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
       <c r="H40" s="56"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="31.5">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -4262,23 +4315,23 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="40">
+      <c r="E41" s="43">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="52" t="s">
+      <c r="F41" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52" t="s">
-        <v>39</v>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33" t="s">
+        <v>85</v>
       </c>
       <c r="I41" s="26"/>
       <c r="J41" s="26"/>
       <c r="K41" s="26"/>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="31.5">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -4294,18 +4347,18 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="43"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
       <c r="L42" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="31.5">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -4321,21 +4374,21 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="40">
+      <c r="E43" s="43">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L43" s="10"/>
     </row>
-    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="31.5">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -4351,16 +4404,16 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="43"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="29"/>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="1:12" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" ht="32" thickBot="1">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -4380,175 +4433,214 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="50"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
+  <mergeCells count="74">
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E10:L11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E25:L26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="I29:I30"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="F45:H45"/>
@@ -4565,54 +4657,18 @@
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E25:L26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
     <mergeCell ref="E18:L19"/>
-    <mergeCell ref="E10:L11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>